--- a/input/l2/WHO-SRH-21.2-eng.xlsx
+++ b/input/l2/WHO-SRH-21.2-eng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adam/Src/who-int/anc-cds/input/l2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982292A4-A5F3-3242-9B42-20FC6F1C822D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A939AAC-C7E7-1D41-A4A4-9A459E8A7CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="1520" windowWidth="26060" windowHeight="17620" firstSheet="1" activeTab="3" xr2:uid="{8743308B-CEBB-4E83-A8A2-EC270BF9A959}"/>
+    <workbookView xWindow="5680" yWindow="1520" windowWidth="26060" windowHeight="17620" activeTab="3" xr2:uid="{8743308B-CEBB-4E83-A8A2-EC270BF9A959}"/>
   </bookViews>
   <sheets>
     <sheet name="FP.LO.004-3. PregTestNegative" sheetId="26" state="hidden" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="1689">
   <si>
     <t>FP.LO.004-2 Pregnancy Test Needed</t>
   </si>
@@ -9400,6 +9400,9 @@
   </si>
   <si>
     <t>ANC.DT.06 Physical symptoms and exam results requiring referral</t>
+  </si>
+  <si>
+    <t>Bluish discolouration around the mucous membranes in the mouth, lips and tongue.</t>
   </si>
 </sst>
 </file>
@@ -11926,81 +11929,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="14" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="14" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="14" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="14" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12049,6 +12052,42 @@
     <xf numFmtId="0" fontId="53" fillId="34" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12058,48 +12097,12 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12142,12 +12145,69 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12169,63 +12229,6 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -12259,14 +12262,94 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -12280,33 +12363,36 @@
     <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -12321,109 +12407,38 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -12433,54 +12448,42 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -12490,53 +12493,53 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -14195,7 +14198,7 @@
       <c r="D17" s="273" t="s">
         <v>613</v>
       </c>
-      <c r="E17" s="443" t="s">
+      <c r="E17" s="445" t="s">
         <v>614</v>
       </c>
       <c r="F17" s="333" t="s">
@@ -14212,7 +14215,7 @@
       <c r="D18" s="273" t="s">
         <v>613</v>
       </c>
-      <c r="E18" s="443"/>
+      <c r="E18" s="445"/>
       <c r="F18" s="333" t="s">
         <v>615</v>
       </c>
@@ -14227,7 +14230,7 @@
       <c r="D19" s="273" t="s">
         <v>613</v>
       </c>
-      <c r="E19" s="443"/>
+      <c r="E19" s="445"/>
       <c r="F19" s="333" t="s">
         <v>615</v>
       </c>
@@ -14242,7 +14245,7 @@
       <c r="D20" s="273" t="s">
         <v>613</v>
       </c>
-      <c r="E20" s="443"/>
+      <c r="E20" s="445"/>
       <c r="F20" s="333" t="s">
         <v>615</v>
       </c>
@@ -14257,7 +14260,7 @@
       <c r="D21" s="273" t="s">
         <v>613</v>
       </c>
-      <c r="E21" s="443"/>
+      <c r="E21" s="445"/>
       <c r="F21" s="333" t="s">
         <v>615</v>
       </c>
@@ -14659,10 +14662,10 @@
       <c r="D5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="445" t="s">
+      <c r="E5" s="443" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="446"/>
+      <c r="F5" s="444"/>
       <c r="G5" s="283" t="s">
         <v>32</v>
       </c>
@@ -16480,15 +16483,15 @@
       <c r="B4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="507" t="s">
+      <c r="C4" s="533" t="s">
         <v>663</v>
       </c>
-      <c r="D4" s="508"/>
-      <c r="E4" s="508"/>
-      <c r="F4" s="508"/>
-      <c r="G4" s="508"/>
-      <c r="H4" s="508"/>
-      <c r="I4" s="508"/>
+      <c r="D4" s="534"/>
+      <c r="E4" s="534"/>
+      <c r="F4" s="534"/>
+      <c r="G4" s="534"/>
+      <c r="H4" s="534"/>
+      <c r="I4" s="534"/>
       <c r="J4" s="312"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -16496,15 +16499,15 @@
       <c r="B5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="509" t="s">
+      <c r="C5" s="535" t="s">
         <v>664</v>
       </c>
-      <c r="D5" s="510"/>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="510"/>
-      <c r="I5" s="510"/>
+      <c r="D5" s="536"/>
+      <c r="E5" s="536"/>
+      <c r="F5" s="536"/>
+      <c r="G5" s="536"/>
+      <c r="H5" s="536"/>
+      <c r="I5" s="536"/>
       <c r="J5" s="312"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
@@ -16512,32 +16515,32 @@
       <c r="B6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="511" t="s">
+      <c r="C6" s="529" t="s">
         <v>581</v>
       </c>
-      <c r="D6" s="512"/>
-      <c r="E6" s="512"/>
-      <c r="F6" s="512"/>
-      <c r="G6" s="512"/>
-      <c r="H6" s="512"/>
-      <c r="I6" s="512"/>
+      <c r="D6" s="530"/>
+      <c r="E6" s="530"/>
+      <c r="F6" s="530"/>
+      <c r="G6" s="530"/>
+      <c r="H6" s="530"/>
+      <c r="I6" s="530"/>
       <c r="J6" s="312"/>
     </row>
     <row r="7" spans="1:10" ht="16">
       <c r="A7" s="335"/>
-      <c r="B7" s="520" t="s">
+      <c r="B7" s="547" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="521"/>
-      <c r="D7" s="521"/>
-      <c r="E7" s="522"/>
+      <c r="C7" s="548"/>
+      <c r="D7" s="548"/>
+      <c r="E7" s="549"/>
       <c r="F7" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="516" t="s">
+      <c r="G7" s="544" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="517"/>
+      <c r="H7" s="545"/>
       <c r="I7" s="77" t="s">
         <v>32</v>
       </c>
@@ -16564,7 +16567,7 @@
         <v>410</v>
       </c>
       <c r="H8" s="310"/>
-      <c r="I8" s="519" t="s">
+      <c r="I8" s="546" t="s">
         <v>667</v>
       </c>
       <c r="J8" s="103" t="s">
@@ -16590,7 +16593,7 @@
         <v>410</v>
       </c>
       <c r="H9" s="310"/>
-      <c r="I9" s="519"/>
+      <c r="I9" s="546"/>
       <c r="J9" s="103" t="s">
         <v>670</v>
       </c>
@@ -16614,7 +16617,7 @@
         <v>410</v>
       </c>
       <c r="H10" s="310"/>
-      <c r="I10" s="519"/>
+      <c r="I10" s="546"/>
       <c r="J10" s="103" t="s">
         <v>672</v>
       </c>
@@ -16640,7 +16643,7 @@
         <v>410</v>
       </c>
       <c r="H11" s="310"/>
-      <c r="I11" s="519"/>
+      <c r="I11" s="546"/>
       <c r="J11" s="103" t="s">
         <v>673</v>
       </c>
@@ -16664,7 +16667,7 @@
         <v>410</v>
       </c>
       <c r="H12" s="310"/>
-      <c r="I12" s="519"/>
+      <c r="I12" s="546"/>
       <c r="J12" s="103" t="s">
         <v>675</v>
       </c>
@@ -16688,7 +16691,7 @@
         <v>410</v>
       </c>
       <c r="H13" s="310"/>
-      <c r="I13" s="519"/>
+      <c r="I13" s="546"/>
       <c r="J13" s="103" t="s">
         <v>676</v>
       </c>
@@ -16712,7 +16715,7 @@
         <v>410</v>
       </c>
       <c r="H14" s="310"/>
-      <c r="I14" s="519"/>
+      <c r="I14" s="546"/>
       <c r="J14" s="103" t="s">
         <v>678</v>
       </c>
@@ -16736,7 +16739,7 @@
         <v>410</v>
       </c>
       <c r="H15" s="310"/>
-      <c r="I15" s="519"/>
+      <c r="I15" s="546"/>
       <c r="J15" s="103" t="s">
         <v>679</v>
       </c>
@@ -16760,7 +16763,7 @@
         <v>410</v>
       </c>
       <c r="H16" s="310"/>
-      <c r="I16" s="519"/>
+      <c r="I16" s="546"/>
       <c r="J16" s="103" t="s">
         <v>681</v>
       </c>
@@ -16783,7 +16786,7 @@
         <v>410</v>
       </c>
       <c r="H17" s="310"/>
-      <c r="I17" s="519"/>
+      <c r="I17" s="546"/>
       <c r="J17" s="103" t="s">
         <v>682</v>
       </c>
@@ -16983,7 +16986,7 @@
         <v>410</v>
       </c>
       <c r="H25" s="336"/>
-      <c r="I25" s="519" t="s">
+      <c r="I25" s="546" t="s">
         <v>694</v>
       </c>
       <c r="J25" s="273" t="s">
@@ -17010,7 +17013,7 @@
         <v>410</v>
       </c>
       <c r="H26" s="336"/>
-      <c r="I26" s="518"/>
+      <c r="I26" s="540"/>
       <c r="J26" s="273" t="s">
         <v>698</v>
       </c>
@@ -17035,7 +17038,7 @@
         <v>410</v>
       </c>
       <c r="H27" s="336"/>
-      <c r="I27" s="518"/>
+      <c r="I27" s="540"/>
       <c r="J27" s="273" t="s">
         <v>698</v>
       </c>
@@ -17060,7 +17063,7 @@
         <v>410</v>
       </c>
       <c r="H28" s="336"/>
-      <c r="I28" s="518"/>
+      <c r="I28" s="540"/>
       <c r="J28" s="273" t="s">
         <v>698</v>
       </c>
@@ -17085,7 +17088,7 @@
         <v>410</v>
       </c>
       <c r="H29" s="336"/>
-      <c r="I29" s="518"/>
+      <c r="I29" s="540"/>
       <c r="J29" s="273" t="s">
         <v>698</v>
       </c>
@@ -17110,7 +17113,7 @@
         <v>410</v>
       </c>
       <c r="H30" s="336"/>
-      <c r="I30" s="518"/>
+      <c r="I30" s="540"/>
       <c r="J30" s="273" t="s">
         <v>698</v>
       </c>
@@ -17133,10 +17136,10 @@
         <v>410</v>
       </c>
       <c r="H31" s="310"/>
-      <c r="I31" s="518" t="s">
+      <c r="I31" s="540" t="s">
         <v>706</v>
       </c>
-      <c r="J31" s="513" t="s">
+      <c r="J31" s="538" t="s">
         <v>707</v>
       </c>
     </row>
@@ -17158,8 +17161,8 @@
         <v>410</v>
       </c>
       <c r="H32" s="310"/>
-      <c r="I32" s="518"/>
-      <c r="J32" s="515"/>
+      <c r="I32" s="540"/>
+      <c r="J32" s="539"/>
     </row>
     <row r="33" spans="2:10" ht="32">
       <c r="B33" s="83" t="s">
@@ -17179,10 +17182,10 @@
         <v>410</v>
       </c>
       <c r="H33" s="310"/>
-      <c r="I33" s="518" t="s">
+      <c r="I33" s="540" t="s">
         <v>706</v>
       </c>
-      <c r="J33" s="513" t="s">
+      <c r="J33" s="538" t="s">
         <v>707</v>
       </c>
     </row>
@@ -17204,8 +17207,8 @@
         <v>410</v>
       </c>
       <c r="H34" s="310"/>
-      <c r="I34" s="518"/>
-      <c r="J34" s="515"/>
+      <c r="I34" s="540"/>
+      <c r="J34" s="539"/>
     </row>
     <row r="35" spans="2:10" ht="48">
       <c r="B35" s="81" t="s">
@@ -17221,7 +17224,7 @@
         <v>712</v>
       </c>
       <c r="H35" s="82"/>
-      <c r="I35" s="513" t="s">
+      <c r="I35" s="538" t="s">
         <v>713</v>
       </c>
       <c r="J35" s="82" t="s">
@@ -17246,7 +17249,7 @@
         <v>712</v>
       </c>
       <c r="H36" s="335"/>
-      <c r="I36" s="514"/>
+      <c r="I36" s="543"/>
       <c r="J36" s="82" t="s">
         <v>714</v>
       </c>
@@ -17269,7 +17272,7 @@
         <v>712</v>
       </c>
       <c r="H37" s="82"/>
-      <c r="I37" s="514"/>
+      <c r="I37" s="543"/>
       <c r="J37" s="82"/>
     </row>
     <row r="38" spans="2:10" ht="48">
@@ -17290,7 +17293,7 @@
         <v>712</v>
       </c>
       <c r="H38" s="82"/>
-      <c r="I38" s="514"/>
+      <c r="I38" s="543"/>
       <c r="J38" s="82"/>
     </row>
     <row r="39" spans="2:10" ht="48">
@@ -17311,7 +17314,7 @@
         <v>712</v>
       </c>
       <c r="H39" s="82"/>
-      <c r="I39" s="515"/>
+      <c r="I39" s="539"/>
       <c r="J39" s="82" t="s">
         <v>714</v>
       </c>
@@ -17331,13 +17334,13 @@
       <c r="B41" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="507" t="s">
+      <c r="C41" s="533" t="s">
         <v>717</v>
       </c>
-      <c r="D41" s="508"/>
-      <c r="E41" s="508"/>
-      <c r="F41" s="508"/>
-      <c r="G41" s="508"/>
+      <c r="D41" s="534"/>
+      <c r="E41" s="534"/>
+      <c r="F41" s="534"/>
+      <c r="G41" s="534"/>
       <c r="H41" s="312"/>
       <c r="I41" s="312"/>
       <c r="J41" s="312"/>
@@ -17346,13 +17349,13 @@
       <c r="B42" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="509" t="s">
+      <c r="C42" s="535" t="s">
         <v>718</v>
       </c>
-      <c r="D42" s="510"/>
-      <c r="E42" s="510"/>
-      <c r="F42" s="510"/>
-      <c r="G42" s="510"/>
+      <c r="D42" s="536"/>
+      <c r="E42" s="536"/>
+      <c r="F42" s="536"/>
+      <c r="G42" s="536"/>
       <c r="H42" s="312"/>
       <c r="I42" s="312"/>
       <c r="J42" s="312"/>
@@ -17361,13 +17364,13 @@
       <c r="B43" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="511" t="s">
+      <c r="C43" s="529" t="s">
         <v>581</v>
       </c>
-      <c r="D43" s="512"/>
-      <c r="E43" s="512"/>
-      <c r="F43" s="512"/>
-      <c r="G43" s="512"/>
+      <c r="D43" s="530"/>
+      <c r="E43" s="530"/>
+      <c r="F43" s="530"/>
+      <c r="G43" s="530"/>
       <c r="H43" s="312"/>
       <c r="I43" s="312"/>
       <c r="J43" s="312"/>
@@ -17379,19 +17382,19 @@
       <c r="C44" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="524" t="s">
+      <c r="D44" s="515" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="525"/>
-      <c r="F44" s="526" t="s">
+      <c r="E44" s="516"/>
+      <c r="F44" s="537" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="526"/>
-      <c r="H44" s="527" t="s">
+      <c r="G44" s="537"/>
+      <c r="H44" s="542" t="s">
         <v>222</v>
       </c>
-      <c r="I44" s="527"/>
-      <c r="J44" s="527"/>
+      <c r="I44" s="542"/>
+      <c r="J44" s="542"/>
     </row>
     <row r="45" spans="2:10" ht="181.5" customHeight="1">
       <c r="B45" s="313" t="s">
@@ -17404,15 +17407,15 @@
         <v>720</v>
       </c>
       <c r="E45" s="58"/>
-      <c r="F45" s="475" t="s">
+      <c r="F45" s="470" t="s">
         <v>721</v>
       </c>
-      <c r="G45" s="475"/>
-      <c r="H45" s="523" t="s">
+      <c r="G45" s="470"/>
+      <c r="H45" s="541" t="s">
         <v>507</v>
       </c>
-      <c r="I45" s="523"/>
-      <c r="J45" s="523"/>
+      <c r="I45" s="541"/>
+      <c r="J45" s="541"/>
     </row>
     <row r="46" spans="2:10" ht="255.75" customHeight="1">
       <c r="B46" s="313" t="s">
@@ -17425,15 +17428,15 @@
         <v>723</v>
       </c>
       <c r="E46" s="58"/>
-      <c r="F46" s="444" t="s">
+      <c r="F46" s="442" t="s">
         <v>724</v>
       </c>
-      <c r="G46" s="444"/>
-      <c r="H46" s="523" t="s">
+      <c r="G46" s="442"/>
+      <c r="H46" s="541" t="s">
         <v>507</v>
       </c>
-      <c r="I46" s="523"/>
-      <c r="J46" s="523"/>
+      <c r="I46" s="541"/>
+      <c r="J46" s="541"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="76"/>
@@ -17461,13 +17464,13 @@
       <c r="B49" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="507" t="s">
+      <c r="C49" s="533" t="s">
         <v>725</v>
       </c>
-      <c r="D49" s="508"/>
-      <c r="E49" s="508"/>
-      <c r="F49" s="508"/>
-      <c r="G49" s="508"/>
+      <c r="D49" s="534"/>
+      <c r="E49" s="534"/>
+      <c r="F49" s="534"/>
+      <c r="G49" s="534"/>
       <c r="H49" s="312"/>
       <c r="I49" s="312"/>
       <c r="J49" s="312"/>
@@ -17476,13 +17479,13 @@
       <c r="B50" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="509" t="s">
+      <c r="C50" s="535" t="s">
         <v>726</v>
       </c>
-      <c r="D50" s="510"/>
-      <c r="E50" s="510"/>
-      <c r="F50" s="510"/>
-      <c r="G50" s="510"/>
+      <c r="D50" s="536"/>
+      <c r="E50" s="536"/>
+      <c r="F50" s="536"/>
+      <c r="G50" s="536"/>
       <c r="H50" s="312"/>
       <c r="I50" s="312"/>
       <c r="J50" s="312"/>
@@ -17491,13 +17494,13 @@
       <c r="B51" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="511" t="s">
+      <c r="C51" s="529" t="s">
         <v>581</v>
       </c>
-      <c r="D51" s="512"/>
-      <c r="E51" s="512"/>
-      <c r="F51" s="512"/>
-      <c r="G51" s="512"/>
+      <c r="D51" s="530"/>
+      <c r="E51" s="530"/>
+      <c r="F51" s="530"/>
+      <c r="G51" s="530"/>
       <c r="H51" s="312"/>
       <c r="I51" s="312"/>
       <c r="J51" s="312"/>
@@ -17509,14 +17512,14 @@
       <c r="C52" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="524" t="s">
+      <c r="D52" s="515" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="525"/>
-      <c r="F52" s="526" t="s">
+      <c r="E52" s="516"/>
+      <c r="F52" s="537" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="526"/>
+      <c r="G52" s="537"/>
       <c r="H52" s="134" t="s">
         <v>222</v>
       </c>
@@ -17534,10 +17537,10 @@
         <v>729</v>
       </c>
       <c r="E53" s="89"/>
-      <c r="F53" s="528" t="s">
+      <c r="F53" s="531" t="s">
         <v>730</v>
       </c>
-      <c r="G53" s="529"/>
+      <c r="G53" s="532"/>
       <c r="H53" s="52" t="s">
         <v>731</v>
       </c>
@@ -17555,10 +17558,10 @@
         <v>733</v>
       </c>
       <c r="E54" s="58"/>
-      <c r="F54" s="444" t="s">
+      <c r="F54" s="442" t="s">
         <v>734</v>
       </c>
-      <c r="G54" s="437"/>
+      <c r="G54" s="434"/>
       <c r="H54" s="52" t="s">
         <v>735</v>
       </c>
@@ -17580,13 +17583,13 @@
       <c r="B56" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="507" t="s">
+      <c r="C56" s="533" t="s">
         <v>736</v>
       </c>
-      <c r="D56" s="508"/>
-      <c r="E56" s="508"/>
-      <c r="F56" s="508"/>
-      <c r="G56" s="508"/>
+      <c r="D56" s="534"/>
+      <c r="E56" s="534"/>
+      <c r="F56" s="534"/>
+      <c r="G56" s="534"/>
       <c r="H56" s="312"/>
       <c r="I56" s="312"/>
       <c r="J56" s="312"/>
@@ -17595,13 +17598,13 @@
       <c r="B57" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="509" t="s">
+      <c r="C57" s="535" t="s">
         <v>737</v>
       </c>
-      <c r="D57" s="510"/>
-      <c r="E57" s="510"/>
-      <c r="F57" s="510"/>
-      <c r="G57" s="510"/>
+      <c r="D57" s="536"/>
+      <c r="E57" s="536"/>
+      <c r="F57" s="536"/>
+      <c r="G57" s="536"/>
       <c r="H57" s="312"/>
       <c r="I57" s="312"/>
       <c r="J57" s="312"/>
@@ -17610,13 +17613,13 @@
       <c r="B58" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="511" t="s">
+      <c r="C58" s="529" t="s">
         <v>581</v>
       </c>
-      <c r="D58" s="512"/>
-      <c r="E58" s="512"/>
-      <c r="F58" s="512"/>
-      <c r="G58" s="512"/>
+      <c r="D58" s="530"/>
+      <c r="E58" s="530"/>
+      <c r="F58" s="530"/>
+      <c r="G58" s="530"/>
       <c r="H58" s="312"/>
       <c r="I58" s="312"/>
       <c r="J58" s="312"/>
@@ -17628,14 +17631,14 @@
       <c r="C59" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="524" t="s">
+      <c r="D59" s="515" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="525"/>
-      <c r="F59" s="526" t="s">
+      <c r="E59" s="516"/>
+      <c r="F59" s="537" t="s">
         <v>32</v>
       </c>
-      <c r="G59" s="526"/>
+      <c r="G59" s="537"/>
       <c r="H59" s="290" t="s">
         <v>222</v>
       </c>
@@ -17653,10 +17656,10 @@
         <v>739</v>
       </c>
       <c r="E60" s="58"/>
-      <c r="F60" s="444" t="s">
+      <c r="F60" s="442" t="s">
         <v>734</v>
       </c>
-      <c r="G60" s="444"/>
+      <c r="G60" s="442"/>
       <c r="H60" s="52" t="s">
         <v>740</v>
       </c>
@@ -17678,45 +17681,45 @@
       <c r="B62" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="507" t="s">
+      <c r="C62" s="533" t="s">
         <v>741</v>
       </c>
-      <c r="D62" s="508"/>
-      <c r="E62" s="508"/>
-      <c r="F62" s="508"/>
-      <c r="G62" s="508"/>
-      <c r="H62" s="508"/>
-      <c r="I62" s="508"/>
+      <c r="D62" s="534"/>
+      <c r="E62" s="534"/>
+      <c r="F62" s="534"/>
+      <c r="G62" s="534"/>
+      <c r="H62" s="534"/>
+      <c r="I62" s="534"/>
       <c r="J62" s="312"/>
     </row>
     <row r="63" spans="2:10" ht="16">
       <c r="B63" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="509" t="s">
+      <c r="C63" s="535" t="s">
         <v>742</v>
       </c>
-      <c r="D63" s="510"/>
-      <c r="E63" s="510"/>
-      <c r="F63" s="510"/>
-      <c r="G63" s="510"/>
-      <c r="H63" s="510"/>
-      <c r="I63" s="510"/>
+      <c r="D63" s="536"/>
+      <c r="E63" s="536"/>
+      <c r="F63" s="536"/>
+      <c r="G63" s="536"/>
+      <c r="H63" s="536"/>
+      <c r="I63" s="536"/>
       <c r="J63" s="312"/>
     </row>
     <row r="64" spans="2:10" ht="16">
       <c r="B64" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="511" t="s">
+      <c r="C64" s="529" t="s">
         <v>581</v>
       </c>
-      <c r="D64" s="512"/>
-      <c r="E64" s="512"/>
-      <c r="F64" s="512"/>
-      <c r="G64" s="512"/>
-      <c r="H64" s="512"/>
-      <c r="I64" s="512"/>
+      <c r="D64" s="530"/>
+      <c r="E64" s="530"/>
+      <c r="F64" s="530"/>
+      <c r="G64" s="530"/>
+      <c r="H64" s="530"/>
+      <c r="I64" s="530"/>
       <c r="J64" s="312"/>
     </row>
     <row r="65" spans="2:10" s="133" customFormat="1" ht="16">
@@ -17728,14 +17731,14 @@
       <c r="E65" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="524" t="s">
+      <c r="F65" s="515" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="525"/>
-      <c r="H65" s="530" t="s">
+      <c r="G65" s="516"/>
+      <c r="H65" s="525" t="s">
         <v>32</v>
       </c>
-      <c r="I65" s="531"/>
+      <c r="I65" s="526"/>
       <c r="J65" s="78" t="s">
         <v>222</v>
       </c>
@@ -17757,10 +17760,10 @@
         <v>746</v>
       </c>
       <c r="G66" s="58"/>
-      <c r="H66" s="444" t="s">
+      <c r="H66" s="442" t="s">
         <v>747</v>
       </c>
-      <c r="I66" s="444"/>
+      <c r="I66" s="442"/>
       <c r="J66" s="323" t="s">
         <v>507</v>
       </c>
@@ -17782,10 +17785,10 @@
         <v>746</v>
       </c>
       <c r="G67" s="58"/>
-      <c r="H67" s="444" t="s">
+      <c r="H67" s="442" t="s">
         <v>749</v>
       </c>
-      <c r="I67" s="444"/>
+      <c r="I67" s="442"/>
       <c r="J67" s="323" t="s">
         <v>507</v>
       </c>
@@ -17805,10 +17808,10 @@
         <v>746</v>
       </c>
       <c r="G68" s="58"/>
-      <c r="H68" s="444" t="s">
+      <c r="H68" s="442" t="s">
         <v>752</v>
       </c>
-      <c r="I68" s="444"/>
+      <c r="I68" s="442"/>
       <c r="J68" s="323" t="s">
         <v>507</v>
       </c>
@@ -17828,45 +17831,45 @@
       <c r="B70" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="505" t="s">
+      <c r="C70" s="509" t="s">
         <v>753</v>
       </c>
-      <c r="D70" s="506"/>
-      <c r="E70" s="506"/>
-      <c r="F70" s="506"/>
-      <c r="G70" s="506"/>
-      <c r="H70" s="506"/>
-      <c r="I70" s="506"/>
+      <c r="D70" s="510"/>
+      <c r="E70" s="510"/>
+      <c r="F70" s="510"/>
+      <c r="G70" s="510"/>
+      <c r="H70" s="510"/>
+      <c r="I70" s="510"/>
       <c r="J70" s="312"/>
     </row>
     <row r="71" spans="2:10" ht="16">
       <c r="B71" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="535" t="s">
+      <c r="C71" s="511" t="s">
         <v>754</v>
       </c>
-      <c r="D71" s="536"/>
-      <c r="E71" s="536"/>
-      <c r="F71" s="536"/>
-      <c r="G71" s="536"/>
-      <c r="H71" s="536"/>
-      <c r="I71" s="536"/>
+      <c r="D71" s="512"/>
+      <c r="E71" s="512"/>
+      <c r="F71" s="512"/>
+      <c r="G71" s="512"/>
+      <c r="H71" s="512"/>
+      <c r="I71" s="512"/>
       <c r="J71" s="312"/>
     </row>
     <row r="72" spans="2:10" ht="16">
       <c r="B72" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="537" t="s">
+      <c r="C72" s="527" t="s">
         <v>755</v>
       </c>
-      <c r="D72" s="538"/>
-      <c r="E72" s="538"/>
-      <c r="F72" s="538"/>
-      <c r="G72" s="538"/>
-      <c r="H72" s="538"/>
-      <c r="I72" s="538"/>
+      <c r="D72" s="528"/>
+      <c r="E72" s="528"/>
+      <c r="F72" s="528"/>
+      <c r="G72" s="528"/>
+      <c r="H72" s="528"/>
+      <c r="I72" s="528"/>
       <c r="J72" s="312"/>
     </row>
     <row r="73" spans="2:10" s="133" customFormat="1" ht="16">
@@ -17876,16 +17879,16 @@
       <c r="C73" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D73" s="524" t="s">
+      <c r="D73" s="515" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="525"/>
-      <c r="F73" s="532" t="s">
+      <c r="E73" s="516"/>
+      <c r="F73" s="517" t="s">
         <v>32</v>
       </c>
-      <c r="G73" s="533"/>
-      <c r="H73" s="533"/>
-      <c r="I73" s="534"/>
+      <c r="G73" s="518"/>
+      <c r="H73" s="518"/>
+      <c r="I73" s="519"/>
       <c r="J73" s="290" t="s">
         <v>222</v>
       </c>
@@ -17901,12 +17904,12 @@
         <v>758</v>
       </c>
       <c r="E74" s="58"/>
-      <c r="F74" s="437" t="s">
+      <c r="F74" s="434" t="s">
         <v>759</v>
       </c>
-      <c r="G74" s="504"/>
-      <c r="H74" s="504"/>
-      <c r="I74" s="438"/>
+      <c r="G74" s="524"/>
+      <c r="H74" s="524"/>
+      <c r="I74" s="435"/>
       <c r="J74" s="323" t="s">
         <v>569</v>
       </c>
@@ -17922,12 +17925,12 @@
         <v>758</v>
       </c>
       <c r="E75" s="58"/>
-      <c r="F75" s="437" t="s">
+      <c r="F75" s="434" t="s">
         <v>759</v>
       </c>
-      <c r="G75" s="504"/>
-      <c r="H75" s="504"/>
-      <c r="I75" s="438"/>
+      <c r="G75" s="524"/>
+      <c r="H75" s="524"/>
+      <c r="I75" s="435"/>
       <c r="J75" s="323" t="s">
         <v>569</v>
       </c>
@@ -17943,12 +17946,12 @@
         <v>758</v>
       </c>
       <c r="E76" s="58"/>
-      <c r="F76" s="437" t="s">
+      <c r="F76" s="434" t="s">
         <v>759</v>
       </c>
-      <c r="G76" s="504"/>
-      <c r="H76" s="504"/>
-      <c r="I76" s="438"/>
+      <c r="G76" s="524"/>
+      <c r="H76" s="524"/>
+      <c r="I76" s="435"/>
       <c r="J76" s="323" t="s">
         <v>569</v>
       </c>
@@ -17964,12 +17967,12 @@
         <v>758</v>
       </c>
       <c r="E77" s="58"/>
-      <c r="F77" s="437" t="s">
+      <c r="F77" s="434" t="s">
         <v>759</v>
       </c>
-      <c r="G77" s="504"/>
-      <c r="H77" s="504"/>
-      <c r="I77" s="438"/>
+      <c r="G77" s="524"/>
+      <c r="H77" s="524"/>
+      <c r="I77" s="435"/>
       <c r="J77" s="323" t="s">
         <v>569</v>
       </c>
@@ -17985,12 +17988,12 @@
         <v>758</v>
       </c>
       <c r="E78" s="58"/>
-      <c r="F78" s="437" t="s">
+      <c r="F78" s="434" t="s">
         <v>759</v>
       </c>
-      <c r="G78" s="504"/>
-      <c r="H78" s="504"/>
-      <c r="I78" s="438"/>
+      <c r="G78" s="524"/>
+      <c r="H78" s="524"/>
+      <c r="I78" s="435"/>
       <c r="J78" s="323" t="s">
         <v>569</v>
       </c>
@@ -18006,12 +18009,12 @@
         <v>758</v>
       </c>
       <c r="E79" s="58"/>
-      <c r="F79" s="437" t="s">
+      <c r="F79" s="434" t="s">
         <v>759</v>
       </c>
-      <c r="G79" s="504"/>
-      <c r="H79" s="504"/>
-      <c r="I79" s="438"/>
+      <c r="G79" s="524"/>
+      <c r="H79" s="524"/>
+      <c r="I79" s="435"/>
       <c r="J79" s="323" t="s">
         <v>569</v>
       </c>
@@ -18027,12 +18030,12 @@
         <v>758</v>
       </c>
       <c r="E80" s="58"/>
-      <c r="F80" s="437" t="s">
+      <c r="F80" s="434" t="s">
         <v>759</v>
       </c>
-      <c r="G80" s="504"/>
-      <c r="H80" s="504"/>
-      <c r="I80" s="438"/>
+      <c r="G80" s="524"/>
+      <c r="H80" s="524"/>
+      <c r="I80" s="435"/>
       <c r="J80" s="323" t="s">
         <v>569</v>
       </c>
@@ -18048,12 +18051,12 @@
         <v>758</v>
       </c>
       <c r="E81" s="58"/>
-      <c r="F81" s="437" t="s">
+      <c r="F81" s="434" t="s">
         <v>759</v>
       </c>
-      <c r="G81" s="504"/>
-      <c r="H81" s="504"/>
-      <c r="I81" s="438"/>
+      <c r="G81" s="524"/>
+      <c r="H81" s="524"/>
+      <c r="I81" s="435"/>
       <c r="J81" s="323" t="s">
         <v>569</v>
       </c>
@@ -18069,12 +18072,12 @@
         <v>758</v>
       </c>
       <c r="E82" s="58"/>
-      <c r="F82" s="437" t="s">
+      <c r="F82" s="434" t="s">
         <v>759</v>
       </c>
-      <c r="G82" s="504"/>
-      <c r="H82" s="504"/>
-      <c r="I82" s="438"/>
+      <c r="G82" s="524"/>
+      <c r="H82" s="524"/>
+      <c r="I82" s="435"/>
       <c r="J82" s="323" t="s">
         <v>569</v>
       </c>
@@ -18090,12 +18093,12 @@
         <v>758</v>
       </c>
       <c r="E83" s="58"/>
-      <c r="F83" s="437" t="s">
+      <c r="F83" s="434" t="s">
         <v>759</v>
       </c>
-      <c r="G83" s="504"/>
-      <c r="H83" s="504"/>
-      <c r="I83" s="438"/>
+      <c r="G83" s="524"/>
+      <c r="H83" s="524"/>
+      <c r="I83" s="435"/>
       <c r="J83" s="323" t="s">
         <v>569</v>
       </c>
@@ -18111,12 +18114,12 @@
         <v>758</v>
       </c>
       <c r="E84" s="58"/>
-      <c r="F84" s="437" t="s">
+      <c r="F84" s="434" t="s">
         <v>759</v>
       </c>
-      <c r="G84" s="504"/>
-      <c r="H84" s="504"/>
-      <c r="I84" s="438"/>
+      <c r="G84" s="524"/>
+      <c r="H84" s="524"/>
+      <c r="I84" s="435"/>
       <c r="J84" s="323" t="s">
         <v>569</v>
       </c>
@@ -18132,12 +18135,12 @@
         <v>772</v>
       </c>
       <c r="E85" s="58"/>
-      <c r="F85" s="437" t="s">
+      <c r="F85" s="434" t="s">
         <v>773</v>
       </c>
-      <c r="G85" s="504"/>
-      <c r="H85" s="504"/>
-      <c r="I85" s="438"/>
+      <c r="G85" s="524"/>
+      <c r="H85" s="524"/>
+      <c r="I85" s="435"/>
       <c r="J85" s="323" t="s">
         <v>569</v>
       </c>
@@ -18157,14 +18160,14 @@
       <c r="B87" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="505" t="s">
+      <c r="C87" s="509" t="s">
         <v>774</v>
       </c>
-      <c r="D87" s="506"/>
-      <c r="E87" s="506"/>
-      <c r="F87" s="506"/>
-      <c r="G87" s="506"/>
-      <c r="H87" s="506"/>
+      <c r="D87" s="510"/>
+      <c r="E87" s="510"/>
+      <c r="F87" s="510"/>
+      <c r="G87" s="510"/>
+      <c r="H87" s="510"/>
       <c r="I87" s="312"/>
       <c r="J87" s="312"/>
     </row>
@@ -18172,14 +18175,14 @@
       <c r="B88" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="535" t="s">
+      <c r="C88" s="511" t="s">
         <v>775</v>
       </c>
-      <c r="D88" s="536"/>
-      <c r="E88" s="536"/>
-      <c r="F88" s="536"/>
-      <c r="G88" s="536"/>
-      <c r="H88" s="542"/>
+      <c r="D88" s="512"/>
+      <c r="E88" s="512"/>
+      <c r="F88" s="512"/>
+      <c r="G88" s="512"/>
+      <c r="H88" s="523"/>
       <c r="I88" s="290"/>
       <c r="J88" s="312"/>
     </row>
@@ -18187,14 +18190,14 @@
       <c r="B89" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="539" t="s">
+      <c r="C89" s="520" t="s">
         <v>581</v>
       </c>
-      <c r="D89" s="540"/>
-      <c r="E89" s="540"/>
-      <c r="F89" s="540"/>
-      <c r="G89" s="540"/>
-      <c r="H89" s="541"/>
+      <c r="D89" s="521"/>
+      <c r="E89" s="521"/>
+      <c r="F89" s="521"/>
+      <c r="G89" s="521"/>
+      <c r="H89" s="522"/>
       <c r="I89" s="290"/>
       <c r="J89" s="312"/>
     </row>
@@ -18205,15 +18208,15 @@
       <c r="C90" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D90" s="524" t="s">
+      <c r="D90" s="515" t="s">
         <v>28</v>
       </c>
-      <c r="E90" s="525"/>
-      <c r="F90" s="545" t="s">
+      <c r="E90" s="516"/>
+      <c r="F90" s="504" t="s">
         <v>32</v>
       </c>
-      <c r="G90" s="546"/>
-      <c r="H90" s="547"/>
+      <c r="G90" s="505"/>
+      <c r="H90" s="506"/>
       <c r="I90" s="290" t="s">
         <v>222</v>
       </c>
@@ -18230,11 +18233,11 @@
         <v>778</v>
       </c>
       <c r="E91" s="58"/>
-      <c r="F91" s="439" t="s">
+      <c r="F91" s="449" t="s">
         <v>779</v>
       </c>
-      <c r="G91" s="548"/>
-      <c r="H91" s="549"/>
+      <c r="G91" s="507"/>
+      <c r="H91" s="508"/>
       <c r="I91" s="310" t="s">
         <v>780</v>
       </c>
@@ -18251,11 +18254,11 @@
         <v>778</v>
       </c>
       <c r="E92" s="58"/>
-      <c r="F92" s="439" t="s">
+      <c r="F92" s="449" t="s">
         <v>782</v>
       </c>
-      <c r="G92" s="548"/>
-      <c r="H92" s="549"/>
+      <c r="G92" s="507"/>
+      <c r="H92" s="508"/>
       <c r="I92" s="310" t="s">
         <v>780</v>
       </c>
@@ -18272,11 +18275,11 @@
         <v>778</v>
       </c>
       <c r="E93" s="58"/>
-      <c r="F93" s="439" t="s">
+      <c r="F93" s="449" t="s">
         <v>784</v>
       </c>
-      <c r="G93" s="548"/>
-      <c r="H93" s="549"/>
+      <c r="G93" s="507"/>
+      <c r="H93" s="508"/>
       <c r="I93" s="310" t="s">
         <v>780</v>
       </c>
@@ -18293,11 +18296,11 @@
         <v>778</v>
       </c>
       <c r="E94" s="58"/>
-      <c r="F94" s="439" t="s">
+      <c r="F94" s="449" t="s">
         <v>786</v>
       </c>
-      <c r="G94" s="548"/>
-      <c r="H94" s="549"/>
+      <c r="G94" s="507"/>
+      <c r="H94" s="508"/>
       <c r="I94" s="310" t="s">
         <v>780</v>
       </c>
@@ -18314,11 +18317,11 @@
         <v>789</v>
       </c>
       <c r="E95" s="58"/>
-      <c r="F95" s="439" t="s">
+      <c r="F95" s="449" t="s">
         <v>790</v>
       </c>
-      <c r="G95" s="548"/>
-      <c r="H95" s="549"/>
+      <c r="G95" s="507"/>
+      <c r="H95" s="508"/>
       <c r="I95" s="310" t="s">
         <v>780</v>
       </c>
@@ -18335,11 +18338,11 @@
         <v>789</v>
       </c>
       <c r="E96" s="58"/>
-      <c r="F96" s="439" t="s">
+      <c r="F96" s="449" t="s">
         <v>792</v>
       </c>
-      <c r="G96" s="548"/>
-      <c r="H96" s="549"/>
+      <c r="G96" s="507"/>
+      <c r="H96" s="508"/>
       <c r="I96" s="310" t="s">
         <v>780</v>
       </c>
@@ -18356,11 +18359,11 @@
         <v>789</v>
       </c>
       <c r="E97" s="58"/>
-      <c r="F97" s="439" t="s">
+      <c r="F97" s="449" t="s">
         <v>794</v>
       </c>
-      <c r="G97" s="548"/>
-      <c r="H97" s="549"/>
+      <c r="G97" s="507"/>
+      <c r="H97" s="508"/>
       <c r="I97" s="310" t="s">
         <v>780</v>
       </c>
@@ -18377,11 +18380,11 @@
         <v>789</v>
       </c>
       <c r="E98" s="58"/>
-      <c r="F98" s="439" t="s">
+      <c r="F98" s="449" t="s">
         <v>796</v>
       </c>
-      <c r="G98" s="548"/>
-      <c r="H98" s="549"/>
+      <c r="G98" s="507"/>
+      <c r="H98" s="508"/>
       <c r="I98" s="340" t="s">
         <v>780</v>
       </c>
@@ -18398,11 +18401,11 @@
         <v>789</v>
       </c>
       <c r="E99" s="58"/>
-      <c r="F99" s="439" t="s">
+      <c r="F99" s="449" t="s">
         <v>798</v>
       </c>
-      <c r="G99" s="548"/>
-      <c r="H99" s="549"/>
+      <c r="G99" s="507"/>
+      <c r="H99" s="508"/>
       <c r="I99" s="310" t="s">
         <v>780</v>
       </c>
@@ -18423,14 +18426,14 @@
       <c r="B101" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="505" t="s">
+      <c r="C101" s="509" t="s">
         <v>799</v>
       </c>
-      <c r="D101" s="506"/>
-      <c r="E101" s="506"/>
-      <c r="F101" s="506"/>
-      <c r="G101" s="506"/>
-      <c r="H101" s="506"/>
+      <c r="D101" s="510"/>
+      <c r="E101" s="510"/>
+      <c r="F101" s="510"/>
+      <c r="G101" s="510"/>
+      <c r="H101" s="510"/>
       <c r="I101" s="312"/>
       <c r="J101" s="335"/>
     </row>
@@ -18438,14 +18441,14 @@
       <c r="B102" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="535" t="s">
+      <c r="C102" s="511" t="s">
         <v>800</v>
       </c>
-      <c r="D102" s="536"/>
-      <c r="E102" s="536"/>
-      <c r="F102" s="536"/>
-      <c r="G102" s="536"/>
-      <c r="H102" s="536"/>
+      <c r="D102" s="512"/>
+      <c r="E102" s="512"/>
+      <c r="F102" s="512"/>
+      <c r="G102" s="512"/>
+      <c r="H102" s="512"/>
       <c r="I102" s="312"/>
       <c r="J102" s="335"/>
     </row>
@@ -18453,14 +18456,14 @@
       <c r="B103" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="543" t="s">
+      <c r="C103" s="513" t="s">
         <v>581</v>
       </c>
-      <c r="D103" s="544"/>
-      <c r="E103" s="544"/>
-      <c r="F103" s="544"/>
-      <c r="G103" s="544"/>
-      <c r="H103" s="544"/>
+      <c r="D103" s="514"/>
+      <c r="E103" s="514"/>
+      <c r="F103" s="514"/>
+      <c r="G103" s="514"/>
+      <c r="H103" s="514"/>
       <c r="I103" s="312"/>
       <c r="J103" s="335"/>
     </row>
@@ -18471,15 +18474,15 @@
       <c r="C104" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="524" t="s">
+      <c r="D104" s="515" t="s">
         <v>28</v>
       </c>
-      <c r="E104" s="525"/>
-      <c r="F104" s="532" t="s">
+      <c r="E104" s="516"/>
+      <c r="F104" s="517" t="s">
         <v>32</v>
       </c>
-      <c r="G104" s="533"/>
-      <c r="H104" s="534"/>
+      <c r="G104" s="518"/>
+      <c r="H104" s="519"/>
       <c r="I104" s="290" t="s">
         <v>222</v>
       </c>
@@ -18496,11 +18499,11 @@
         <v>802</v>
       </c>
       <c r="E105" s="58"/>
-      <c r="F105" s="437" t="s">
+      <c r="F105" s="434" t="s">
         <v>803</v>
       </c>
-      <c r="G105" s="504"/>
-      <c r="H105" s="438"/>
+      <c r="G105" s="524"/>
+      <c r="H105" s="435"/>
       <c r="I105" s="310" t="s">
         <v>804</v>
       </c>
@@ -18508,21 +18511,56 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I8:I17"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C62:I62"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="C71:I71"/>
+    <mergeCell ref="C72:I72"/>
     <mergeCell ref="D90:E90"/>
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C88:H88"/>
@@ -18539,56 +18577,21 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="C71:I71"/>
-    <mergeCell ref="C72:I72"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C62:I62"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I8:I17"/>
-    <mergeCell ref="I25:I30"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18673,22 +18676,22 @@
       <c r="M4" s="315"/>
     </row>
     <row r="5" spans="2:13" ht="16">
-      <c r="B5" s="449" t="s">
+      <c r="B5" s="440" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="466"/>
-      <c r="D5" s="466"/>
-      <c r="E5" s="450"/>
+      <c r="C5" s="478"/>
+      <c r="D5" s="478"/>
+      <c r="E5" s="441"/>
       <c r="F5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="445" t="s">
+      <c r="G5" s="443" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="550"/>
       <c r="I5" s="550"/>
       <c r="J5" s="550"/>
-      <c r="K5" s="446"/>
+      <c r="K5" s="444"/>
       <c r="L5" s="283" t="s">
         <v>32</v>
       </c>
@@ -18721,7 +18724,7 @@
       <c r="K6" s="292" t="s">
         <v>813</v>
       </c>
-      <c r="L6" s="442" t="s">
+      <c r="L6" s="450" t="s">
         <v>814</v>
       </c>
       <c r="M6" s="273" t="s">
@@ -18753,7 +18756,7 @@
       <c r="K7" s="292" t="s">
         <v>813</v>
       </c>
-      <c r="L7" s="442"/>
+      <c r="L7" s="450"/>
       <c r="M7" s="273" t="s">
         <v>817</v>
       </c>
@@ -18783,7 +18786,7 @@
       <c r="K8" s="292" t="s">
         <v>813</v>
       </c>
-      <c r="L8" s="442"/>
+      <c r="L8" s="450"/>
       <c r="M8" s="273" t="s">
         <v>820</v>
       </c>
@@ -18813,7 +18816,7 @@
       <c r="K9" s="292" t="s">
         <v>813</v>
       </c>
-      <c r="L9" s="442"/>
+      <c r="L9" s="450"/>
       <c r="M9" s="273" t="s">
         <v>823</v>
       </c>
@@ -19631,14 +19634,14 @@
       <c r="B3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="448" t="s">
+      <c r="C3" s="439" t="s">
         <v>843</v>
       </c>
-      <c r="D3" s="448"/>
-      <c r="E3" s="448"/>
-      <c r="F3" s="448"/>
-      <c r="G3" s="448"/>
-      <c r="H3" s="448"/>
+      <c r="D3" s="439"/>
+      <c r="E3" s="439"/>
+      <c r="F3" s="439"/>
+      <c r="G3" s="439"/>
+      <c r="H3" s="439"/>
       <c r="I3" s="315"/>
     </row>
     <row r="4" spans="1:9" ht="16">
@@ -19664,12 +19667,12 @@
       <c r="C5" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="554" t="s">
+      <c r="D5" s="553" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="555"/>
-      <c r="F5" s="555"/>
-      <c r="G5" s="556"/>
+      <c r="E5" s="554"/>
+      <c r="F5" s="554"/>
+      <c r="G5" s="555"/>
       <c r="H5" s="114" t="s">
         <v>32</v>
       </c>
@@ -19689,10 +19692,10 @@
         <v>846</v>
       </c>
       <c r="E6" s="323"/>
-      <c r="F6" s="523" t="s">
+      <c r="F6" s="541" t="s">
         <v>847</v>
       </c>
-      <c r="G6" s="523"/>
+      <c r="G6" s="541"/>
       <c r="H6" s="293" t="s">
         <v>848</v>
       </c>
@@ -19708,12 +19711,12 @@
       <c r="C7" s="345" t="s">
         <v>851</v>
       </c>
-      <c r="D7" s="523" t="s">
+      <c r="D7" s="541" t="s">
         <v>851</v>
       </c>
-      <c r="E7" s="523"/>
-      <c r="F7" s="523"/>
-      <c r="G7" s="523"/>
+      <c r="E7" s="541"/>
+      <c r="F7" s="541"/>
+      <c r="G7" s="541"/>
       <c r="H7" s="327" t="s">
         <v>852</v>
       </c>
@@ -19726,10 +19729,10 @@
       <c r="B8" s="552" t="s">
         <v>853</v>
       </c>
-      <c r="C8" s="485" t="s">
+      <c r="C8" s="471" t="s">
         <v>854</v>
       </c>
-      <c r="D8" s="523" t="s">
+      <c r="D8" s="541" t="s">
         <v>854</v>
       </c>
       <c r="E8" s="306"/>
@@ -19739,7 +19742,7 @@
       <c r="G8" s="80" t="s">
         <v>856</v>
       </c>
-      <c r="H8" s="553" t="s">
+      <c r="H8" s="556" t="s">
         <v>857</v>
       </c>
       <c r="I8" s="323" t="s">
@@ -19749,8 +19752,8 @@
     <row r="9" spans="1:9" ht="91.5" customHeight="1">
       <c r="A9" s="306"/>
       <c r="B9" s="552"/>
-      <c r="C9" s="485"/>
-      <c r="D9" s="523"/>
+      <c r="C9" s="471"/>
+      <c r="D9" s="541"/>
       <c r="E9" s="306"/>
       <c r="F9" s="288" t="s">
         <v>859</v>
@@ -19758,7 +19761,7 @@
       <c r="G9" s="80" t="s">
         <v>860</v>
       </c>
-      <c r="H9" s="553"/>
+      <c r="H9" s="556"/>
       <c r="I9" s="323" t="s">
         <v>858</v>
       </c>
@@ -20292,17 +20295,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20381,16 +20384,16 @@
       <c r="B5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="447" t="s">
+      <c r="C5" s="438" t="s">
         <v>866</v>
       </c>
-      <c r="D5" s="448"/>
-      <c r="E5" s="448"/>
-      <c r="F5" s="448"/>
-      <c r="G5" s="448"/>
-      <c r="H5" s="448"/>
-      <c r="I5" s="448"/>
-      <c r="J5" s="448"/>
+      <c r="D5" s="439"/>
+      <c r="E5" s="439"/>
+      <c r="F5" s="439"/>
+      <c r="G5" s="439"/>
+      <c r="H5" s="439"/>
+      <c r="I5" s="439"/>
+      <c r="J5" s="439"/>
       <c r="K5" s="315"/>
     </row>
     <row r="6" spans="1:11" ht="16">
@@ -20412,20 +20415,20 @@
     </row>
     <row r="7" spans="1:11" ht="16">
       <c r="A7" s="306"/>
-      <c r="B7" s="449" t="s">
+      <c r="B7" s="440" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="466"/>
-      <c r="D7" s="450"/>
+      <c r="C7" s="478"/>
+      <c r="D7" s="441"/>
       <c r="E7" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="445" t="s">
+      <c r="F7" s="443" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="550"/>
       <c r="H7" s="550"/>
-      <c r="I7" s="446"/>
+      <c r="I7" s="444"/>
       <c r="J7" s="283" t="s">
         <v>32</v>
       </c>
@@ -20449,7 +20452,7 @@
       </c>
       <c r="H8" s="295"/>
       <c r="I8" s="295"/>
-      <c r="J8" s="571" t="s">
+      <c r="J8" s="557" t="s">
         <v>871</v>
       </c>
       <c r="K8" s="273" t="s">
@@ -20472,7 +20475,7 @@
       </c>
       <c r="H9" s="295"/>
       <c r="I9" s="295"/>
-      <c r="J9" s="572"/>
+      <c r="J9" s="558"/>
       <c r="K9" s="273" t="s">
         <v>874</v>
       </c>
@@ -20493,7 +20496,7 @@
       </c>
       <c r="H10" s="295"/>
       <c r="I10" s="295"/>
-      <c r="J10" s="572"/>
+      <c r="J10" s="558"/>
       <c r="K10" s="273" t="s">
         <v>876</v>
       </c>
@@ -20514,7 +20517,7 @@
       </c>
       <c r="H11" s="295"/>
       <c r="I11" s="295"/>
-      <c r="J11" s="572"/>
+      <c r="J11" s="558"/>
       <c r="K11" s="273" t="s">
         <v>878</v>
       </c>
@@ -20535,7 +20538,7 @@
       </c>
       <c r="H12" s="295"/>
       <c r="I12" s="295"/>
-      <c r="J12" s="572"/>
+      <c r="J12" s="558"/>
       <c r="K12" s="273" t="s">
         <v>880</v>
       </c>
@@ -20556,7 +20559,7 @@
       </c>
       <c r="H13" s="295"/>
       <c r="I13" s="295"/>
-      <c r="J13" s="572"/>
+      <c r="J13" s="558"/>
       <c r="K13" s="273" t="s">
         <v>882</v>
       </c>
@@ -20577,7 +20580,7 @@
       </c>
       <c r="H14" s="295"/>
       <c r="I14" s="295"/>
-      <c r="J14" s="572"/>
+      <c r="J14" s="558"/>
       <c r="K14" s="273" t="s">
         <v>883</v>
       </c>
@@ -20598,7 +20601,7 @@
       </c>
       <c r="H15" s="295"/>
       <c r="I15" s="295"/>
-      <c r="J15" s="573"/>
+      <c r="J15" s="559"/>
       <c r="K15" s="273" t="s">
         <v>885</v>
       </c>
@@ -20623,7 +20626,7 @@
         <v>887</v>
       </c>
       <c r="I16" s="295"/>
-      <c r="J16" s="571" t="s">
+      <c r="J16" s="557" t="s">
         <v>888</v>
       </c>
       <c r="K16" s="273" t="s">
@@ -20649,7 +20652,7 @@
         <v>887</v>
       </c>
       <c r="I17" s="295"/>
-      <c r="J17" s="572"/>
+      <c r="J17" s="558"/>
       <c r="K17" s="273" t="s">
         <v>890</v>
       </c>
@@ -20673,7 +20676,7 @@
         <v>887</v>
       </c>
       <c r="I18" s="295"/>
-      <c r="J18" s="572"/>
+      <c r="J18" s="558"/>
       <c r="K18" s="273" t="s">
         <v>891</v>
       </c>
@@ -20697,7 +20700,7 @@
         <v>887</v>
       </c>
       <c r="I19" s="295"/>
-      <c r="J19" s="572"/>
+      <c r="J19" s="558"/>
       <c r="K19" s="273" t="s">
         <v>892</v>
       </c>
@@ -20721,7 +20724,7 @@
         <v>887</v>
       </c>
       <c r="I20" s="295"/>
-      <c r="J20" s="572"/>
+      <c r="J20" s="558"/>
       <c r="K20" s="273" t="s">
         <v>893</v>
       </c>
@@ -20745,7 +20748,7 @@
         <v>887</v>
       </c>
       <c r="I21" s="295"/>
-      <c r="J21" s="572"/>
+      <c r="J21" s="558"/>
       <c r="K21" s="273" t="s">
         <v>894</v>
       </c>
@@ -20769,7 +20772,7 @@
         <v>887</v>
       </c>
       <c r="I22" s="295"/>
-      <c r="J22" s="572"/>
+      <c r="J22" s="558"/>
       <c r="K22" s="273" t="s">
         <v>895</v>
       </c>
@@ -20793,7 +20796,7 @@
         <v>887</v>
       </c>
       <c r="I23" s="295"/>
-      <c r="J23" s="573"/>
+      <c r="J23" s="559"/>
       <c r="K23" s="273" t="s">
         <v>896</v>
       </c>
@@ -20821,7 +20824,7 @@
       <c r="I24" s="295" t="s">
         <v>899</v>
       </c>
-      <c r="J24" s="571" t="s">
+      <c r="J24" s="557" t="s">
         <v>900</v>
       </c>
       <c r="K24" s="273" t="s">
@@ -20851,7 +20854,7 @@
       <c r="I25" s="295" t="s">
         <v>899</v>
       </c>
-      <c r="J25" s="572"/>
+      <c r="J25" s="558"/>
       <c r="K25" s="273" t="s">
         <v>902</v>
       </c>
@@ -20879,7 +20882,7 @@
       <c r="I26" s="295" t="s">
         <v>899</v>
       </c>
-      <c r="J26" s="572"/>
+      <c r="J26" s="558"/>
       <c r="K26" s="273" t="s">
         <v>903</v>
       </c>
@@ -20907,7 +20910,7 @@
       <c r="I27" s="295" t="s">
         <v>899</v>
       </c>
-      <c r="J27" s="572"/>
+      <c r="J27" s="558"/>
       <c r="K27" s="273" t="s">
         <v>904</v>
       </c>
@@ -20935,7 +20938,7 @@
       <c r="I28" s="295" t="s">
         <v>899</v>
       </c>
-      <c r="J28" s="572"/>
+      <c r="J28" s="558"/>
       <c r="K28" s="273" t="s">
         <v>905</v>
       </c>
@@ -20963,7 +20966,7 @@
       <c r="I29" s="295" t="s">
         <v>899</v>
       </c>
-      <c r="J29" s="572"/>
+      <c r="J29" s="558"/>
       <c r="K29" s="273" t="s">
         <v>906</v>
       </c>
@@ -20991,7 +20994,7 @@
       <c r="I30" s="295" t="s">
         <v>899</v>
       </c>
-      <c r="J30" s="572"/>
+      <c r="J30" s="558"/>
       <c r="K30" s="273" t="s">
         <v>907</v>
       </c>
@@ -21019,7 +21022,7 @@
       <c r="I31" s="295" t="s">
         <v>899</v>
       </c>
-      <c r="J31" s="573"/>
+      <c r="J31" s="559"/>
       <c r="K31" s="273" t="s">
         <v>908</v>
       </c>
@@ -21073,11 +21076,11 @@
       <c r="K36" s="315"/>
     </row>
     <row r="37" spans="2:11" ht="16">
-      <c r="B37" s="449" t="s">
+      <c r="B37" s="440" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="466"/>
-      <c r="D37" s="450"/>
+      <c r="C37" s="478"/>
+      <c r="D37" s="441"/>
       <c r="E37" s="61" t="s">
         <v>31</v>
       </c>
@@ -21085,11 +21088,11 @@
         <v>28</v>
       </c>
       <c r="G37" s="291"/>
-      <c r="H37" s="474" t="s">
+      <c r="H37" s="476" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="474"/>
-      <c r="J37" s="474"/>
+      <c r="I37" s="476"/>
+      <c r="J37" s="476"/>
       <c r="K37" s="78" t="s">
         <v>222</v>
       </c>
@@ -21111,11 +21114,11 @@
         <v>915</v>
       </c>
       <c r="G38" s="295"/>
-      <c r="H38" s="567" t="s">
+      <c r="H38" s="565" t="s">
         <v>916</v>
       </c>
-      <c r="I38" s="567"/>
-      <c r="J38" s="557"/>
+      <c r="I38" s="565"/>
+      <c r="J38" s="560"/>
       <c r="K38" s="139" t="s">
         <v>917</v>
       </c>
@@ -21137,9 +21140,9 @@
         <v>915</v>
       </c>
       <c r="G39" s="295"/>
-      <c r="H39" s="567"/>
-      <c r="I39" s="567"/>
-      <c r="J39" s="557"/>
+      <c r="H39" s="565"/>
+      <c r="I39" s="565"/>
+      <c r="J39" s="560"/>
       <c r="K39" s="139" t="s">
         <v>919</v>
       </c>
@@ -21161,9 +21164,9 @@
         <v>915</v>
       </c>
       <c r="G40" s="295"/>
-      <c r="H40" s="567"/>
-      <c r="I40" s="567"/>
-      <c r="J40" s="557"/>
+      <c r="H40" s="565"/>
+      <c r="I40" s="565"/>
+      <c r="J40" s="560"/>
       <c r="K40" s="139" t="s">
         <v>921</v>
       </c>
@@ -21185,9 +21188,9 @@
         <v>915</v>
       </c>
       <c r="G41" s="295"/>
-      <c r="H41" s="567"/>
-      <c r="I41" s="567"/>
-      <c r="J41" s="557"/>
+      <c r="H41" s="565"/>
+      <c r="I41" s="565"/>
+      <c r="J41" s="560"/>
       <c r="K41" s="139" t="s">
         <v>923</v>
       </c>
@@ -21209,9 +21212,9 @@
         <v>915</v>
       </c>
       <c r="G42" s="295"/>
-      <c r="H42" s="567"/>
-      <c r="I42" s="567"/>
-      <c r="J42" s="557"/>
+      <c r="H42" s="565"/>
+      <c r="I42" s="565"/>
+      <c r="J42" s="560"/>
       <c r="K42" s="139" t="s">
         <v>925</v>
       </c>
@@ -21233,9 +21236,9 @@
         <v>915</v>
       </c>
       <c r="G43" s="295"/>
-      <c r="H43" s="567"/>
-      <c r="I43" s="567"/>
-      <c r="J43" s="557"/>
+      <c r="H43" s="565"/>
+      <c r="I43" s="565"/>
+      <c r="J43" s="560"/>
       <c r="K43" s="139" t="s">
         <v>927</v>
       </c>
@@ -21257,9 +21260,9 @@
         <v>915</v>
       </c>
       <c r="G44" s="295"/>
-      <c r="H44" s="567"/>
-      <c r="I44" s="567"/>
-      <c r="J44" s="557"/>
+      <c r="H44" s="565"/>
+      <c r="I44" s="565"/>
+      <c r="J44" s="560"/>
       <c r="K44" s="139" t="s">
         <v>929</v>
       </c>
@@ -21344,16 +21347,16 @@
       <c r="D50" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="445" t="s">
+      <c r="E50" s="443" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="550"/>
-      <c r="G50" s="446"/>
-      <c r="H50" s="568" t="s">
+      <c r="G50" s="444"/>
+      <c r="H50" s="562" t="s">
         <v>32</v>
       </c>
-      <c r="I50" s="569"/>
-      <c r="J50" s="570"/>
+      <c r="I50" s="563"/>
+      <c r="J50" s="564"/>
       <c r="K50" s="290" t="s">
         <v>222</v>
       </c>
@@ -21369,15 +21372,15 @@
         <v>933</v>
       </c>
       <c r="E51" s="138"/>
-      <c r="F51" s="557" t="s">
+      <c r="F51" s="560" t="s">
         <v>934</v>
       </c>
-      <c r="G51" s="558"/>
-      <c r="H51" s="567" t="s">
+      <c r="G51" s="561"/>
+      <c r="H51" s="565" t="s">
         <v>935</v>
       </c>
-      <c r="I51" s="567"/>
-      <c r="J51" s="557"/>
+      <c r="I51" s="565"/>
+      <c r="J51" s="560"/>
       <c r="K51" s="273" t="s">
         <v>936</v>
       </c>
@@ -21393,13 +21396,13 @@
         <v>933</v>
       </c>
       <c r="E52" s="138"/>
-      <c r="F52" s="557" t="s">
+      <c r="F52" s="560" t="s">
         <v>934</v>
       </c>
-      <c r="G52" s="558"/>
-      <c r="H52" s="567"/>
-      <c r="I52" s="567"/>
-      <c r="J52" s="557"/>
+      <c r="G52" s="561"/>
+      <c r="H52" s="565"/>
+      <c r="I52" s="565"/>
+      <c r="J52" s="560"/>
       <c r="K52" s="273" t="s">
         <v>938</v>
       </c>
@@ -21415,13 +21418,13 @@
         <v>933</v>
       </c>
       <c r="E53" s="138"/>
-      <c r="F53" s="557" t="s">
+      <c r="F53" s="560" t="s">
         <v>934</v>
       </c>
-      <c r="G53" s="558"/>
-      <c r="H53" s="567"/>
-      <c r="I53" s="567"/>
-      <c r="J53" s="557"/>
+      <c r="G53" s="561"/>
+      <c r="H53" s="565"/>
+      <c r="I53" s="565"/>
+      <c r="J53" s="560"/>
       <c r="K53" s="273" t="s">
         <v>940</v>
       </c>
@@ -21437,13 +21440,13 @@
         <v>933</v>
       </c>
       <c r="E54" s="138"/>
-      <c r="F54" s="557" t="s">
+      <c r="F54" s="560" t="s">
         <v>934</v>
       </c>
-      <c r="G54" s="558"/>
-      <c r="H54" s="567"/>
-      <c r="I54" s="567"/>
-      <c r="J54" s="557"/>
+      <c r="G54" s="561"/>
+      <c r="H54" s="565"/>
+      <c r="I54" s="565"/>
+      <c r="J54" s="560"/>
       <c r="K54" s="273" t="s">
         <v>942</v>
       </c>
@@ -21459,13 +21462,13 @@
         <v>933</v>
       </c>
       <c r="E55" s="138"/>
-      <c r="F55" s="557" t="s">
+      <c r="F55" s="560" t="s">
         <v>934</v>
       </c>
-      <c r="G55" s="558"/>
-      <c r="H55" s="567"/>
-      <c r="I55" s="567"/>
-      <c r="J55" s="557"/>
+      <c r="G55" s="561"/>
+      <c r="H55" s="565"/>
+      <c r="I55" s="565"/>
+      <c r="J55" s="560"/>
       <c r="K55" s="273" t="s">
         <v>943</v>
       </c>
@@ -21481,44 +21484,44 @@
         <v>933</v>
       </c>
       <c r="E56" s="138"/>
-      <c r="F56" s="557" t="s">
+      <c r="F56" s="560" t="s">
         <v>934</v>
       </c>
-      <c r="G56" s="558"/>
-      <c r="H56" s="567"/>
-      <c r="I56" s="567"/>
-      <c r="J56" s="557"/>
+      <c r="G56" s="561"/>
+      <c r="H56" s="565"/>
+      <c r="I56" s="565"/>
+      <c r="J56" s="560"/>
       <c r="K56" s="273" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="32">
-      <c r="B57" s="557" t="s">
+      <c r="B57" s="560" t="s">
         <v>945</v>
       </c>
-      <c r="C57" s="558"/>
+      <c r="C57" s="561"/>
       <c r="D57" s="295" t="s">
         <v>933</v>
       </c>
       <c r="E57" s="138"/>
-      <c r="F57" s="557" t="s">
+      <c r="F57" s="560" t="s">
         <v>946</v>
       </c>
-      <c r="G57" s="558"/>
-      <c r="H57" s="567" t="s">
+      <c r="G57" s="561"/>
+      <c r="H57" s="565" t="s">
         <v>947</v>
       </c>
-      <c r="I57" s="567"/>
-      <c r="J57" s="567"/>
+      <c r="I57" s="565"/>
+      <c r="J57" s="565"/>
       <c r="K57" s="300" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="48">
-      <c r="B58" s="559" t="s">
+      <c r="B58" s="566" t="s">
         <v>949</v>
       </c>
-      <c r="C58" s="560"/>
+      <c r="C58" s="567"/>
       <c r="D58" s="323" t="s">
         <v>949</v>
       </c>
@@ -21529,20 +21532,20 @@
       <c r="G58" s="323" t="s">
         <v>950</v>
       </c>
-      <c r="H58" s="523" t="s">
+      <c r="H58" s="541" t="s">
         <v>951</v>
       </c>
-      <c r="I58" s="523"/>
-      <c r="J58" s="559"/>
+      <c r="I58" s="541"/>
+      <c r="J58" s="566"/>
       <c r="K58" s="273" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="48">
-      <c r="B59" s="559" t="s">
+      <c r="B59" s="566" t="s">
         <v>953</v>
       </c>
-      <c r="C59" s="560"/>
+      <c r="C59" s="567"/>
       <c r="D59" s="323" t="s">
         <v>949</v>
       </c>
@@ -21553,9 +21556,9 @@
       <c r="G59" s="323" t="s">
         <v>950</v>
       </c>
-      <c r="H59" s="523"/>
-      <c r="I59" s="523"/>
-      <c r="J59" s="559"/>
+      <c r="H59" s="541"/>
+      <c r="I59" s="541"/>
+      <c r="J59" s="566"/>
       <c r="K59" s="273" t="s">
         <v>952</v>
       </c>
@@ -21585,15 +21588,15 @@
       <c r="K61" s="306"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="564" t="s">
+      <c r="B62" s="571" t="s">
         <v>954</v>
       </c>
-      <c r="C62" s="565"/>
-      <c r="D62" s="565"/>
-      <c r="E62" s="565"/>
-      <c r="F62" s="565"/>
-      <c r="G62" s="565"/>
-      <c r="H62" s="566"/>
+      <c r="C62" s="572"/>
+      <c r="D62" s="572"/>
+      <c r="E62" s="572"/>
+      <c r="F62" s="572"/>
+      <c r="G62" s="572"/>
+      <c r="H62" s="573"/>
       <c r="I62" s="109"/>
       <c r="J62" s="109"/>
       <c r="K62" s="306"/>
@@ -22239,15 +22242,15 @@
     </row>
     <row r="116" spans="1:11" ht="16" thickBot="1">
       <c r="A116" s="306"/>
-      <c r="B116" s="561" t="s">
+      <c r="B116" s="568" t="s">
         <v>955</v>
       </c>
-      <c r="C116" s="562"/>
-      <c r="D116" s="562"/>
-      <c r="E116" s="562"/>
-      <c r="F116" s="562"/>
-      <c r="G116" s="562"/>
-      <c r="H116" s="563"/>
+      <c r="C116" s="569"/>
+      <c r="D116" s="569"/>
+      <c r="E116" s="569"/>
+      <c r="F116" s="569"/>
+      <c r="G116" s="569"/>
+      <c r="H116" s="570"/>
       <c r="I116" s="332"/>
       <c r="J116" s="332"/>
       <c r="K116" s="306"/>
@@ -22337,16 +22340,16 @@
       <c r="C122" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D122" s="445" t="s">
+      <c r="D122" s="443" t="s">
         <v>28</v>
       </c>
       <c r="E122" s="550"/>
-      <c r="F122" s="446"/>
-      <c r="G122" s="474" t="s">
+      <c r="F122" s="444"/>
+      <c r="G122" s="476" t="s">
         <v>32</v>
       </c>
-      <c r="H122" s="474"/>
-      <c r="I122" s="474"/>
+      <c r="H122" s="476"/>
+      <c r="I122" s="476"/>
       <c r="J122" s="290" t="s">
         <v>222</v>
       </c>
@@ -22361,10 +22364,10 @@
         <v>958</v>
       </c>
       <c r="D123" s="138"/>
-      <c r="E123" s="440" t="s">
+      <c r="E123" s="436" t="s">
         <v>959</v>
       </c>
-      <c r="F123" s="441"/>
+      <c r="F123" s="437"/>
       <c r="G123" s="551" t="s">
         <v>960</v>
       </c>
@@ -22384,15 +22387,15 @@
         <v>962</v>
       </c>
       <c r="D124" s="138"/>
-      <c r="E124" s="440" t="s">
+      <c r="E124" s="436" t="s">
         <v>963</v>
       </c>
-      <c r="F124" s="441"/>
-      <c r="G124" s="443" t="s">
+      <c r="F124" s="437"/>
+      <c r="G124" s="445" t="s">
         <v>964</v>
       </c>
-      <c r="H124" s="443"/>
-      <c r="I124" s="443"/>
+      <c r="H124" s="445"/>
+      <c r="I124" s="445"/>
       <c r="J124" s="323" t="s">
         <v>965</v>
       </c>
@@ -22400,25 +22403,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="J8:J15"/>
-    <mergeCell ref="J16:J23"/>
-    <mergeCell ref="J24:J31"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="H38:J44"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G123:I123"/>
     <mergeCell ref="G124:I124"/>
@@ -22435,6 +22419,25 @@
     <mergeCell ref="H57:J57"/>
     <mergeCell ref="H58:J59"/>
     <mergeCell ref="E50:G50"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="H38:J44"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="J8:J15"/>
+    <mergeCell ref="J16:J23"/>
+    <mergeCell ref="J24:J31"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23330,10 +23333,10 @@
       <c r="C7" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="445" t="s">
+      <c r="D7" s="443" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="446"/>
+      <c r="E7" s="444"/>
       <c r="F7" s="283" t="s">
         <v>32</v>
       </c>
@@ -26660,12 +26663,12 @@
   <sheetData>
     <row r="1" spans="2:10" s="191" customFormat="1" ht="15"/>
     <row r="2" spans="2:10" s="204" customFormat="1" ht="61.5" customHeight="1">
-      <c r="B2" s="576" t="s">
+      <c r="B2" s="581" t="s">
         <v>989</v>
       </c>
-      <c r="C2" s="576"/>
-      <c r="D2" s="576"/>
-      <c r="E2" s="576"/>
+      <c r="C2" s="581"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="581"/>
       <c r="F2" s="191"/>
       <c r="G2" s="191"/>
       <c r="H2" s="315"/>
@@ -26725,16 +26728,16 @@
       <c r="C7" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="445" t="s">
+      <c r="D7" s="443" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="550"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="474" t="s">
+      <c r="F7" s="444"/>
+      <c r="G7" s="476" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="474"/>
-      <c r="I7" s="474"/>
+      <c r="H7" s="476"/>
+      <c r="I7" s="476"/>
       <c r="J7" s="290" t="s">
         <v>222</v>
       </c>
@@ -26749,13 +26752,13 @@
       <c r="D8" s="351" t="s">
         <v>994</v>
       </c>
-      <c r="E8" s="578"/>
-      <c r="F8" s="579"/>
-      <c r="G8" s="580" t="s">
+      <c r="E8" s="577"/>
+      <c r="F8" s="578"/>
+      <c r="G8" s="579" t="s">
         <v>995</v>
       </c>
-      <c r="H8" s="580"/>
-      <c r="I8" s="580"/>
+      <c r="H8" s="579"/>
+      <c r="I8" s="579"/>
       <c r="J8" s="229" t="s">
         <v>996</v>
       </c>
@@ -26823,16 +26826,16 @@
       <c r="C13" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="445" t="s">
+      <c r="D13" s="443" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="550"/>
-      <c r="F13" s="446"/>
-      <c r="G13" s="474" t="s">
+      <c r="F13" s="444"/>
+      <c r="G13" s="476" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="474"/>
-      <c r="I13" s="474"/>
+      <c r="H13" s="476"/>
+      <c r="I13" s="476"/>
       <c r="J13" s="290" t="s">
         <v>222</v>
       </c>
@@ -26851,11 +26854,11 @@
         <v>1000</v>
       </c>
       <c r="F14" s="220"/>
-      <c r="G14" s="443" t="s">
+      <c r="G14" s="445" t="s">
         <v>1001</v>
       </c>
-      <c r="H14" s="443"/>
-      <c r="I14" s="443"/>
+      <c r="H14" s="445"/>
+      <c r="I14" s="445"/>
       <c r="J14" s="139" t="s">
         <v>1002</v>
       </c>
@@ -26874,9 +26877,9 @@
         <v>1000</v>
       </c>
       <c r="F15" s="220"/>
-      <c r="G15" s="443"/>
-      <c r="H15" s="443"/>
-      <c r="I15" s="443"/>
+      <c r="G15" s="445"/>
+      <c r="H15" s="445"/>
+      <c r="I15" s="445"/>
       <c r="J15" s="139" t="s">
         <v>1002</v>
       </c>
@@ -26895,9 +26898,9 @@
         <v>1000</v>
       </c>
       <c r="F16" s="220"/>
-      <c r="G16" s="443"/>
-      <c r="H16" s="443"/>
-      <c r="I16" s="443"/>
+      <c r="G16" s="445"/>
+      <c r="H16" s="445"/>
+      <c r="I16" s="445"/>
       <c r="J16" s="139" t="s">
         <v>1002</v>
       </c>
@@ -26916,9 +26919,9 @@
         <v>1000</v>
       </c>
       <c r="F17" s="220"/>
-      <c r="G17" s="443"/>
-      <c r="H17" s="443"/>
-      <c r="I17" s="443"/>
+      <c r="G17" s="445"/>
+      <c r="H17" s="445"/>
+      <c r="I17" s="445"/>
       <c r="J17" s="139" t="s">
         <v>1002</v>
       </c>
@@ -26938,9 +26941,9 @@
         <v>1000</v>
       </c>
       <c r="F18" s="220"/>
-      <c r="G18" s="443"/>
-      <c r="H18" s="443"/>
-      <c r="I18" s="443"/>
+      <c r="G18" s="445"/>
+      <c r="H18" s="445"/>
+      <c r="I18" s="445"/>
       <c r="J18" s="139" t="s">
         <v>1002</v>
       </c>
@@ -26958,9 +26961,9 @@
       </c>
       <c r="E19" s="221"/>
       <c r="F19" s="220"/>
-      <c r="G19" s="443"/>
-      <c r="H19" s="443"/>
-      <c r="I19" s="443"/>
+      <c r="G19" s="445"/>
+      <c r="H19" s="445"/>
+      <c r="I19" s="445"/>
       <c r="J19" s="220"/>
       <c r="K19" s="306"/>
     </row>
@@ -26978,9 +26981,9 @@
         <v>1000</v>
       </c>
       <c r="F20" s="220"/>
-      <c r="G20" s="443"/>
-      <c r="H20" s="443"/>
-      <c r="I20" s="443"/>
+      <c r="G20" s="445"/>
+      <c r="H20" s="445"/>
+      <c r="I20" s="445"/>
       <c r="J20" s="139" t="s">
         <v>1002</v>
       </c>
@@ -27000,9 +27003,9 @@
         <v>1000</v>
       </c>
       <c r="F21" s="220"/>
-      <c r="G21" s="443"/>
-      <c r="H21" s="443"/>
-      <c r="I21" s="443"/>
+      <c r="G21" s="445"/>
+      <c r="H21" s="445"/>
+      <c r="I21" s="445"/>
       <c r="J21" s="139" t="s">
         <v>1002</v>
       </c>
@@ -27022,9 +27025,9 @@
         <v>1000</v>
       </c>
       <c r="F22" s="220"/>
-      <c r="G22" s="443"/>
-      <c r="H22" s="443"/>
-      <c r="I22" s="443"/>
+      <c r="G22" s="445"/>
+      <c r="H22" s="445"/>
+      <c r="I22" s="445"/>
       <c r="J22" s="139" t="s">
         <v>1002</v>
       </c>
@@ -27044,9 +27047,9 @@
         <v>1000</v>
       </c>
       <c r="F23" s="220"/>
-      <c r="G23" s="443"/>
-      <c r="H23" s="443"/>
-      <c r="I23" s="443"/>
+      <c r="G23" s="445"/>
+      <c r="H23" s="445"/>
+      <c r="I23" s="445"/>
       <c r="J23" s="139" t="s">
         <v>1002</v>
       </c>
@@ -27066,9 +27069,9 @@
         <v>1000</v>
       </c>
       <c r="F24" s="220"/>
-      <c r="G24" s="443"/>
-      <c r="H24" s="443"/>
-      <c r="I24" s="443"/>
+      <c r="G24" s="445"/>
+      <c r="H24" s="445"/>
+      <c r="I24" s="445"/>
       <c r="J24" s="139" t="s">
         <v>1002</v>
       </c>
@@ -27088,9 +27091,9 @@
         <v>1000</v>
       </c>
       <c r="F25" s="220"/>
-      <c r="G25" s="443"/>
-      <c r="H25" s="443"/>
-      <c r="I25" s="443"/>
+      <c r="G25" s="445"/>
+      <c r="H25" s="445"/>
+      <c r="I25" s="445"/>
       <c r="J25" s="139" t="s">
         <v>1002</v>
       </c>
@@ -27110,9 +27113,9 @@
         <v>1000</v>
       </c>
       <c r="F26" s="220"/>
-      <c r="G26" s="443"/>
-      <c r="H26" s="443"/>
-      <c r="I26" s="443"/>
+      <c r="G26" s="445"/>
+      <c r="H26" s="445"/>
+      <c r="I26" s="445"/>
       <c r="J26" s="139" t="s">
         <v>1002</v>
       </c>
@@ -27132,9 +27135,9 @@
         <v>1000</v>
       </c>
       <c r="F27" s="220"/>
-      <c r="G27" s="443"/>
-      <c r="H27" s="443"/>
-      <c r="I27" s="443"/>
+      <c r="G27" s="445"/>
+      <c r="H27" s="445"/>
+      <c r="I27" s="445"/>
       <c r="J27" s="139" t="s">
         <v>1002</v>
       </c>
@@ -27154,9 +27157,9 @@
         <v>1000</v>
       </c>
       <c r="F28" s="220"/>
-      <c r="G28" s="443"/>
-      <c r="H28" s="443"/>
-      <c r="I28" s="443"/>
+      <c r="G28" s="445"/>
+      <c r="H28" s="445"/>
+      <c r="I28" s="445"/>
       <c r="J28" s="139" t="s">
         <v>1002</v>
       </c>
@@ -27176,9 +27179,9 @@
         <v>1000</v>
       </c>
       <c r="F29" s="220"/>
-      <c r="G29" s="443"/>
-      <c r="H29" s="443"/>
-      <c r="I29" s="443"/>
+      <c r="G29" s="445"/>
+      <c r="H29" s="445"/>
+      <c r="I29" s="445"/>
       <c r="J29" s="139" t="s">
         <v>1002</v>
       </c>
@@ -27198,9 +27201,9 @@
         <v>1000</v>
       </c>
       <c r="F30" s="220"/>
-      <c r="G30" s="443"/>
-      <c r="H30" s="443"/>
-      <c r="I30" s="443"/>
+      <c r="G30" s="445"/>
+      <c r="H30" s="445"/>
+      <c r="I30" s="445"/>
       <c r="J30" s="139" t="s">
         <v>1002</v>
       </c>
@@ -27216,15 +27219,15 @@
       <c r="D31" s="295" t="s">
         <v>999</v>
       </c>
-      <c r="E31" s="557" t="s">
+      <c r="E31" s="560" t="s">
         <v>1016</v>
       </c>
-      <c r="F31" s="558"/>
-      <c r="G31" s="443" t="s">
+      <c r="F31" s="561"/>
+      <c r="G31" s="445" t="s">
         <v>1016</v>
       </c>
-      <c r="H31" s="443"/>
-      <c r="I31" s="443"/>
+      <c r="H31" s="445"/>
+      <c r="I31" s="445"/>
       <c r="J31" s="139" t="s">
         <v>1002</v>
       </c>
@@ -27285,16 +27288,16 @@
       <c r="C36" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="445" t="s">
+      <c r="D36" s="443" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="550"/>
-      <c r="F36" s="446"/>
-      <c r="G36" s="474" t="s">
+      <c r="F36" s="444"/>
+      <c r="G36" s="476" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="474"/>
-      <c r="I36" s="474"/>
+      <c r="H36" s="476"/>
+      <c r="I36" s="476"/>
       <c r="J36" s="290" t="s">
         <v>222</v>
       </c>
@@ -27307,16 +27310,16 @@
       <c r="C37" s="305" t="s">
         <v>1018</v>
       </c>
-      <c r="D37" s="577" t="s">
+      <c r="D37" s="576" t="s">
         <v>1019</v>
       </c>
-      <c r="E37" s="577"/>
-      <c r="F37" s="577"/>
-      <c r="G37" s="581" t="s">
+      <c r="E37" s="576"/>
+      <c r="F37" s="576"/>
+      <c r="G37" s="580" t="s">
         <v>1020</v>
       </c>
-      <c r="H37" s="581"/>
-      <c r="I37" s="581"/>
+      <c r="H37" s="580"/>
+      <c r="I37" s="580"/>
       <c r="J37" s="307" t="s">
         <v>1021</v>
       </c>
@@ -27444,6 +27447,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -27453,11 +27461,6 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27503,11 +27506,11 @@
     </row>
     <row r="2" spans="1:10" ht="49.5" customHeight="1">
       <c r="A2" s="306"/>
-      <c r="B2" s="576" t="s">
+      <c r="B2" s="581" t="s">
         <v>1022</v>
       </c>
-      <c r="C2" s="576"/>
-      <c r="D2" s="576"/>
+      <c r="C2" s="581"/>
+      <c r="D2" s="581"/>
       <c r="E2" s="192"/>
       <c r="F2" s="191"/>
       <c r="G2" s="191"/>
@@ -27577,12 +27580,12 @@
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1">
       <c r="A7" s="306"/>
-      <c r="B7" s="586" t="s">
+      <c r="B7" s="582" t="s">
         <v>533</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="586"/>
-      <c r="E7" s="587"/>
+      <c r="C7" s="582"/>
+      <c r="D7" s="582"/>
+      <c r="E7" s="583"/>
       <c r="F7" s="61" t="s">
         <v>31</v>
       </c>
@@ -27603,10 +27606,10 @@
       <c r="C8" s="353" t="s">
         <v>1026</v>
       </c>
-      <c r="D8" s="591" t="s">
+      <c r="D8" s="584" t="s">
         <v>1027</v>
       </c>
-      <c r="E8" s="591"/>
+      <c r="E8" s="584"/>
       <c r="F8" s="354" t="s">
         <v>1028</v>
       </c>
@@ -27626,10 +27629,10 @@
       <c r="B9" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C9" s="485" t="s">
+      <c r="C9" s="471" t="s">
         <v>1033</v>
       </c>
-      <c r="D9" s="485"/>
+      <c r="D9" s="471"/>
       <c r="E9" s="552"/>
       <c r="F9" s="345" t="s">
         <v>1034</v>
@@ -27640,7 +27643,7 @@
       <c r="H9" s="552" t="s">
         <v>1036</v>
       </c>
-      <c r="I9" s="444" t="s">
+      <c r="I9" s="442" t="s">
         <v>1037</v>
       </c>
       <c r="J9" s="306"/>
@@ -27650,17 +27653,17 @@
       <c r="B10" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C10" s="485" t="s">
+      <c r="C10" s="471" t="s">
         <v>1038</v>
       </c>
-      <c r="D10" s="485"/>
+      <c r="D10" s="471"/>
       <c r="E10" s="552"/>
       <c r="F10" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G10" s="552"/>
       <c r="H10" s="552"/>
-      <c r="I10" s="444"/>
+      <c r="I10" s="442"/>
       <c r="J10" s="306"/>
     </row>
     <row r="11" spans="1:10" ht="48">
@@ -27668,17 +27671,17 @@
       <c r="B11" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C11" s="485" t="s">
+      <c r="C11" s="471" t="s">
         <v>1040</v>
       </c>
-      <c r="D11" s="485"/>
+      <c r="D11" s="471"/>
       <c r="E11" s="552"/>
       <c r="F11" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G11" s="552"/>
       <c r="H11" s="552"/>
-      <c r="I11" s="444"/>
+      <c r="I11" s="442"/>
       <c r="J11" s="306"/>
     </row>
     <row r="12" spans="1:10" ht="48">
@@ -27686,17 +27689,17 @@
       <c r="B12" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C12" s="485" t="s">
+      <c r="C12" s="471" t="s">
         <v>1041</v>
       </c>
-      <c r="D12" s="485"/>
+      <c r="D12" s="471"/>
       <c r="E12" s="552"/>
       <c r="F12" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G12" s="552"/>
       <c r="H12" s="552"/>
-      <c r="I12" s="444"/>
+      <c r="I12" s="442"/>
       <c r="J12" s="306"/>
     </row>
     <row r="13" spans="1:10" ht="48">
@@ -27704,17 +27707,17 @@
       <c r="B13" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C13" s="485" t="s">
+      <c r="C13" s="471" t="s">
         <v>1042</v>
       </c>
-      <c r="D13" s="485"/>
+      <c r="D13" s="471"/>
       <c r="E13" s="552"/>
       <c r="F13" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G13" s="552"/>
       <c r="H13" s="552"/>
-      <c r="I13" s="444"/>
+      <c r="I13" s="442"/>
       <c r="J13" s="306"/>
     </row>
     <row r="14" spans="1:10" ht="48">
@@ -27722,17 +27725,17 @@
       <c r="B14" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C14" s="485" t="s">
+      <c r="C14" s="471" t="s">
         <v>1043</v>
       </c>
-      <c r="D14" s="485"/>
+      <c r="D14" s="471"/>
       <c r="E14" s="552"/>
       <c r="F14" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G14" s="552"/>
       <c r="H14" s="552"/>
-      <c r="I14" s="444"/>
+      <c r="I14" s="442"/>
       <c r="J14" s="306"/>
     </row>
     <row r="15" spans="1:10" ht="48">
@@ -27740,17 +27743,17 @@
       <c r="B15" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C15" s="485" t="s">
+      <c r="C15" s="471" t="s">
         <v>1044</v>
       </c>
-      <c r="D15" s="485"/>
+      <c r="D15" s="471"/>
       <c r="E15" s="552"/>
       <c r="F15" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G15" s="552"/>
       <c r="H15" s="552"/>
-      <c r="I15" s="444"/>
+      <c r="I15" s="442"/>
       <c r="J15" s="306"/>
     </row>
     <row r="16" spans="1:10" ht="48">
@@ -27758,17 +27761,17 @@
       <c r="B16" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C16" s="485" t="s">
+      <c r="C16" s="471" t="s">
         <v>1045</v>
       </c>
-      <c r="D16" s="485"/>
+      <c r="D16" s="471"/>
       <c r="E16" s="552"/>
       <c r="F16" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G16" s="552"/>
       <c r="H16" s="552"/>
-      <c r="I16" s="444"/>
+      <c r="I16" s="442"/>
       <c r="J16" s="306"/>
     </row>
     <row r="17" spans="1:10" ht="48">
@@ -27776,17 +27779,17 @@
       <c r="B17" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C17" s="485" t="s">
+      <c r="C17" s="471" t="s">
         <v>1046</v>
       </c>
-      <c r="D17" s="485"/>
+      <c r="D17" s="471"/>
       <c r="E17" s="552"/>
       <c r="F17" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G17" s="552"/>
       <c r="H17" s="552"/>
-      <c r="I17" s="444"/>
+      <c r="I17" s="442"/>
       <c r="J17" s="306"/>
     </row>
     <row r="18" spans="1:10" ht="48">
@@ -27794,17 +27797,17 @@
       <c r="B18" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C18" s="485" t="s">
+      <c r="C18" s="471" t="s">
         <v>1047</v>
       </c>
-      <c r="D18" s="485"/>
+      <c r="D18" s="471"/>
       <c r="E18" s="552"/>
       <c r="F18" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G18" s="552"/>
       <c r="H18" s="552"/>
-      <c r="I18" s="444"/>
+      <c r="I18" s="442"/>
       <c r="J18" s="306"/>
     </row>
     <row r="19" spans="1:10" ht="48">
@@ -27812,17 +27815,17 @@
       <c r="B19" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C19" s="485" t="s">
+      <c r="C19" s="471" t="s">
         <v>1048</v>
       </c>
-      <c r="D19" s="485"/>
+      <c r="D19" s="471"/>
       <c r="E19" s="552"/>
       <c r="F19" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G19" s="552"/>
       <c r="H19" s="552"/>
-      <c r="I19" s="444"/>
+      <c r="I19" s="442"/>
       <c r="J19" s="306"/>
     </row>
     <row r="20" spans="1:10" ht="48">
@@ -27830,17 +27833,17 @@
       <c r="B20" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C20" s="485" t="s">
+      <c r="C20" s="471" t="s">
         <v>1049</v>
       </c>
-      <c r="D20" s="485"/>
+      <c r="D20" s="471"/>
       <c r="E20" s="552"/>
       <c r="F20" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G20" s="552"/>
       <c r="H20" s="552"/>
-      <c r="I20" s="444"/>
+      <c r="I20" s="442"/>
       <c r="J20" s="306"/>
     </row>
     <row r="21" spans="1:10" ht="48">
@@ -27848,17 +27851,17 @@
       <c r="B21" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C21" s="485" t="s">
+      <c r="C21" s="471" t="s">
         <v>1050</v>
       </c>
-      <c r="D21" s="485"/>
+      <c r="D21" s="471"/>
       <c r="E21" s="552"/>
       <c r="F21" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G21" s="552"/>
       <c r="H21" s="552"/>
-      <c r="I21" s="444" t="s">
+      <c r="I21" s="442" t="s">
         <v>1051</v>
       </c>
       <c r="J21" s="306"/>
@@ -27868,17 +27871,17 @@
       <c r="B22" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C22" s="485" t="s">
+      <c r="C22" s="471" t="s">
         <v>1052</v>
       </c>
-      <c r="D22" s="485"/>
+      <c r="D22" s="471"/>
       <c r="E22" s="552"/>
       <c r="F22" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G22" s="552"/>
       <c r="H22" s="552"/>
-      <c r="I22" s="444"/>
+      <c r="I22" s="442"/>
       <c r="J22" s="306"/>
     </row>
     <row r="23" spans="1:10" ht="48">
@@ -27886,17 +27889,17 @@
       <c r="B23" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C23" s="485" t="s">
+      <c r="C23" s="471" t="s">
         <v>1053</v>
       </c>
-      <c r="D23" s="485"/>
+      <c r="D23" s="471"/>
       <c r="E23" s="552"/>
       <c r="F23" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G23" s="552"/>
       <c r="H23" s="552"/>
-      <c r="I23" s="444"/>
+      <c r="I23" s="442"/>
       <c r="J23" s="306"/>
     </row>
     <row r="24" spans="1:10" ht="48">
@@ -27904,17 +27907,17 @@
       <c r="B24" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C24" s="485" t="s">
+      <c r="C24" s="471" t="s">
         <v>1054</v>
       </c>
-      <c r="D24" s="485"/>
+      <c r="D24" s="471"/>
       <c r="E24" s="552"/>
       <c r="F24" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G24" s="552"/>
       <c r="H24" s="552"/>
-      <c r="I24" s="444"/>
+      <c r="I24" s="442"/>
       <c r="J24" s="306"/>
     </row>
     <row r="25" spans="1:10" ht="48">
@@ -27922,17 +27925,17 @@
       <c r="B25" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C25" s="485" t="s">
+      <c r="C25" s="471" t="s">
         <v>1055</v>
       </c>
-      <c r="D25" s="485"/>
+      <c r="D25" s="471"/>
       <c r="E25" s="552"/>
       <c r="F25" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G25" s="552"/>
       <c r="H25" s="552"/>
-      <c r="I25" s="444"/>
+      <c r="I25" s="442"/>
       <c r="J25" s="306"/>
     </row>
     <row r="26" spans="1:10" ht="48">
@@ -27940,17 +27943,17 @@
       <c r="B26" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C26" s="485" t="s">
+      <c r="C26" s="471" t="s">
         <v>1056</v>
       </c>
-      <c r="D26" s="485"/>
+      <c r="D26" s="471"/>
       <c r="E26" s="552"/>
       <c r="F26" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G26" s="552"/>
       <c r="H26" s="552"/>
-      <c r="I26" s="444"/>
+      <c r="I26" s="442"/>
       <c r="J26" s="306"/>
     </row>
     <row r="27" spans="1:10" ht="48">
@@ -27958,17 +27961,17 @@
       <c r="B27" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C27" s="485" t="s">
+      <c r="C27" s="471" t="s">
         <v>1057</v>
       </c>
-      <c r="D27" s="485"/>
+      <c r="D27" s="471"/>
       <c r="E27" s="552"/>
       <c r="F27" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G27" s="552"/>
       <c r="H27" s="552"/>
-      <c r="I27" s="444"/>
+      <c r="I27" s="442"/>
       <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:10" ht="48">
@@ -27976,17 +27979,17 @@
       <c r="B28" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C28" s="485" t="s">
+      <c r="C28" s="471" t="s">
         <v>1058</v>
       </c>
-      <c r="D28" s="485"/>
+      <c r="D28" s="471"/>
       <c r="E28" s="552"/>
       <c r="F28" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G28" s="552"/>
       <c r="H28" s="552"/>
-      <c r="I28" s="444"/>
+      <c r="I28" s="442"/>
       <c r="J28" s="306"/>
     </row>
     <row r="29" spans="1:10" ht="48">
@@ -27994,17 +27997,17 @@
       <c r="B29" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C29" s="485" t="s">
+      <c r="C29" s="471" t="s">
         <v>1059</v>
       </c>
-      <c r="D29" s="485"/>
+      <c r="D29" s="471"/>
       <c r="E29" s="552"/>
       <c r="F29" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G29" s="552"/>
       <c r="H29" s="552"/>
-      <c r="I29" s="444" t="s">
+      <c r="I29" s="442" t="s">
         <v>1037</v>
       </c>
       <c r="J29" s="306"/>
@@ -28014,17 +28017,17 @@
       <c r="B30" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C30" s="485" t="s">
+      <c r="C30" s="471" t="s">
         <v>1060</v>
       </c>
-      <c r="D30" s="485"/>
+      <c r="D30" s="471"/>
       <c r="E30" s="552"/>
       <c r="F30" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G30" s="552"/>
       <c r="H30" s="552"/>
-      <c r="I30" s="444"/>
+      <c r="I30" s="442"/>
       <c r="J30" s="306"/>
     </row>
     <row r="31" spans="1:10" ht="48">
@@ -28032,17 +28035,17 @@
       <c r="B31" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C31" s="485" t="s">
+      <c r="C31" s="471" t="s">
         <v>1061</v>
       </c>
-      <c r="D31" s="485"/>
+      <c r="D31" s="471"/>
       <c r="E31" s="552"/>
       <c r="F31" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G31" s="552"/>
       <c r="H31" s="552"/>
-      <c r="I31" s="444"/>
+      <c r="I31" s="442"/>
       <c r="J31" s="306"/>
     </row>
     <row r="32" spans="1:10" ht="48">
@@ -28050,17 +28053,17 @@
       <c r="B32" s="327" t="s">
         <v>1032</v>
       </c>
-      <c r="C32" s="485" t="s">
+      <c r="C32" s="471" t="s">
         <v>1062</v>
       </c>
-      <c r="D32" s="485"/>
+      <c r="D32" s="471"/>
       <c r="E32" s="552"/>
       <c r="F32" s="345" t="s">
         <v>1039</v>
       </c>
       <c r="G32" s="552"/>
       <c r="H32" s="552"/>
-      <c r="I32" s="444"/>
+      <c r="I32" s="442"/>
       <c r="J32" s="306"/>
     </row>
     <row r="33" spans="1:10" ht="48">
@@ -28154,12 +28157,12 @@
     </row>
     <row r="39" spans="1:10" ht="16">
       <c r="A39" s="306"/>
-      <c r="B39" s="586" t="s">
+      <c r="B39" s="582" t="s">
         <v>533</v>
       </c>
-      <c r="C39" s="586"/>
-      <c r="D39" s="586"/>
-      <c r="E39" s="587"/>
+      <c r="C39" s="582"/>
+      <c r="D39" s="582"/>
+      <c r="E39" s="583"/>
       <c r="F39" s="61" t="s">
         <v>31</v>
       </c>
@@ -28176,12 +28179,12 @@
     </row>
     <row r="40" spans="1:10" ht="192">
       <c r="A40" s="306"/>
-      <c r="B40" s="585" t="s">
+      <c r="B40" s="586" t="s">
         <v>1067</v>
       </c>
-      <c r="C40" s="585"/>
-      <c r="D40" s="585"/>
-      <c r="E40" s="585"/>
+      <c r="C40" s="586"/>
+      <c r="D40" s="586"/>
+      <c r="E40" s="586"/>
       <c r="F40" s="306" t="s">
         <v>1068</v>
       </c>
@@ -28191,19 +28194,19 @@
       <c r="H40" s="326" t="s">
         <v>1070</v>
       </c>
-      <c r="I40" s="588" t="s">
+      <c r="I40" s="587" t="s">
         <v>1037</v>
       </c>
       <c r="J40" s="306"/>
     </row>
     <row r="41" spans="1:10" ht="147.75" customHeight="1">
       <c r="A41" s="306"/>
-      <c r="B41" s="584" t="s">
+      <c r="B41" s="585" t="s">
         <v>1071</v>
       </c>
-      <c r="C41" s="584"/>
-      <c r="D41" s="584"/>
-      <c r="E41" s="584"/>
+      <c r="C41" s="585"/>
+      <c r="D41" s="585"/>
+      <c r="E41" s="585"/>
       <c r="F41" s="326" t="s">
         <v>1072</v>
       </c>
@@ -28213,7 +28216,7 @@
       <c r="H41" s="326" t="s">
         <v>1074</v>
       </c>
-      <c r="I41" s="589"/>
+      <c r="I41" s="588"/>
       <c r="J41" s="306"/>
     </row>
     <row r="42" spans="1:10" ht="45" customHeight="1">
@@ -28224,20 +28227,20 @@
       <c r="C42" s="355" t="s">
         <v>1076</v>
       </c>
-      <c r="D42" s="583" t="s">
+      <c r="D42" s="591" t="s">
         <v>1077</v>
       </c>
-      <c r="E42" s="583"/>
-      <c r="F42" s="590" t="s">
+      <c r="E42" s="591"/>
+      <c r="F42" s="589" t="s">
         <v>1078</v>
       </c>
-      <c r="G42" s="590" t="s">
+      <c r="G42" s="589" t="s">
         <v>1079</v>
       </c>
-      <c r="H42" s="590" t="s">
+      <c r="H42" s="589" t="s">
         <v>1079</v>
       </c>
-      <c r="I42" s="589"/>
+      <c r="I42" s="588"/>
       <c r="J42" s="306"/>
     </row>
     <row r="43" spans="1:10" ht="45" customHeight="1">
@@ -28248,14 +28251,14 @@
       <c r="C43" s="356" t="s">
         <v>1076</v>
       </c>
-      <c r="D43" s="582" t="s">
+      <c r="D43" s="590" t="s">
         <v>1080</v>
       </c>
-      <c r="E43" s="582"/>
-      <c r="F43" s="590"/>
-      <c r="G43" s="590"/>
-      <c r="H43" s="590"/>
-      <c r="I43" s="589"/>
+      <c r="E43" s="590"/>
+      <c r="F43" s="589"/>
+      <c r="G43" s="589"/>
+      <c r="H43" s="589"/>
+      <c r="I43" s="588"/>
       <c r="J43" s="306"/>
     </row>
     <row r="44" spans="1:10" ht="45" customHeight="1">
@@ -28266,14 +28269,14 @@
       <c r="C44" s="356" t="s">
         <v>1076</v>
       </c>
-      <c r="D44" s="582" t="s">
+      <c r="D44" s="590" t="s">
         <v>1081</v>
       </c>
-      <c r="E44" s="582"/>
-      <c r="F44" s="590"/>
-      <c r="G44" s="590"/>
-      <c r="H44" s="590"/>
-      <c r="I44" s="589"/>
+      <c r="E44" s="590"/>
+      <c r="F44" s="589"/>
+      <c r="G44" s="589"/>
+      <c r="H44" s="589"/>
+      <c r="I44" s="588"/>
       <c r="J44" s="306"/>
     </row>
     <row r="45" spans="1:10" ht="45" customHeight="1">
@@ -28284,14 +28287,14 @@
       <c r="C45" s="356" t="s">
         <v>1076</v>
       </c>
-      <c r="D45" s="582" t="s">
+      <c r="D45" s="590" t="s">
         <v>1082</v>
       </c>
-      <c r="E45" s="582"/>
-      <c r="F45" s="590"/>
-      <c r="G45" s="590"/>
-      <c r="H45" s="590"/>
-      <c r="I45" s="589"/>
+      <c r="E45" s="590"/>
+      <c r="F45" s="589"/>
+      <c r="G45" s="589"/>
+      <c r="H45" s="589"/>
+      <c r="I45" s="588"/>
       <c r="J45" s="306"/>
     </row>
     <row r="46" spans="1:10" ht="45" customHeight="1">
@@ -28302,14 +28305,14 @@
       <c r="C46" s="356" t="s">
         <v>1077</v>
       </c>
-      <c r="D46" s="582" t="s">
+      <c r="D46" s="590" t="s">
         <v>1080</v>
       </c>
-      <c r="E46" s="582"/>
-      <c r="F46" s="590"/>
-      <c r="G46" s="590"/>
-      <c r="H46" s="590"/>
-      <c r="I46" s="589"/>
+      <c r="E46" s="590"/>
+      <c r="F46" s="589"/>
+      <c r="G46" s="589"/>
+      <c r="H46" s="589"/>
+      <c r="I46" s="588"/>
       <c r="J46" s="306"/>
     </row>
     <row r="47" spans="1:10" ht="45" customHeight="1">
@@ -28320,14 +28323,14 @@
       <c r="C47" s="356" t="s">
         <v>1077</v>
       </c>
-      <c r="D47" s="582" t="s">
+      <c r="D47" s="590" t="s">
         <v>1084</v>
       </c>
-      <c r="E47" s="582"/>
-      <c r="F47" s="590"/>
-      <c r="G47" s="590"/>
-      <c r="H47" s="590"/>
-      <c r="I47" s="589"/>
+      <c r="E47" s="590"/>
+      <c r="F47" s="589"/>
+      <c r="G47" s="589"/>
+      <c r="H47" s="589"/>
+      <c r="I47" s="588"/>
       <c r="J47" s="306"/>
     </row>
     <row r="48" spans="1:10" ht="45" customHeight="1">
@@ -28338,13 +28341,13 @@
       <c r="C48" s="356" t="s">
         <v>1077</v>
       </c>
-      <c r="D48" s="582" t="s">
+      <c r="D48" s="590" t="s">
         <v>1080</v>
       </c>
-      <c r="E48" s="582"/>
-      <c r="F48" s="590"/>
-      <c r="G48" s="590"/>
-      <c r="H48" s="590"/>
+      <c r="E48" s="590"/>
+      <c r="F48" s="589"/>
+      <c r="G48" s="589"/>
+      <c r="H48" s="589"/>
       <c r="I48" s="306"/>
       <c r="J48" s="306"/>
     </row>
@@ -28355,13 +28358,13 @@
       <c r="C49" s="356" t="s">
         <v>1077</v>
       </c>
-      <c r="D49" s="582" t="s">
+      <c r="D49" s="590" t="s">
         <v>1082</v>
       </c>
-      <c r="E49" s="582"/>
-      <c r="F49" s="590"/>
-      <c r="G49" s="590"/>
-      <c r="H49" s="590"/>
+      <c r="E49" s="590"/>
+      <c r="F49" s="589"/>
+      <c r="G49" s="589"/>
+      <c r="H49" s="589"/>
     </row>
     <row r="50" spans="2:8" ht="45" customHeight="1">
       <c r="B50" s="356" t="s">
@@ -28370,13 +28373,13 @@
       <c r="C50" s="356" t="s">
         <v>1085</v>
       </c>
-      <c r="D50" s="582" t="s">
+      <c r="D50" s="590" t="s">
         <v>1077</v>
       </c>
-      <c r="E50" s="582"/>
-      <c r="F50" s="590"/>
-      <c r="G50" s="590"/>
-      <c r="H50" s="590"/>
+      <c r="E50" s="590"/>
+      <c r="F50" s="589"/>
+      <c r="G50" s="589"/>
+      <c r="H50" s="589"/>
     </row>
     <row r="51" spans="2:8" ht="32">
       <c r="B51" s="356" t="s">
@@ -28385,13 +28388,13 @@
       <c r="C51" s="356" t="s">
         <v>1085</v>
       </c>
-      <c r="D51" s="582" t="s">
+      <c r="D51" s="590" t="s">
         <v>1082</v>
       </c>
-      <c r="E51" s="582"/>
-      <c r="F51" s="590"/>
-      <c r="G51" s="590"/>
-      <c r="H51" s="590"/>
+      <c r="E51" s="590"/>
+      <c r="F51" s="589"/>
+      <c r="G51" s="589"/>
+      <c r="H51" s="589"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="355"/>
@@ -28431,6 +28434,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="I40:I47"/>
+    <mergeCell ref="F42:F51"/>
+    <mergeCell ref="G42:G51"/>
+    <mergeCell ref="H42:H51"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I20"/>
     <mergeCell ref="C10:E10"/>
@@ -28447,41 +28485,6 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="I40:I47"/>
-    <mergeCell ref="F42:F51"/>
-    <mergeCell ref="G42:G51"/>
-    <mergeCell ref="H42:H51"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28592,10 +28595,10 @@
       <c r="M5" s="326"/>
     </row>
     <row r="6" spans="2:13" ht="64">
-      <c r="B6" s="523" t="s">
+      <c r="B6" s="541" t="s">
         <v>1089</v>
       </c>
-      <c r="C6" s="523"/>
+      <c r="C6" s="541"/>
       <c r="D6" s="80" t="s">
         <v>1090</v>
       </c>
@@ -28642,17 +28645,17 @@
       <c r="M7" s="326"/>
     </row>
     <row r="8" spans="2:13" ht="48">
-      <c r="B8" s="484" t="s">
+      <c r="B8" s="477" t="s">
         <v>1098</v>
       </c>
-      <c r="C8" s="484"/>
+      <c r="C8" s="477"/>
       <c r="D8" s="328" t="s">
         <v>1099</v>
       </c>
       <c r="E8" s="273" t="s">
         <v>1100</v>
       </c>
-      <c r="F8" s="553" t="s">
+      <c r="F8" s="556" t="s">
         <v>1101</v>
       </c>
       <c r="G8" s="323" t="s">
@@ -28666,17 +28669,17 @@
       <c r="M8" s="326"/>
     </row>
     <row r="9" spans="2:13" ht="48">
-      <c r="B9" s="485" t="s">
+      <c r="B9" s="471" t="s">
         <v>825</v>
       </c>
-      <c r="C9" s="485"/>
+      <c r="C9" s="471"/>
       <c r="D9" s="328" t="s">
         <v>1099</v>
       </c>
       <c r="E9" s="273" t="s">
         <v>1100</v>
       </c>
-      <c r="F9" s="553"/>
+      <c r="F9" s="556"/>
       <c r="G9" s="323" t="s">
         <v>1102</v>
       </c>
@@ -29420,19 +29423,19 @@
     </row>
     <row r="9" spans="2:12" hidden="1"/>
     <row r="10" spans="2:12" ht="57" customHeight="1">
-      <c r="B10" s="399" t="s">
+      <c r="B10" s="413" t="s">
         <v>1683</v>
       </c>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="399"/>
-      <c r="H10" s="399"/>
-      <c r="I10" s="399"/>
-      <c r="J10" s="399"/>
-      <c r="K10" s="399"/>
-      <c r="L10" s="399"/>
+      <c r="C10" s="413"/>
+      <c r="D10" s="413"/>
+      <c r="E10" s="413"/>
+      <c r="F10" s="413"/>
+      <c r="G10" s="413"/>
+      <c r="H10" s="413"/>
+      <c r="I10" s="413"/>
+      <c r="J10" s="413"/>
+      <c r="K10" s="413"/>
+      <c r="L10" s="413"/>
     </row>
     <row r="11" spans="2:12" s="382" customFormat="1" ht="18.75" customHeight="1">
       <c r="B11" s="376"/>
@@ -29448,19 +29451,19 @@
       <c r="L11" s="384"/>
     </row>
     <row r="12" spans="2:12" ht="119.25" customHeight="1">
-      <c r="B12" s="401" t="s">
+      <c r="B12" s="415" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="401"/>
-      <c r="D12" s="401"/>
-      <c r="E12" s="401"/>
-      <c r="F12" s="401"/>
-      <c r="G12" s="401"/>
-      <c r="H12" s="401"/>
-      <c r="I12" s="401"/>
-      <c r="J12" s="401"/>
-      <c r="K12" s="401"/>
-      <c r="L12" s="401"/>
+      <c r="C12" s="415"/>
+      <c r="D12" s="415"/>
+      <c r="E12" s="415"/>
+      <c r="F12" s="415"/>
+      <c r="G12" s="415"/>
+      <c r="H12" s="415"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="415"/>
+      <c r="K12" s="415"/>
+      <c r="L12" s="415"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="376"/>
@@ -29473,16 +29476,16 @@
       <c r="C14" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="407" t="s">
+      <c r="D14" s="416" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="407"/>
-      <c r="F14" s="407"/>
-      <c r="G14" s="407"/>
-      <c r="H14" s="407"/>
-      <c r="I14" s="407"/>
-      <c r="J14" s="407"/>
-      <c r="K14" s="407"/>
+      <c r="E14" s="416"/>
+      <c r="F14" s="416"/>
+      <c r="G14" s="416"/>
+      <c r="H14" s="416"/>
+      <c r="I14" s="416"/>
+      <c r="J14" s="416"/>
+      <c r="K14" s="416"/>
       <c r="L14" s="224" t="s">
         <v>61</v>
       </c>
@@ -29494,16 +29497,16 @@
       <c r="C15" s="372" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="394" t="s">
+      <c r="D15" s="395" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="394"/>
-      <c r="F15" s="394"/>
-      <c r="G15" s="394"/>
-      <c r="H15" s="394"/>
-      <c r="I15" s="394"/>
-      <c r="J15" s="394"/>
-      <c r="K15" s="394"/>
+      <c r="E15" s="395"/>
+      <c r="F15" s="395"/>
+      <c r="G15" s="395"/>
+      <c r="H15" s="395"/>
+      <c r="I15" s="395"/>
+      <c r="J15" s="395"/>
+      <c r="K15" s="395"/>
       <c r="L15" s="52" t="s">
         <v>65</v>
       </c>
@@ -29515,16 +29518,16 @@
       <c r="C16" s="372" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="394" t="s">
+      <c r="D16" s="395" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="394"/>
-      <c r="F16" s="394"/>
-      <c r="G16" s="394"/>
-      <c r="H16" s="394"/>
-      <c r="I16" s="394"/>
-      <c r="J16" s="394"/>
-      <c r="K16" s="394"/>
+      <c r="E16" s="395"/>
+      <c r="F16" s="395"/>
+      <c r="G16" s="395"/>
+      <c r="H16" s="395"/>
+      <c r="I16" s="395"/>
+      <c r="J16" s="395"/>
+      <c r="K16" s="395"/>
       <c r="L16" s="52" t="s">
         <v>69</v>
       </c>
@@ -29536,43 +29539,43 @@
       <c r="C17" s="372" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="395" t="s">
+      <c r="D17" s="394" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="395"/>
-      <c r="F17" s="395"/>
-      <c r="G17" s="395"/>
-      <c r="H17" s="395"/>
-      <c r="I17" s="395"/>
-      <c r="J17" s="395"/>
-      <c r="K17" s="395"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="394"/>
+      <c r="G17" s="394"/>
+      <c r="H17" s="394"/>
+      <c r="I17" s="394"/>
+      <c r="J17" s="394"/>
+      <c r="K17" s="394"/>
       <c r="L17" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="38.25" customHeight="1">
-      <c r="B18" s="402" t="s">
+      <c r="B18" s="407" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="234" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="395" t="s">
+      <c r="D18" s="394" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="395"/>
-      <c r="F18" s="395"/>
-      <c r="G18" s="395"/>
-      <c r="H18" s="395"/>
-      <c r="I18" s="395"/>
-      <c r="J18" s="395"/>
-      <c r="K18" s="395"/>
+      <c r="E18" s="394"/>
+      <c r="F18" s="394"/>
+      <c r="G18" s="394"/>
+      <c r="H18" s="394"/>
+      <c r="I18" s="394"/>
+      <c r="J18" s="394"/>
+      <c r="K18" s="394"/>
       <c r="L18" s="52" t="s">
         <v>1679</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="403"/>
+      <c r="B19" s="409"/>
       <c r="C19" s="233" t="s">
         <v>77</v>
       </c>
@@ -29597,16 +29600,16 @@
       <c r="C20" s="372" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="394" t="s">
+      <c r="D20" s="395" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="394"/>
-      <c r="F20" s="394"/>
-      <c r="G20" s="394"/>
-      <c r="H20" s="394"/>
-      <c r="I20" s="394"/>
-      <c r="J20" s="394"/>
-      <c r="K20" s="394"/>
+      <c r="E20" s="395"/>
+      <c r="F20" s="395"/>
+      <c r="G20" s="395"/>
+      <c r="H20" s="395"/>
+      <c r="I20" s="395"/>
+      <c r="J20" s="395"/>
+      <c r="K20" s="395"/>
       <c r="L20" s="52" t="s">
         <v>82</v>
       </c>
@@ -29751,16 +29754,16 @@
       <c r="C28" s="233" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="396" t="s">
+      <c r="D28" s="410" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="397"/>
-      <c r="F28" s="397"/>
-      <c r="G28" s="397"/>
-      <c r="H28" s="397"/>
-      <c r="I28" s="397"/>
-      <c r="J28" s="397"/>
-      <c r="K28" s="398"/>
+      <c r="E28" s="411"/>
+      <c r="F28" s="411"/>
+      <c r="G28" s="411"/>
+      <c r="H28" s="411"/>
+      <c r="I28" s="411"/>
+      <c r="J28" s="411"/>
+      <c r="K28" s="412"/>
       <c r="L28" s="378" t="s">
         <v>105</v>
       </c>
@@ -29772,16 +29775,16 @@
       <c r="C29" s="372" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="395" t="s">
+      <c r="D29" s="394" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="395"/>
-      <c r="F29" s="395"/>
-      <c r="G29" s="395"/>
-      <c r="H29" s="395"/>
-      <c r="I29" s="395"/>
-      <c r="J29" s="395"/>
-      <c r="K29" s="395"/>
+      <c r="E29" s="394"/>
+      <c r="F29" s="394"/>
+      <c r="G29" s="394"/>
+      <c r="H29" s="394"/>
+      <c r="I29" s="394"/>
+      <c r="J29" s="394"/>
+      <c r="K29" s="394"/>
       <c r="L29" s="52" t="s">
         <v>109</v>
       </c>
@@ -29793,170 +29796,170 @@
       <c r="C30" s="372" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="395" t="s">
+      <c r="D30" s="394" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="395"/>
-      <c r="F30" s="395"/>
-      <c r="G30" s="395"/>
-      <c r="H30" s="395"/>
-      <c r="I30" s="395"/>
-      <c r="J30" s="395"/>
-      <c r="K30" s="395"/>
+      <c r="E30" s="394"/>
+      <c r="F30" s="394"/>
+      <c r="G30" s="394"/>
+      <c r="H30" s="394"/>
+      <c r="I30" s="394"/>
+      <c r="J30" s="394"/>
+      <c r="K30" s="394"/>
       <c r="L30" s="52" t="s">
         <v>1681</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="46.5" customHeight="1">
-      <c r="B31" s="413" t="s">
+      <c r="B31" s="408" t="s">
         <v>113</v>
       </c>
       <c r="C31" s="233" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="394" t="s">
+      <c r="D31" s="395" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="394"/>
-      <c r="F31" s="394"/>
-      <c r="G31" s="394"/>
-      <c r="H31" s="394"/>
-      <c r="I31" s="394"/>
-      <c r="J31" s="394"/>
-      <c r="K31" s="394"/>
+      <c r="E31" s="395"/>
+      <c r="F31" s="395"/>
+      <c r="G31" s="395"/>
+      <c r="H31" s="395"/>
+      <c r="I31" s="395"/>
+      <c r="J31" s="395"/>
+      <c r="K31" s="395"/>
       <c r="L31" s="52" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="48">
-      <c r="B32" s="413"/>
+      <c r="B32" s="408"/>
       <c r="C32" s="233" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="394" t="s">
+      <c r="D32" s="395" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="394"/>
-      <c r="F32" s="394"/>
-      <c r="G32" s="394"/>
-      <c r="H32" s="394"/>
-      <c r="I32" s="394"/>
-      <c r="J32" s="394"/>
-      <c r="K32" s="394"/>
+      <c r="E32" s="395"/>
+      <c r="F32" s="395"/>
+      <c r="G32" s="395"/>
+      <c r="H32" s="395"/>
+      <c r="I32" s="395"/>
+      <c r="J32" s="395"/>
+      <c r="K32" s="395"/>
       <c r="L32" s="379" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B33" s="413"/>
+      <c r="B33" s="408"/>
       <c r="C33" s="233" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="394" t="s">
+      <c r="D33" s="395" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="394"/>
-      <c r="F33" s="394"/>
-      <c r="G33" s="394"/>
-      <c r="H33" s="394"/>
-      <c r="I33" s="394"/>
-      <c r="J33" s="394"/>
-      <c r="K33" s="394"/>
+      <c r="E33" s="395"/>
+      <c r="F33" s="395"/>
+      <c r="G33" s="395"/>
+      <c r="H33" s="395"/>
+      <c r="I33" s="395"/>
+      <c r="J33" s="395"/>
+      <c r="K33" s="395"/>
       <c r="L33" s="52" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B34" s="413"/>
+      <c r="B34" s="408"/>
       <c r="C34" s="233" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="394" t="s">
+      <c r="D34" s="395" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="394"/>
-      <c r="F34" s="394"/>
-      <c r="G34" s="394"/>
-      <c r="H34" s="394"/>
-      <c r="I34" s="394"/>
-      <c r="J34" s="394"/>
-      <c r="K34" s="394"/>
+      <c r="E34" s="395"/>
+      <c r="F34" s="395"/>
+      <c r="G34" s="395"/>
+      <c r="H34" s="395"/>
+      <c r="I34" s="395"/>
+      <c r="J34" s="395"/>
+      <c r="K34" s="395"/>
       <c r="L34" s="52" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B35" s="413"/>
+      <c r="B35" s="408"/>
       <c r="C35" s="233" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="394" t="s">
+      <c r="D35" s="395" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="394"/>
-      <c r="F35" s="394"/>
-      <c r="G35" s="394"/>
-      <c r="H35" s="394"/>
-      <c r="I35" s="394"/>
-      <c r="J35" s="394"/>
-      <c r="K35" s="394"/>
+      <c r="E35" s="395"/>
+      <c r="F35" s="395"/>
+      <c r="G35" s="395"/>
+      <c r="H35" s="395"/>
+      <c r="I35" s="395"/>
+      <c r="J35" s="395"/>
+      <c r="K35" s="395"/>
       <c r="L35" s="378" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B36" s="413"/>
+      <c r="B36" s="408"/>
       <c r="C36" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="394" t="s">
+      <c r="D36" s="395" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="394"/>
-      <c r="F36" s="394"/>
-      <c r="G36" s="394"/>
-      <c r="H36" s="394"/>
-      <c r="I36" s="394"/>
-      <c r="J36" s="394"/>
-      <c r="K36" s="394"/>
+      <c r="E36" s="395"/>
+      <c r="F36" s="395"/>
+      <c r="G36" s="395"/>
+      <c r="H36" s="395"/>
+      <c r="I36" s="395"/>
+      <c r="J36" s="395"/>
+      <c r="K36" s="395"/>
       <c r="L36" s="52" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="31.5" customHeight="1">
-      <c r="B37" s="413"/>
+      <c r="B37" s="408"/>
       <c r="C37" s="233" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="395" t="s">
+      <c r="D37" s="394" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="395"/>
-      <c r="F37" s="395"/>
-      <c r="G37" s="395"/>
-      <c r="H37" s="395"/>
-      <c r="I37" s="395"/>
-      <c r="J37" s="395"/>
-      <c r="K37" s="395"/>
+      <c r="E37" s="394"/>
+      <c r="F37" s="394"/>
+      <c r="G37" s="394"/>
+      <c r="H37" s="394"/>
+      <c r="I37" s="394"/>
+      <c r="J37" s="394"/>
+      <c r="K37" s="394"/>
       <c r="L37" s="52" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B38" s="403"/>
+      <c r="B38" s="409"/>
       <c r="C38" s="233" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="394" t="s">
+      <c r="D38" s="395" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="394"/>
-      <c r="F38" s="394"/>
-      <c r="G38" s="394"/>
-      <c r="H38" s="394"/>
-      <c r="I38" s="394"/>
-      <c r="J38" s="394"/>
-      <c r="K38" s="394"/>
+      <c r="E38" s="395"/>
+      <c r="F38" s="395"/>
+      <c r="G38" s="395"/>
+      <c r="H38" s="395"/>
+      <c r="I38" s="395"/>
+      <c r="J38" s="395"/>
+      <c r="K38" s="395"/>
       <c r="L38" s="52" t="s">
         <v>102</v>
       </c>
@@ -29968,16 +29971,16 @@
       <c r="C39" s="372" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="395" t="s">
+      <c r="D39" s="394" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="395"/>
-      <c r="F39" s="395"/>
-      <c r="G39" s="395"/>
-      <c r="H39" s="395"/>
-      <c r="I39" s="395"/>
-      <c r="J39" s="395"/>
-      <c r="K39" s="395"/>
+      <c r="E39" s="394"/>
+      <c r="F39" s="394"/>
+      <c r="G39" s="394"/>
+      <c r="H39" s="394"/>
+      <c r="I39" s="394"/>
+      <c r="J39" s="394"/>
+      <c r="K39" s="394"/>
       <c r="L39" s="52" t="s">
         <v>1682</v>
       </c>
@@ -29989,233 +29992,233 @@
       <c r="C40" s="372" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="395" t="s">
+      <c r="D40" s="394" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="395"/>
-      <c r="F40" s="395"/>
-      <c r="G40" s="395"/>
-      <c r="H40" s="395"/>
-      <c r="I40" s="395"/>
-      <c r="J40" s="395"/>
-      <c r="K40" s="395"/>
+      <c r="E40" s="394"/>
+      <c r="F40" s="394"/>
+      <c r="G40" s="394"/>
+      <c r="H40" s="394"/>
+      <c r="I40" s="394"/>
+      <c r="J40" s="394"/>
+      <c r="K40" s="394"/>
       <c r="L40" s="52" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B41" s="402" t="s">
+      <c r="B41" s="407" t="s">
         <v>144</v>
       </c>
       <c r="C41" s="372" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="394" t="s">
+      <c r="D41" s="395" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="394"/>
-      <c r="F41" s="394"/>
-      <c r="G41" s="394"/>
-      <c r="H41" s="394"/>
-      <c r="I41" s="394"/>
-      <c r="J41" s="394"/>
-      <c r="K41" s="394"/>
+      <c r="E41" s="395"/>
+      <c r="F41" s="395"/>
+      <c r="G41" s="395"/>
+      <c r="H41" s="395"/>
+      <c r="I41" s="395"/>
+      <c r="J41" s="395"/>
+      <c r="K41" s="395"/>
       <c r="L41" s="52" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B42" s="413"/>
+      <c r="B42" s="408"/>
       <c r="C42" s="372" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="394" t="s">
+      <c r="D42" s="395" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="394"/>
-      <c r="F42" s="394"/>
-      <c r="G42" s="394"/>
-      <c r="H42" s="394"/>
-      <c r="I42" s="394"/>
-      <c r="J42" s="394"/>
-      <c r="K42" s="394"/>
+      <c r="E42" s="395"/>
+      <c r="F42" s="395"/>
+      <c r="G42" s="395"/>
+      <c r="H42" s="395"/>
+      <c r="I42" s="395"/>
+      <c r="J42" s="395"/>
+      <c r="K42" s="395"/>
       <c r="L42" s="52" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="48">
-      <c r="B43" s="413"/>
+      <c r="B43" s="408"/>
       <c r="C43" s="372" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="394" t="s">
+      <c r="D43" s="395" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="394"/>
-      <c r="F43" s="394"/>
-      <c r="G43" s="394"/>
-      <c r="H43" s="394"/>
-      <c r="I43" s="394"/>
-      <c r="J43" s="394"/>
-      <c r="K43" s="394"/>
+      <c r="E43" s="395"/>
+      <c r="F43" s="395"/>
+      <c r="G43" s="395"/>
+      <c r="H43" s="395"/>
+      <c r="I43" s="395"/>
+      <c r="J43" s="395"/>
+      <c r="K43" s="395"/>
       <c r="L43" s="52" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="48">
-      <c r="B44" s="403"/>
+      <c r="B44" s="409"/>
       <c r="C44" s="372" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="394" t="s">
+      <c r="D44" s="395" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="394"/>
-      <c r="F44" s="394"/>
-      <c r="G44" s="394"/>
-      <c r="H44" s="394"/>
-      <c r="I44" s="394"/>
-      <c r="J44" s="394"/>
-      <c r="K44" s="394"/>
+      <c r="E44" s="395"/>
+      <c r="F44" s="395"/>
+      <c r="G44" s="395"/>
+      <c r="H44" s="395"/>
+      <c r="I44" s="395"/>
+      <c r="J44" s="395"/>
+      <c r="K44" s="395"/>
       <c r="L44" s="52" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="20.25" customHeight="1">
-      <c r="B45" s="412" t="s">
+      <c r="B45" s="399" t="s">
         <v>157</v>
       </c>
       <c r="C45" s="372" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="394" t="s">
+      <c r="D45" s="395" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="394"/>
-      <c r="F45" s="394"/>
-      <c r="G45" s="394"/>
-      <c r="H45" s="394"/>
-      <c r="I45" s="394"/>
-      <c r="J45" s="394"/>
-      <c r="K45" s="394"/>
+      <c r="E45" s="395"/>
+      <c r="F45" s="395"/>
+      <c r="G45" s="395"/>
+      <c r="H45" s="395"/>
+      <c r="I45" s="395"/>
+      <c r="J45" s="395"/>
+      <c r="K45" s="395"/>
       <c r="L45" s="52" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="41.25" customHeight="1">
-      <c r="B46" s="412"/>
+      <c r="B46" s="399"/>
       <c r="C46" s="372" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="394" t="s">
+      <c r="D46" s="395" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="394"/>
-      <c r="F46" s="394"/>
-      <c r="G46" s="394"/>
-      <c r="H46" s="394"/>
-      <c r="I46" s="394"/>
-      <c r="J46" s="394"/>
-      <c r="K46" s="394"/>
+      <c r="E46" s="395"/>
+      <c r="F46" s="395"/>
+      <c r="G46" s="395"/>
+      <c r="H46" s="395"/>
+      <c r="I46" s="395"/>
+      <c r="J46" s="395"/>
+      <c r="K46" s="395"/>
       <c r="L46" s="52" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="46.5" customHeight="1">
-      <c r="B47" s="412" t="s">
+      <c r="B47" s="399" t="s">
         <v>164</v>
       </c>
       <c r="C47" s="372" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="400" t="s">
+      <c r="D47" s="414" t="s">
         <v>166</v>
       </c>
-      <c r="E47" s="400"/>
-      <c r="F47" s="400"/>
-      <c r="G47" s="400"/>
-      <c r="H47" s="400"/>
-      <c r="I47" s="400"/>
-      <c r="J47" s="400"/>
-      <c r="K47" s="400"/>
+      <c r="E47" s="414"/>
+      <c r="F47" s="414"/>
+      <c r="G47" s="414"/>
+      <c r="H47" s="414"/>
+      <c r="I47" s="414"/>
+      <c r="J47" s="414"/>
+      <c r="K47" s="414"/>
       <c r="L47" s="52" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B48" s="412"/>
+      <c r="B48" s="399"/>
       <c r="C48" s="372" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="400" t="s">
+      <c r="D48" s="414" t="s">
         <v>169</v>
       </c>
-      <c r="E48" s="400"/>
-      <c r="F48" s="400"/>
-      <c r="G48" s="400"/>
-      <c r="H48" s="400"/>
-      <c r="I48" s="400"/>
-      <c r="J48" s="400"/>
-      <c r="K48" s="400"/>
+      <c r="E48" s="414"/>
+      <c r="F48" s="414"/>
+      <c r="G48" s="414"/>
+      <c r="H48" s="414"/>
+      <c r="I48" s="414"/>
+      <c r="J48" s="414"/>
+      <c r="K48" s="414"/>
       <c r="L48" s="52" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:233" ht="42.75" customHeight="1">
-      <c r="B49" s="412"/>
+      <c r="B49" s="399"/>
       <c r="C49" s="372" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="393" t="s">
+      <c r="D49" s="417" t="s">
         <v>172</v>
       </c>
-      <c r="E49" s="393"/>
-      <c r="F49" s="393"/>
-      <c r="G49" s="393"/>
-      <c r="H49" s="393"/>
-      <c r="I49" s="393"/>
-      <c r="J49" s="393"/>
-      <c r="K49" s="393"/>
+      <c r="E49" s="417"/>
+      <c r="F49" s="417"/>
+      <c r="G49" s="417"/>
+      <c r="H49" s="417"/>
+      <c r="I49" s="417"/>
+      <c r="J49" s="417"/>
+      <c r="K49" s="417"/>
       <c r="L49" s="52" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:233" ht="48">
-      <c r="B50" s="412" t="s">
+      <c r="B50" s="399" t="s">
         <v>174</v>
       </c>
       <c r="C50" s="372" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="394" t="s">
+      <c r="D50" s="395" t="s">
         <v>176</v>
       </c>
-      <c r="E50" s="394"/>
-      <c r="F50" s="394"/>
-      <c r="G50" s="394"/>
-      <c r="H50" s="394"/>
-      <c r="I50" s="394"/>
-      <c r="J50" s="394"/>
-      <c r="K50" s="394"/>
+      <c r="E50" s="395"/>
+      <c r="F50" s="395"/>
+      <c r="G50" s="395"/>
+      <c r="H50" s="395"/>
+      <c r="I50" s="395"/>
+      <c r="J50" s="395"/>
+      <c r="K50" s="395"/>
       <c r="L50" s="52" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:233" ht="48">
-      <c r="B51" s="412"/>
+      <c r="B51" s="399"/>
       <c r="C51" s="372" t="s">
         <v>178</v>
       </c>
-      <c r="D51" s="394" t="s">
+      <c r="D51" s="395" t="s">
         <v>179</v>
       </c>
-      <c r="E51" s="394"/>
-      <c r="F51" s="394"/>
-      <c r="G51" s="394"/>
-      <c r="H51" s="394"/>
-      <c r="I51" s="394"/>
-      <c r="J51" s="394"/>
-      <c r="K51" s="394"/>
+      <c r="E51" s="395"/>
+      <c r="F51" s="395"/>
+      <c r="G51" s="395"/>
+      <c r="H51" s="395"/>
+      <c r="I51" s="395"/>
+      <c r="J51" s="395"/>
+      <c r="K51" s="395"/>
       <c r="L51" s="52" t="s">
         <v>180</v>
       </c>
@@ -30227,35 +30230,35 @@
       <c r="C52" s="372" t="s">
         <v>182</v>
       </c>
-      <c r="D52" s="394" t="s">
+      <c r="D52" s="395" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="394"/>
-      <c r="F52" s="394"/>
-      <c r="G52" s="394"/>
-      <c r="H52" s="394"/>
-      <c r="I52" s="394"/>
-      <c r="J52" s="394"/>
-      <c r="K52" s="394"/>
+      <c r="E52" s="395"/>
+      <c r="F52" s="395"/>
+      <c r="G52" s="395"/>
+      <c r="H52" s="395"/>
+      <c r="I52" s="395"/>
+      <c r="J52" s="395"/>
+      <c r="K52" s="395"/>
       <c r="L52" s="52" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:233" s="381" customFormat="1" ht="17.25" customHeight="1">
       <c r="A53" s="380"/>
-      <c r="B53" s="415" t="s">
+      <c r="B53" s="396" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="416"/>
-      <c r="D53" s="416"/>
-      <c r="E53" s="416"/>
-      <c r="F53" s="416"/>
-      <c r="G53" s="416"/>
-      <c r="H53" s="416"/>
-      <c r="I53" s="416"/>
-      <c r="J53" s="416"/>
-      <c r="K53" s="416"/>
-      <c r="L53" s="417"/>
+      <c r="C53" s="397"/>
+      <c r="D53" s="397"/>
+      <c r="E53" s="397"/>
+      <c r="F53" s="397"/>
+      <c r="G53" s="397"/>
+      <c r="H53" s="397"/>
+      <c r="I53" s="397"/>
+      <c r="J53" s="397"/>
+      <c r="K53" s="397"/>
+      <c r="L53" s="398"/>
       <c r="M53" s="380"/>
       <c r="N53" s="380"/>
       <c r="O53" s="380"/>
@@ -30485,16 +30488,16 @@
       <c r="C54" s="225" t="s">
         <v>187</v>
       </c>
-      <c r="D54" s="394" t="s">
+      <c r="D54" s="395" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="394"/>
-      <c r="F54" s="394"/>
-      <c r="G54" s="394"/>
-      <c r="H54" s="394"/>
-      <c r="I54" s="394"/>
-      <c r="J54" s="394"/>
-      <c r="K54" s="394"/>
+      <c r="E54" s="395"/>
+      <c r="F54" s="395"/>
+      <c r="G54" s="395"/>
+      <c r="H54" s="395"/>
+      <c r="I54" s="395"/>
+      <c r="J54" s="395"/>
+      <c r="K54" s="395"/>
       <c r="L54" s="52" t="s">
         <v>189</v>
       </c>
@@ -30727,16 +30730,16 @@
       <c r="C55" s="226" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="395" t="s">
+      <c r="D55" s="394" t="s">
         <v>192</v>
       </c>
-      <c r="E55" s="395"/>
-      <c r="F55" s="395"/>
-      <c r="G55" s="395"/>
-      <c r="H55" s="395"/>
-      <c r="I55" s="395"/>
-      <c r="J55" s="395"/>
-      <c r="K55" s="395"/>
+      <c r="E55" s="394"/>
+      <c r="F55" s="394"/>
+      <c r="G55" s="394"/>
+      <c r="H55" s="394"/>
+      <c r="I55" s="394"/>
+      <c r="J55" s="394"/>
+      <c r="K55" s="394"/>
       <c r="L55" s="52" t="s">
         <v>193</v>
       </c>
@@ -30748,16 +30751,16 @@
       <c r="C56" s="226" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="394" t="s">
+      <c r="D56" s="395" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="394"/>
-      <c r="F56" s="394"/>
-      <c r="G56" s="394"/>
-      <c r="H56" s="394"/>
-      <c r="I56" s="394"/>
-      <c r="J56" s="394"/>
-      <c r="K56" s="394"/>
+      <c r="E56" s="395"/>
+      <c r="F56" s="395"/>
+      <c r="G56" s="395"/>
+      <c r="H56" s="395"/>
+      <c r="I56" s="395"/>
+      <c r="J56" s="395"/>
+      <c r="K56" s="395"/>
       <c r="L56" s="52" t="s">
         <v>197</v>
       </c>
@@ -30769,16 +30772,16 @@
       <c r="C57" s="227" t="s">
         <v>199</v>
       </c>
-      <c r="D57" s="414" t="s">
+      <c r="D57" s="393" t="s">
         <v>200</v>
       </c>
-      <c r="E57" s="414"/>
-      <c r="F57" s="414"/>
-      <c r="G57" s="414"/>
-      <c r="H57" s="414"/>
-      <c r="I57" s="414"/>
-      <c r="J57" s="414"/>
-      <c r="K57" s="414"/>
+      <c r="E57" s="393"/>
+      <c r="F57" s="393"/>
+      <c r="G57" s="393"/>
+      <c r="H57" s="393"/>
+      <c r="I57" s="393"/>
+      <c r="J57" s="393"/>
+      <c r="K57" s="393"/>
       <c r="L57" s="52" t="s">
         <v>201</v>
       </c>
@@ -30790,33 +30793,33 @@
       <c r="C58" s="227" t="s">
         <v>203</v>
       </c>
-      <c r="D58" s="414" t="s">
+      <c r="D58" s="393" t="s">
         <v>204</v>
       </c>
-      <c r="E58" s="414"/>
-      <c r="F58" s="414"/>
-      <c r="G58" s="414"/>
-      <c r="H58" s="414"/>
-      <c r="I58" s="414"/>
-      <c r="J58" s="414"/>
-      <c r="K58" s="414"/>
+      <c r="E58" s="393"/>
+      <c r="F58" s="393"/>
+      <c r="G58" s="393"/>
+      <c r="H58" s="393"/>
+      <c r="I58" s="393"/>
+      <c r="J58" s="393"/>
+      <c r="K58" s="393"/>
       <c r="L58" s="52" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:233" ht="33.75" customHeight="1">
-      <c r="B60" s="408" t="s">
+      <c r="B60" s="400" t="s">
         <v>1684</v>
       </c>
-      <c r="C60" s="409"/>
-      <c r="D60" s="409"/>
-      <c r="E60" s="409"/>
-      <c r="F60" s="410" t="s">
+      <c r="C60" s="401"/>
+      <c r="D60" s="401"/>
+      <c r="E60" s="401"/>
+      <c r="F60" s="402" t="s">
         <v>1685</v>
       </c>
-      <c r="G60" s="410"/>
-      <c r="H60" s="410"/>
-      <c r="I60" s="411"/>
+      <c r="G60" s="402"/>
+      <c r="H60" s="402"/>
+      <c r="I60" s="403"/>
       <c r="K60" s="375"/>
     </row>
     <row r="61" spans="1:233" ht="16">
@@ -30845,23 +30848,28 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D58:K58"/>
-    <mergeCell ref="D55:K55"/>
-    <mergeCell ref="D54:K54"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D57:K57"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="B53:L53"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D43:K43"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D20:K20"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="B60:E60"/>
     <mergeCell ref="F60:I60"/>
@@ -30878,28 +30886,23 @@
     <mergeCell ref="D32:K32"/>
     <mergeCell ref="D33:K33"/>
     <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="D48:K48"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D43:K43"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D58:K58"/>
+    <mergeCell ref="D55:K55"/>
+    <mergeCell ref="D54:K54"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D57:K57"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F60" r:id="rId1" display="https://creativecommons.org/licenses/by-nc-sa/3.0/igo" xr:uid="{0BC82CEA-2996-4A54-8BDA-926B6454A752}"/>
@@ -31021,10 +31024,10 @@
       <c r="J4" s="301" t="s">
         <v>1124</v>
       </c>
-      <c r="K4" s="580" t="s">
+      <c r="K4" s="579" t="s">
         <v>1125</v>
       </c>
-      <c r="L4" s="580" t="s">
+      <c r="L4" s="579" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -40393,16 +40396,16 @@
     <row r="7" spans="1:7" ht="32">
       <c r="A7" s="312"/>
       <c r="B7" s="310" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="385" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="313" t="s">
         <v>229</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="59" t="s">
-        <v>231</v>
+      <c r="E7" s="391" t="s">
+        <v>1688</v>
       </c>
       <c r="F7" s="313" t="s">
         <v>227</v>
@@ -40412,16 +40415,16 @@
     <row r="8" spans="1:7" ht="32">
       <c r="A8" s="312"/>
       <c r="B8" s="310" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="313" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="385" t="s">
         <v>229</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="391" t="s">
-        <v>1686</v>
+      <c r="E8" s="59" t="s">
+        <v>231</v>
       </c>
       <c r="F8" s="313" t="s">
         <v>227</v>
@@ -40908,13 +40911,13 @@
       <c r="B3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="447" t="s">
+      <c r="C3" s="438" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="448"/>
-      <c r="E3" s="448"/>
-      <c r="F3" s="448"/>
-      <c r="G3" s="448"/>
+      <c r="D3" s="439"/>
+      <c r="E3" s="439"/>
+      <c r="F3" s="439"/>
+      <c r="G3" s="439"/>
       <c r="H3" s="259"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1">
@@ -40933,17 +40936,17 @@
     </row>
     <row r="5" spans="1:8" s="72" customFormat="1" ht="16">
       <c r="A5" s="315"/>
-      <c r="B5" s="449" t="s">
+      <c r="B5" s="440" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="450"/>
+      <c r="C5" s="441"/>
       <c r="D5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="445" t="s">
+      <c r="E5" s="443" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="446"/>
+      <c r="F5" s="444"/>
       <c r="G5" s="283" t="s">
         <v>221</v>
       </c>
@@ -40953,17 +40956,17 @@
     </row>
     <row r="6" spans="1:8" ht="64">
       <c r="A6" s="312"/>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="434" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="438"/>
+      <c r="C6" s="435"/>
       <c r="D6" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="437" t="s">
+      <c r="E6" s="434" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="438"/>
+      <c r="F6" s="435"/>
       <c r="G6" s="74" t="s">
         <v>257</v>
       </c>
@@ -40973,17 +40976,17 @@
     </row>
     <row r="7" spans="1:8" ht="64">
       <c r="A7" s="312"/>
-      <c r="B7" s="440" t="s">
+      <c r="B7" s="436" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="441"/>
+      <c r="C7" s="437"/>
       <c r="D7" s="274" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="437" t="s">
+      <c r="E7" s="434" t="s">
         <v>256</v>
       </c>
-      <c r="F7" s="438"/>
+      <c r="F7" s="435"/>
       <c r="G7" s="58" t="s">
         <v>261</v>
       </c>
@@ -40993,17 +40996,17 @@
     </row>
     <row r="8" spans="1:8" ht="48">
       <c r="A8" s="312"/>
-      <c r="B8" s="437" t="s">
+      <c r="B8" s="434" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="438"/>
+      <c r="C8" s="435"/>
       <c r="D8" s="274" t="s">
         <v>264</v>
       </c>
-      <c r="E8" s="437" t="s">
+      <c r="E8" s="434" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="438"/>
+      <c r="F8" s="435"/>
       <c r="G8" s="58" t="s">
         <v>265</v>
       </c>
@@ -41013,17 +41016,17 @@
     </row>
     <row r="9" spans="1:8" ht="64">
       <c r="A9" s="312"/>
-      <c r="B9" s="440" t="s">
+      <c r="B9" s="436" t="s">
         <v>267</v>
       </c>
-      <c r="C9" s="441"/>
+      <c r="C9" s="437"/>
       <c r="D9" s="274" t="s">
         <v>268</v>
       </c>
-      <c r="E9" s="437" t="s">
+      <c r="E9" s="434" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="438"/>
+      <c r="F9" s="435"/>
       <c r="G9" s="58" t="s">
         <v>269</v>
       </c>
@@ -41033,17 +41036,17 @@
     </row>
     <row r="10" spans="1:8" ht="48">
       <c r="A10" s="312"/>
-      <c r="B10" s="437" t="s">
+      <c r="B10" s="434" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="438"/>
+      <c r="C10" s="435"/>
       <c r="D10" s="274" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="437" t="s">
+      <c r="E10" s="434" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="438"/>
+      <c r="F10" s="435"/>
       <c r="G10" s="58" t="s">
         <v>272</v>
       </c>
@@ -41053,17 +41056,17 @@
     </row>
     <row r="11" spans="1:8" ht="49.5" customHeight="1">
       <c r="A11" s="312"/>
-      <c r="B11" s="440" t="s">
+      <c r="B11" s="436" t="s">
         <v>274</v>
       </c>
-      <c r="C11" s="441"/>
+      <c r="C11" s="437"/>
       <c r="D11" s="177" t="s">
         <v>275</v>
       </c>
-      <c r="E11" s="437" t="s">
+      <c r="E11" s="434" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="438"/>
+      <c r="F11" s="435"/>
       <c r="G11" s="58" t="s">
         <v>276</v>
       </c>
@@ -41085,10 +41088,10 @@
       <c r="E12" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="F12" s="444" t="s">
+      <c r="F12" s="442" t="s">
         <v>280</v>
       </c>
-      <c r="G12" s="444" t="s">
+      <c r="G12" s="442" t="s">
         <v>281</v>
       </c>
       <c r="H12" s="55" t="s">
@@ -41109,8 +41112,8 @@
       <c r="E13" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="F13" s="444"/>
-      <c r="G13" s="444"/>
+      <c r="F13" s="442"/>
+      <c r="G13" s="442"/>
       <c r="H13" s="55" t="s">
         <v>282</v>
       </c>
@@ -41129,8 +41132,8 @@
       <c r="E14" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="F14" s="444"/>
-      <c r="G14" s="444"/>
+      <c r="F14" s="442"/>
+      <c r="G14" s="442"/>
       <c r="H14" s="55"/>
     </row>
     <row r="15" spans="1:8" ht="80">
@@ -41147,23 +41150,23 @@
       <c r="E15" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="F15" s="444"/>
-      <c r="G15" s="444"/>
+      <c r="F15" s="442"/>
+      <c r="G15" s="442"/>
       <c r="H15" s="55"/>
     </row>
     <row r="16" spans="1:8" ht="48">
       <c r="A16" s="312"/>
-      <c r="B16" s="437" t="s">
+      <c r="B16" s="434" t="s">
         <v>289</v>
       </c>
-      <c r="C16" s="438"/>
+      <c r="C16" s="435"/>
       <c r="D16" s="177" t="s">
         <v>290</v>
       </c>
-      <c r="E16" s="437" t="s">
+      <c r="E16" s="434" t="s">
         <v>256</v>
       </c>
-      <c r="F16" s="438"/>
+      <c r="F16" s="435"/>
       <c r="G16" s="58" t="s">
         <v>291</v>
       </c>
@@ -41172,17 +41175,17 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="48">
-      <c r="B17" s="440" t="s">
+      <c r="B17" s="436" t="s">
         <v>293</v>
       </c>
-      <c r="C17" s="441"/>
+      <c r="C17" s="437"/>
       <c r="D17" s="177" t="s">
         <v>294</v>
       </c>
-      <c r="E17" s="437" t="s">
+      <c r="E17" s="434" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="438"/>
+      <c r="F17" s="435"/>
       <c r="G17" s="58" t="s">
         <v>295</v>
       </c>
@@ -41201,11 +41204,11 @@
       <c r="D18" s="178" t="s">
         <v>298</v>
       </c>
-      <c r="E18" s="437" t="s">
+      <c r="E18" s="434" t="s">
         <v>256</v>
       </c>
-      <c r="F18" s="438"/>
-      <c r="G18" s="443" t="s">
+      <c r="F18" s="435"/>
+      <c r="G18" s="445" t="s">
         <v>299</v>
       </c>
       <c r="H18" s="310" t="s">
@@ -41225,11 +41228,11 @@
       <c r="D19" s="178" t="s">
         <v>298</v>
       </c>
-      <c r="E19" s="437" t="s">
+      <c r="E19" s="434" t="s">
         <v>256</v>
       </c>
-      <c r="F19" s="438"/>
-      <c r="G19" s="443"/>
+      <c r="F19" s="435"/>
+      <c r="G19" s="445"/>
       <c r="H19" s="310" t="s">
         <v>300</v>
       </c>
@@ -41245,11 +41248,11 @@
       <c r="D20" s="178" t="s">
         <v>298</v>
       </c>
-      <c r="E20" s="437" t="s">
+      <c r="E20" s="434" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="438"/>
-      <c r="G20" s="443"/>
+      <c r="F20" s="435"/>
+      <c r="G20" s="445"/>
       <c r="H20" s="309"/>
       <c r="I20" s="304"/>
     </row>
@@ -41263,19 +41266,19 @@
       <c r="D21" s="178" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="437" t="s">
+      <c r="E21" s="434" t="s">
         <v>256</v>
       </c>
-      <c r="F21" s="438"/>
-      <c r="G21" s="443"/>
+      <c r="F21" s="435"/>
+      <c r="G21" s="445"/>
       <c r="H21" s="309"/>
       <c r="I21" s="304"/>
     </row>
     <row r="22" spans="2:9" ht="45" customHeight="1">
-      <c r="B22" s="437" t="s">
+      <c r="B22" s="434" t="s">
         <v>305</v>
       </c>
-      <c r="C22" s="438"/>
+      <c r="C22" s="435"/>
       <c r="D22" s="310" t="s">
         <v>306</v>
       </c>
@@ -41285,7 +41288,7 @@
       <c r="F22" s="310" t="s">
         <v>306</v>
       </c>
-      <c r="G22" s="443" t="s">
+      <c r="G22" s="445" t="s">
         <v>307</v>
       </c>
       <c r="H22" s="110" t="s">
@@ -41294,10 +41297,10 @@
       <c r="I22" s="312"/>
     </row>
     <row r="23" spans="2:9" ht="75" customHeight="1">
-      <c r="B23" s="439" t="s">
+      <c r="B23" s="449" t="s">
         <v>309</v>
       </c>
-      <c r="C23" s="438"/>
+      <c r="C23" s="435"/>
       <c r="D23" s="310" t="s">
         <v>306</v>
       </c>
@@ -41307,17 +41310,17 @@
       <c r="F23" s="310" t="s">
         <v>306</v>
       </c>
-      <c r="G23" s="443"/>
-      <c r="H23" s="434" t="s">
+      <c r="G23" s="445"/>
+      <c r="H23" s="446" t="s">
         <v>310</v>
       </c>
       <c r="I23" s="312"/>
     </row>
     <row r="24" spans="2:9" ht="48">
-      <c r="B24" s="440" t="s">
+      <c r="B24" s="436" t="s">
         <v>311</v>
       </c>
-      <c r="C24" s="441"/>
+      <c r="C24" s="437"/>
       <c r="D24" s="310" t="s">
         <v>306</v>
       </c>
@@ -41327,15 +41330,15 @@
       <c r="F24" s="310" t="s">
         <v>306</v>
       </c>
-      <c r="G24" s="443"/>
-      <c r="H24" s="435"/>
+      <c r="G24" s="445"/>
+      <c r="H24" s="447"/>
       <c r="I24" s="304"/>
     </row>
     <row r="25" spans="2:9" ht="75" customHeight="1">
-      <c r="B25" s="442" t="s">
+      <c r="B25" s="450" t="s">
         <v>312</v>
       </c>
-      <c r="C25" s="441"/>
+      <c r="C25" s="437"/>
       <c r="D25" s="310" t="s">
         <v>306</v>
       </c>
@@ -41345,15 +41348,15 @@
       <c r="F25" s="310" t="s">
         <v>306</v>
       </c>
-      <c r="G25" s="443"/>
-      <c r="H25" s="436"/>
+      <c r="G25" s="445"/>
+      <c r="H25" s="448"/>
       <c r="I25" s="304"/>
     </row>
     <row r="26" spans="2:9" ht="32">
-      <c r="B26" s="437" t="s">
+      <c r="B26" s="434" t="s">
         <v>313</v>
       </c>
-      <c r="C26" s="438"/>
+      <c r="C26" s="435"/>
       <c r="D26" s="274" t="s">
         <v>314</v>
       </c>
@@ -41363,7 +41366,7 @@
       <c r="F26" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="G26" s="443" t="s">
+      <c r="G26" s="445" t="s">
         <v>317</v>
       </c>
       <c r="H26" s="110" t="s">
@@ -41372,10 +41375,10 @@
       <c r="I26" s="304"/>
     </row>
     <row r="27" spans="2:9" ht="32">
-      <c r="B27" s="440" t="s">
+      <c r="B27" s="436" t="s">
         <v>319</v>
       </c>
-      <c r="C27" s="441"/>
+      <c r="C27" s="437"/>
       <c r="D27" s="274" t="s">
         <v>314</v>
       </c>
@@ -41385,7 +41388,7 @@
       <c r="F27" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="G27" s="443"/>
+      <c r="G27" s="445"/>
       <c r="H27" s="309"/>
       <c r="I27" s="304"/>
     </row>
@@ -41403,7 +41406,7 @@
       <c r="F28" s="310" t="s">
         <v>322</v>
       </c>
-      <c r="G28" s="443" t="s">
+      <c r="G28" s="445" t="s">
         <v>323</v>
       </c>
       <c r="H28" s="209" t="s">
@@ -41425,7 +41428,7 @@
       <c r="F29" s="310" t="s">
         <v>322</v>
       </c>
-      <c r="G29" s="443"/>
+      <c r="G29" s="445"/>
       <c r="H29" s="209" t="s">
         <v>326</v>
       </c>
@@ -41445,7 +41448,7 @@
       <c r="F30" s="310" t="s">
         <v>322</v>
       </c>
-      <c r="G30" s="443"/>
+      <c r="G30" s="445"/>
       <c r="H30" s="209"/>
       <c r="I30" s="304"/>
     </row>
@@ -41463,7 +41466,7 @@
       <c r="F31" s="310" t="s">
         <v>322</v>
       </c>
-      <c r="G31" s="443"/>
+      <c r="G31" s="445"/>
       <c r="H31" s="209"/>
       <c r="I31" s="304"/>
     </row>
@@ -41815,14 +41818,21 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="E5:F5"/>
@@ -41838,21 +41848,14 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41919,11 +41922,11 @@
       <c r="B5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="448" t="s">
+      <c r="C5" s="439" t="s">
         <v>361</v>
       </c>
-      <c r="D5" s="448"/>
-      <c r="E5" s="448"/>
+      <c r="D5" s="439"/>
+      <c r="E5" s="439"/>
       <c r="F5" s="312"/>
       <c r="G5" s="304"/>
       <c r="H5" s="304"/>
@@ -43260,10 +43263,10 @@
         <v>474</v>
       </c>
       <c r="D5" s="423"/>
-      <c r="E5" s="448"/>
-      <c r="F5" s="448"/>
-      <c r="G5" s="448"/>
-      <c r="H5" s="448"/>
+      <c r="E5" s="439"/>
+      <c r="F5" s="439"/>
+      <c r="G5" s="439"/>
+      <c r="H5" s="439"/>
       <c r="I5" s="322"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1">
@@ -43281,18 +43284,18 @@
       <c r="I6" s="322"/>
     </row>
     <row r="7" spans="2:9" s="117" customFormat="1" ht="16">
-      <c r="B7" s="449" t="s">
+      <c r="B7" s="440" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="466"/>
-      <c r="D7" s="450"/>
+      <c r="C7" s="478"/>
+      <c r="D7" s="441"/>
       <c r="E7" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="445" t="s">
+      <c r="F7" s="443" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="446"/>
+      <c r="G7" s="444"/>
       <c r="H7" s="283" t="s">
         <v>32</v>
       </c>
@@ -43613,11 +43616,11 @@
     </row>
     <row r="18" spans="1:141" s="117" customFormat="1" ht="16">
       <c r="A18" s="306"/>
-      <c r="B18" s="449" t="s">
+      <c r="B18" s="440" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="466"/>
-      <c r="D18" s="450"/>
+      <c r="C18" s="478"/>
+      <c r="D18" s="441"/>
       <c r="E18" s="61" t="s">
         <v>31</v>
       </c>
@@ -43769,10 +43772,10 @@
       <c r="B19" s="328" t="s">
         <v>502</v>
       </c>
-      <c r="C19" s="482" t="s">
+      <c r="C19" s="465" t="s">
         <v>503</v>
       </c>
-      <c r="D19" s="483"/>
+      <c r="D19" s="467"/>
       <c r="E19" s="313" t="s">
         <v>504</v>
       </c>
@@ -44078,11 +44081,11 @@
     </row>
     <row r="21" spans="1:141" ht="80">
       <c r="A21" s="304"/>
-      <c r="B21" s="482" t="s">
+      <c r="B21" s="465" t="s">
         <v>511</v>
       </c>
-      <c r="C21" s="490"/>
-      <c r="D21" s="483"/>
+      <c r="C21" s="466"/>
+      <c r="D21" s="467"/>
       <c r="E21" s="59" t="s">
         <v>512</v>
       </c>
@@ -44231,11 +44234,11 @@
     </row>
     <row r="22" spans="1:141" ht="32">
       <c r="A22" s="304"/>
-      <c r="B22" s="482" t="s">
+      <c r="B22" s="465" t="s">
         <v>515</v>
       </c>
-      <c r="C22" s="490"/>
-      <c r="D22" s="483"/>
+      <c r="C22" s="466"/>
+      <c r="D22" s="467"/>
       <c r="E22" s="313" t="s">
         <v>516</v>
       </c>
@@ -44387,14 +44390,14 @@
       <c r="B24" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="476" t="s">
+      <c r="C24" s="479" t="s">
         <v>519</v>
       </c>
-      <c r="D24" s="477"/>
-      <c r="E24" s="477"/>
-      <c r="F24" s="477"/>
-      <c r="G24" s="477"/>
-      <c r="H24" s="477"/>
+      <c r="D24" s="480"/>
+      <c r="E24" s="480"/>
+      <c r="F24" s="480"/>
+      <c r="G24" s="480"/>
+      <c r="H24" s="480"/>
       <c r="I24" s="240"/>
       <c r="J24" s="238"/>
       <c r="K24" s="238"/>
@@ -44534,14 +44537,14 @@
       <c r="B25" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="478" t="s">
+      <c r="C25" s="481" t="s">
         <v>520</v>
       </c>
-      <c r="D25" s="479"/>
-      <c r="E25" s="479"/>
-      <c r="F25" s="479"/>
-      <c r="G25" s="479"/>
-      <c r="H25" s="479"/>
+      <c r="D25" s="482"/>
+      <c r="E25" s="482"/>
+      <c r="F25" s="482"/>
+      <c r="G25" s="482"/>
+      <c r="H25" s="482"/>
       <c r="I25" s="240"/>
       <c r="J25" s="238"/>
       <c r="K25" s="238"/>
@@ -44681,14 +44684,14 @@
       <c r="B26" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="480" t="s">
+      <c r="C26" s="483" t="s">
         <v>501</v>
       </c>
-      <c r="D26" s="481"/>
-      <c r="E26" s="481"/>
-      <c r="F26" s="481"/>
-      <c r="G26" s="481"/>
-      <c r="H26" s="481"/>
+      <c r="D26" s="484"/>
+      <c r="E26" s="484"/>
+      <c r="F26" s="484"/>
+      <c r="G26" s="484"/>
+      <c r="H26" s="484"/>
       <c r="I26" s="240"/>
       <c r="J26" s="238"/>
       <c r="K26" s="238"/>
@@ -44825,18 +44828,18 @@
     </row>
     <row r="27" spans="1:141" s="170" customFormat="1" ht="16">
       <c r="A27" s="213"/>
-      <c r="B27" s="449" t="s">
+      <c r="B27" s="440" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="466"/>
-      <c r="D27" s="450"/>
+      <c r="C27" s="478"/>
+      <c r="D27" s="441"/>
       <c r="E27" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="445" t="s">
+      <c r="F27" s="443" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="446"/>
+      <c r="G27" s="444"/>
       <c r="H27" s="283" t="s">
         <v>32</v>
       </c>
@@ -44911,75 +44914,75 @@
       <c r="BW27" s="213"/>
     </row>
     <row r="28" spans="1:141" s="238" customFormat="1" ht="32">
-      <c r="B28" s="482" t="s">
+      <c r="B28" s="465" t="s">
         <v>521</v>
       </c>
-      <c r="C28" s="490"/>
-      <c r="D28" s="483"/>
+      <c r="C28" s="466"/>
+      <c r="D28" s="467"/>
       <c r="E28" s="313" t="s">
         <v>522</v>
       </c>
       <c r="F28" s="58" t="s">
         <v>523</v>
       </c>
-      <c r="G28" s="475" t="s">
+      <c r="G28" s="470" t="s">
         <v>524</v>
       </c>
-      <c r="H28" s="475"/>
+      <c r="H28" s="470"/>
       <c r="I28" s="323" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:141" s="238" customFormat="1" ht="32">
-      <c r="B29" s="482" t="s">
+      <c r="B29" s="465" t="s">
         <v>515</v>
       </c>
-      <c r="C29" s="490"/>
-      <c r="D29" s="483"/>
+      <c r="C29" s="466"/>
+      <c r="D29" s="467"/>
       <c r="E29" s="313" t="s">
         <v>522</v>
       </c>
       <c r="F29" s="58" t="s">
         <v>523</v>
       </c>
-      <c r="G29" s="475"/>
-      <c r="H29" s="475"/>
+      <c r="G29" s="470"/>
+      <c r="H29" s="470"/>
       <c r="I29" s="323" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:141" s="238" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="482" t="s">
+      <c r="B30" s="465" t="s">
         <v>527</v>
       </c>
-      <c r="C30" s="490"/>
-      <c r="D30" s="483"/>
+      <c r="C30" s="466"/>
+      <c r="D30" s="467"/>
       <c r="E30" s="313" t="s">
         <v>522</v>
       </c>
       <c r="F30" s="58" t="s">
         <v>523</v>
       </c>
-      <c r="G30" s="475"/>
-      <c r="H30" s="475"/>
+      <c r="G30" s="470"/>
+      <c r="H30" s="470"/>
       <c r="I30" s="323" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:141" s="238" customFormat="1" ht="30" customHeight="1">
-      <c r="B31" s="491" t="s">
+      <c r="B31" s="468" t="s">
         <v>529</v>
       </c>
-      <c r="C31" s="491"/>
-      <c r="D31" s="492"/>
+      <c r="C31" s="468"/>
+      <c r="D31" s="469"/>
       <c r="E31" s="313" t="s">
         <v>522</v>
       </c>
       <c r="F31" s="58" t="s">
         <v>523</v>
       </c>
-      <c r="G31" s="475"/>
-      <c r="H31" s="475"/>
+      <c r="G31" s="470"/>
+      <c r="H31" s="470"/>
       <c r="I31" s="323" t="s">
         <v>530</v>
       </c>
@@ -45187,11 +45190,11 @@
         <v>28</v>
       </c>
       <c r="E36" s="276"/>
-      <c r="F36" s="474" t="s">
+      <c r="F36" s="476" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="474"/>
-      <c r="H36" s="474"/>
+      <c r="G36" s="476"/>
+      <c r="H36" s="476"/>
       <c r="I36" s="63" t="s">
         <v>222</v>
       </c>
@@ -45205,15 +45208,15 @@
       <c r="C37" s="313" t="s">
         <v>535</v>
       </c>
-      <c r="D37" s="437" t="s">
+      <c r="D37" s="434" t="s">
         <v>536</v>
       </c>
-      <c r="E37" s="438"/>
-      <c r="F37" s="475" t="s">
+      <c r="E37" s="435"/>
+      <c r="F37" s="470" t="s">
         <v>537</v>
       </c>
-      <c r="G37" s="475"/>
-      <c r="H37" s="475"/>
+      <c r="G37" s="470"/>
+      <c r="H37" s="470"/>
       <c r="I37" s="323" t="s">
         <v>538</v>
       </c>
@@ -45227,15 +45230,15 @@
       <c r="C38" s="313" t="s">
         <v>535</v>
       </c>
-      <c r="D38" s="437" t="s">
+      <c r="D38" s="434" t="s">
         <v>536</v>
       </c>
-      <c r="E38" s="438"/>
-      <c r="F38" s="475" t="s">
+      <c r="E38" s="435"/>
+      <c r="F38" s="470" t="s">
         <v>539</v>
       </c>
-      <c r="G38" s="475"/>
-      <c r="H38" s="475"/>
+      <c r="G38" s="470"/>
+      <c r="H38" s="470"/>
       <c r="I38" s="323" t="s">
         <v>538</v>
       </c>
@@ -45249,15 +45252,15 @@
       <c r="C39" s="313" t="s">
         <v>535</v>
       </c>
-      <c r="D39" s="437" t="s">
+      <c r="D39" s="434" t="s">
         <v>536</v>
       </c>
-      <c r="E39" s="438"/>
-      <c r="F39" s="475" t="s">
+      <c r="E39" s="435"/>
+      <c r="F39" s="470" t="s">
         <v>541</v>
       </c>
-      <c r="G39" s="475"/>
-      <c r="H39" s="475"/>
+      <c r="G39" s="470"/>
+      <c r="H39" s="470"/>
       <c r="I39" s="323" t="s">
         <v>538</v>
       </c>
@@ -45271,15 +45274,15 @@
       <c r="C40" s="313" t="s">
         <v>535</v>
       </c>
-      <c r="D40" s="437" t="s">
+      <c r="D40" s="434" t="s">
         <v>536</v>
       </c>
-      <c r="E40" s="438"/>
-      <c r="F40" s="475" t="s">
+      <c r="E40" s="435"/>
+      <c r="F40" s="470" t="s">
         <v>543</v>
       </c>
-      <c r="G40" s="475"/>
-      <c r="H40" s="475"/>
+      <c r="G40" s="470"/>
+      <c r="H40" s="470"/>
       <c r="I40" s="323" t="s">
         <v>538</v>
       </c>
@@ -45357,11 +45360,11 @@
         <v>28</v>
       </c>
       <c r="E45" s="276"/>
-      <c r="F45" s="474" t="s">
+      <c r="F45" s="476" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="474"/>
-      <c r="H45" s="474"/>
+      <c r="G45" s="476"/>
+      <c r="H45" s="476"/>
       <c r="I45" s="63" t="s">
         <v>222</v>
       </c>
@@ -45379,11 +45382,11 @@
         <v>547</v>
       </c>
       <c r="E46" s="58"/>
-      <c r="F46" s="475" t="s">
+      <c r="F46" s="470" t="s">
         <v>548</v>
       </c>
-      <c r="G46" s="475"/>
-      <c r="H46" s="475"/>
+      <c r="G46" s="470"/>
+      <c r="H46" s="470"/>
       <c r="I46" s="327" t="s">
         <v>507</v>
       </c>
@@ -45401,11 +45404,11 @@
         <v>547</v>
       </c>
       <c r="E47" s="58"/>
-      <c r="F47" s="475" t="s">
+      <c r="F47" s="470" t="s">
         <v>549</v>
       </c>
-      <c r="G47" s="475"/>
-      <c r="H47" s="475"/>
+      <c r="G47" s="470"/>
+      <c r="H47" s="470"/>
       <c r="I47" s="327" t="s">
         <v>507</v>
       </c>
@@ -45425,11 +45428,11 @@
       <c r="E48" s="58" t="s">
         <v>553</v>
       </c>
-      <c r="F48" s="475" t="s">
+      <c r="F48" s="470" t="s">
         <v>554</v>
       </c>
-      <c r="G48" s="475"/>
-      <c r="H48" s="475"/>
+      <c r="G48" s="470"/>
+      <c r="H48" s="470"/>
       <c r="I48" s="327" t="s">
         <v>507</v>
       </c>
@@ -45503,10 +45506,10 @@
         <v>558</v>
       </c>
       <c r="F53" s="276"/>
-      <c r="G53" s="486" t="s">
+      <c r="G53" s="472" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="487"/>
+      <c r="H53" s="473"/>
       <c r="I53" s="63" t="s">
         <v>222</v>
       </c>
@@ -45516,18 +45519,18 @@
       <c r="B54" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="C54" s="482" t="s">
+      <c r="C54" s="465" t="s">
         <v>559</v>
       </c>
-      <c r="D54" s="483"/>
+      <c r="D54" s="467"/>
       <c r="E54" s="58" t="s">
         <v>560</v>
       </c>
       <c r="F54" s="58"/>
-      <c r="G54" s="475" t="s">
+      <c r="G54" s="470" t="s">
         <v>561</v>
       </c>
-      <c r="H54" s="475"/>
+      <c r="H54" s="470"/>
       <c r="I54" s="127" t="s">
         <v>562</v>
       </c>
@@ -45547,10 +45550,10 @@
         <v>565</v>
       </c>
       <c r="F55" s="83"/>
-      <c r="G55" s="485" t="s">
+      <c r="G55" s="471" t="s">
         <v>566</v>
       </c>
-      <c r="H55" s="485"/>
+      <c r="H55" s="471"/>
       <c r="I55" s="127" t="s">
         <v>562</v>
       </c>
@@ -45570,10 +45573,10 @@
         <v>565</v>
       </c>
       <c r="F56" s="83"/>
-      <c r="G56" s="485" t="s">
+      <c r="G56" s="471" t="s">
         <v>566</v>
       </c>
-      <c r="H56" s="485"/>
+      <c r="H56" s="471"/>
       <c r="I56" s="127" t="s">
         <v>562</v>
       </c>
@@ -45583,18 +45586,18 @@
       <c r="B57" s="94" t="s">
         <v>503</v>
       </c>
-      <c r="C57" s="482" t="s">
+      <c r="C57" s="465" t="s">
         <v>559</v>
       </c>
-      <c r="D57" s="483"/>
+      <c r="D57" s="467"/>
       <c r="E57" s="58" t="s">
         <v>560</v>
       </c>
       <c r="F57" s="58"/>
-      <c r="G57" s="485" t="s">
+      <c r="G57" s="471" t="s">
         <v>568</v>
       </c>
-      <c r="H57" s="485"/>
+      <c r="H57" s="471"/>
       <c r="I57" s="323" t="s">
         <v>569</v>
       </c>
@@ -45604,18 +45607,18 @@
       <c r="B58" s="94" t="s">
         <v>570</v>
       </c>
-      <c r="C58" s="482" t="s">
+      <c r="C58" s="465" t="s">
         <v>559</v>
       </c>
-      <c r="D58" s="483"/>
+      <c r="D58" s="467"/>
       <c r="E58" s="58" t="s">
         <v>560</v>
       </c>
       <c r="F58" s="58"/>
-      <c r="G58" s="485" t="s">
+      <c r="G58" s="471" t="s">
         <v>568</v>
       </c>
-      <c r="H58" s="485"/>
+      <c r="H58" s="471"/>
       <c r="I58" s="323" t="s">
         <v>569</v>
       </c>
@@ -45625,18 +45628,18 @@
       <c r="B59" s="83" t="s">
         <v>571</v>
       </c>
-      <c r="C59" s="482" t="s">
+      <c r="C59" s="465" t="s">
         <v>559</v>
       </c>
-      <c r="D59" s="483"/>
+      <c r="D59" s="467"/>
       <c r="E59" s="58" t="s">
         <v>560</v>
       </c>
       <c r="F59" s="58"/>
-      <c r="G59" s="485" t="s">
+      <c r="G59" s="471" t="s">
         <v>568</v>
       </c>
-      <c r="H59" s="485"/>
+      <c r="H59" s="471"/>
       <c r="I59" s="323" t="s">
         <v>569</v>
       </c>
@@ -45657,14 +45660,14 @@
       <c r="B61" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="488" t="s">
+      <c r="C61" s="474" t="s">
         <v>572</v>
       </c>
-      <c r="D61" s="489"/>
-      <c r="E61" s="489"/>
-      <c r="F61" s="489"/>
-      <c r="G61" s="489"/>
-      <c r="H61" s="489"/>
+      <c r="D61" s="475"/>
+      <c r="E61" s="475"/>
+      <c r="F61" s="475"/>
+      <c r="G61" s="475"/>
+      <c r="H61" s="475"/>
       <c r="I61" s="322"/>
       <c r="J61" s="312"/>
     </row>
@@ -45709,11 +45712,11 @@
         <v>558</v>
       </c>
       <c r="E64" s="276"/>
-      <c r="F64" s="474" t="s">
+      <c r="F64" s="476" t="s">
         <v>32</v>
       </c>
-      <c r="G64" s="474"/>
-      <c r="H64" s="474"/>
+      <c r="G64" s="476"/>
+      <c r="H64" s="476"/>
       <c r="I64" s="63" t="s">
         <v>222</v>
       </c>
@@ -45730,11 +45733,11 @@
         <v>576</v>
       </c>
       <c r="E65" s="331"/>
-      <c r="F65" s="484" t="s">
+      <c r="F65" s="477" t="s">
         <v>577</v>
       </c>
-      <c r="G65" s="484"/>
-      <c r="H65" s="484"/>
+      <c r="G65" s="477"/>
+      <c r="H65" s="477"/>
       <c r="I65" s="327" t="s">
         <v>578</v>
       </c>
@@ -45751,9 +45754,9 @@
         <v>576</v>
       </c>
       <c r="E66" s="313"/>
-      <c r="F66" s="484"/>
-      <c r="G66" s="484"/>
-      <c r="H66" s="484"/>
+      <c r="F66" s="477"/>
+      <c r="G66" s="477"/>
+      <c r="H66" s="477"/>
       <c r="I66" s="327" t="s">
         <v>578</v>
       </c>
@@ -45774,14 +45777,14 @@
       <c r="B68" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="467" t="s">
+      <c r="C68" s="486" t="s">
         <v>579</v>
       </c>
-      <c r="D68" s="468"/>
-      <c r="E68" s="468"/>
-      <c r="F68" s="468"/>
-      <c r="G68" s="468"/>
-      <c r="H68" s="468"/>
+      <c r="D68" s="487"/>
+      <c r="E68" s="487"/>
+      <c r="F68" s="487"/>
+      <c r="G68" s="487"/>
+      <c r="H68" s="487"/>
       <c r="I68" s="322"/>
       <c r="J68" s="322"/>
     </row>
@@ -45789,14 +45792,14 @@
       <c r="B69" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="469" t="s">
+      <c r="C69" s="488" t="s">
         <v>580</v>
       </c>
-      <c r="D69" s="470"/>
-      <c r="E69" s="470"/>
-      <c r="F69" s="470"/>
-      <c r="G69" s="470"/>
-      <c r="H69" s="471"/>
+      <c r="D69" s="489"/>
+      <c r="E69" s="489"/>
+      <c r="F69" s="489"/>
+      <c r="G69" s="489"/>
+      <c r="H69" s="490"/>
       <c r="I69" s="322"/>
       <c r="J69" s="322"/>
     </row>
@@ -45804,14 +45807,14 @@
       <c r="B70" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="472" t="s">
+      <c r="C70" s="491" t="s">
         <v>581</v>
       </c>
-      <c r="D70" s="473"/>
-      <c r="E70" s="473"/>
-      <c r="F70" s="473"/>
-      <c r="G70" s="473"/>
-      <c r="H70" s="473"/>
+      <c r="D70" s="492"/>
+      <c r="E70" s="492"/>
+      <c r="F70" s="492"/>
+      <c r="G70" s="492"/>
+      <c r="H70" s="492"/>
       <c r="I70" s="322"/>
       <c r="J70" s="322"/>
     </row>
@@ -45822,15 +45825,15 @@
       <c r="C71" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="445" t="s">
+      <c r="D71" s="443" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="446"/>
-      <c r="F71" s="474" t="s">
+      <c r="E71" s="444"/>
+      <c r="F71" s="476" t="s">
         <v>32</v>
       </c>
-      <c r="G71" s="474"/>
-      <c r="H71" s="474"/>
+      <c r="G71" s="476"/>
+      <c r="H71" s="476"/>
       <c r="I71" s="244" t="s">
         <v>582</v>
       </c>
@@ -45847,11 +45850,11 @@
         <v>229</v>
       </c>
       <c r="E72" s="228"/>
-      <c r="F72" s="440" t="s">
+      <c r="F72" s="436" t="s">
         <v>585</v>
       </c>
-      <c r="G72" s="465"/>
-      <c r="H72" s="465"/>
+      <c r="G72" s="485"/>
+      <c r="H72" s="485"/>
       <c r="I72" s="245" t="s">
         <v>586</v>
       </c>
@@ -45868,11 +45871,11 @@
         <v>229</v>
       </c>
       <c r="E73" s="228"/>
-      <c r="F73" s="440" t="s">
+      <c r="F73" s="436" t="s">
         <v>589</v>
       </c>
-      <c r="G73" s="465"/>
-      <c r="H73" s="465"/>
+      <c r="G73" s="485"/>
+      <c r="H73" s="485"/>
       <c r="I73" s="246" t="s">
         <v>590</v>
       </c>
@@ -45889,11 +45892,11 @@
         <v>229</v>
       </c>
       <c r="E74" s="228"/>
-      <c r="F74" s="440" t="s">
+      <c r="F74" s="436" t="s">
         <v>593</v>
       </c>
-      <c r="G74" s="465"/>
-      <c r="H74" s="465"/>
+      <c r="G74" s="485"/>
+      <c r="H74" s="485"/>
       <c r="I74" s="247" t="s">
         <v>594</v>
       </c>
@@ -45912,38 +45915,22 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H66"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="C50:H50"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C25:H25"/>
@@ -45960,22 +45947,38 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H66"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45983,62 +45986,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
-      <UserInfo>
-        <DisplayName>RATANAPRAYUL, Natschja</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>BARREIX ETCHEGOIMBERRY, Maria</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Guy Manners (Green Ink)</DisplayName>
-        <AccountId>27</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Pete Christopher (Green Ink) (p.christopher@greenink.co.uk)</DisplayName>
-        <AccountId>26</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>KIPRUTO, Hillary Kipchumba</DisplayName>
-        <AccountId>28</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SEYDI, Aminata Binetou Wahebine</DisplayName>
-        <AccountId>61</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TITI-OFEI, Regina</DisplayName>
-        <AccountId>62</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>COSMAS, Leonard</DisplayName>
-        <AccountId>63</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>AMIN, Avni</DisplayName>
-        <AccountId>46</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GARCIA MORENO ESTEVA, Claudia M.</DisplayName>
-        <AccountId>47</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46253,27 +46206,68 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
+      <UserInfo>
+        <DisplayName>RATANAPRAYUL, Natschja</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>BARREIX ETCHEGOIMBERRY, Maria</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Guy Manners (Green Ink)</DisplayName>
+        <AccountId>27</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Pete Christopher (Green Ink) (p.christopher@greenink.co.uk)</DisplayName>
+        <AccountId>26</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>KIPRUTO, Hillary Kipchumba</DisplayName>
+        <AccountId>28</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SEYDI, Aminata Binetou Wahebine</DisplayName>
+        <AccountId>61</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TITI-OFEI, Regina</DisplayName>
+        <AccountId>62</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>COSMAS, Leonard</DisplayName>
+        <AccountId>63</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>AMIN, Avni</DisplayName>
+        <AccountId>46</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GARCIA MORENO ESTEVA, Claudia M.</DisplayName>
+        <AccountId>47</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD935512-F454-4A53-8449-95D547709634}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -46298,9 +46292,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD935512-F454-4A53-8449-95D547709634}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input/l2/WHO-SRH-21.2-eng.xlsx
+++ b/input/l2/WHO-SRH-21.2-eng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adam/Src/who-int/anc-cds/input/l2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7709EEF2-3F22-FB4F-BC5F-FA0CE8DBF35E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A0968F-255F-C845-A563-A57D7525EED1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1860" windowWidth="26060" windowHeight="17620" activeTab="6" xr2:uid="{8743308B-CEBB-4E83-A8A2-EC270BF9A959}"/>
+    <workbookView xWindow="1180" yWindow="1860" windowWidth="26060" windowHeight="17620" firstSheet="1" activeTab="7" xr2:uid="{8743308B-CEBB-4E83-A8A2-EC270BF9A959}"/>
   </bookViews>
   <sheets>
     <sheet name="FP.LO.004-3. PregTestNegative" sheetId="26" state="hidden" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="1691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="1692">
   <si>
     <t>FP.LO.004-2 Pregnancy Test Needed</t>
   </si>
@@ -9410,6 +9410,9 @@
   </si>
   <si>
     <t>Evaluate labour &lt; 37 week</t>
+  </si>
+  <si>
+    <t>"Pelvic exam result (visual)" = "Evidence of amniotic fluid" - "Gestational age" &lt; 37 weeks</t>
   </si>
 </sst>
 </file>
@@ -11939,15 +11942,72 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="14" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="14" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -11957,63 +12017,6 @@
     <xf numFmtId="0" fontId="22" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="14" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="14" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12062,18 +12065,45 @@
     <xf numFmtId="0" fontId="53" fillId="34" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -12086,33 +12116,6 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12155,90 +12158,90 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -12272,19 +12275,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12293,17 +12284,61 @@
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -12311,47 +12346,11 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="21" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -12361,81 +12360,130 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -12450,51 +12498,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -12503,6 +12506,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12518,7 +12524,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12527,29 +12542,17 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -14208,7 +14211,7 @@
       <c r="D17" s="273" t="s">
         <v>612</v>
       </c>
-      <c r="E17" s="446" t="s">
+      <c r="E17" s="444" t="s">
         <v>613</v>
       </c>
       <c r="F17" s="333" t="s">
@@ -14225,7 +14228,7 @@
       <c r="D18" s="273" t="s">
         <v>612</v>
       </c>
-      <c r="E18" s="446"/>
+      <c r="E18" s="444"/>
       <c r="F18" s="333" t="s">
         <v>614</v>
       </c>
@@ -14240,7 +14243,7 @@
       <c r="D19" s="273" t="s">
         <v>612</v>
       </c>
-      <c r="E19" s="446"/>
+      <c r="E19" s="444"/>
       <c r="F19" s="333" t="s">
         <v>614</v>
       </c>
@@ -14255,7 +14258,7 @@
       <c r="D20" s="273" t="s">
         <v>612</v>
       </c>
-      <c r="E20" s="446"/>
+      <c r="E20" s="444"/>
       <c r="F20" s="333" t="s">
         <v>614</v>
       </c>
@@ -14270,7 +14273,7 @@
       <c r="D21" s="273" t="s">
         <v>612</v>
       </c>
-      <c r="E21" s="446"/>
+      <c r="E21" s="444"/>
       <c r="F21" s="333" t="s">
         <v>614</v>
       </c>
@@ -14672,10 +14675,10 @@
       <c r="D5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="444" t="s">
+      <c r="E5" s="446" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="445"/>
+      <c r="F5" s="447"/>
       <c r="G5" s="283" t="s">
         <v>32</v>
       </c>
@@ -16493,15 +16496,15 @@
       <c r="B4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="534" t="s">
+      <c r="C4" s="508" t="s">
         <v>662</v>
       </c>
-      <c r="D4" s="535"/>
-      <c r="E4" s="535"/>
-      <c r="F4" s="535"/>
-      <c r="G4" s="535"/>
-      <c r="H4" s="535"/>
-      <c r="I4" s="535"/>
+      <c r="D4" s="509"/>
+      <c r="E4" s="509"/>
+      <c r="F4" s="509"/>
+      <c r="G4" s="509"/>
+      <c r="H4" s="509"/>
+      <c r="I4" s="509"/>
       <c r="J4" s="312"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -16509,15 +16512,15 @@
       <c r="B5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="536" t="s">
+      <c r="C5" s="510" t="s">
         <v>663</v>
       </c>
-      <c r="D5" s="537"/>
-      <c r="E5" s="537"/>
-      <c r="F5" s="537"/>
-      <c r="G5" s="537"/>
-      <c r="H5" s="537"/>
-      <c r="I5" s="537"/>
+      <c r="D5" s="511"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="511"/>
       <c r="J5" s="312"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
@@ -16525,32 +16528,32 @@
       <c r="B6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="530" t="s">
+      <c r="C6" s="512" t="s">
         <v>580</v>
       </c>
-      <c r="D6" s="531"/>
-      <c r="E6" s="531"/>
-      <c r="F6" s="531"/>
-      <c r="G6" s="531"/>
-      <c r="H6" s="531"/>
-      <c r="I6" s="531"/>
+      <c r="D6" s="513"/>
+      <c r="E6" s="513"/>
+      <c r="F6" s="513"/>
+      <c r="G6" s="513"/>
+      <c r="H6" s="513"/>
+      <c r="I6" s="513"/>
       <c r="J6" s="312"/>
     </row>
     <row r="7" spans="1:10" ht="16">
       <c r="A7" s="335"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="521" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="549"/>
-      <c r="D7" s="549"/>
-      <c r="E7" s="550"/>
+      <c r="C7" s="522"/>
+      <c r="D7" s="522"/>
+      <c r="E7" s="523"/>
       <c r="F7" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="545" t="s">
+      <c r="G7" s="517" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="546"/>
+      <c r="H7" s="518"/>
       <c r="I7" s="77" t="s">
         <v>32</v>
       </c>
@@ -16577,7 +16580,7 @@
         <v>409</v>
       </c>
       <c r="H8" s="310"/>
-      <c r="I8" s="547" t="s">
+      <c r="I8" s="520" t="s">
         <v>666</v>
       </c>
       <c r="J8" s="103" t="s">
@@ -16603,7 +16606,7 @@
         <v>409</v>
       </c>
       <c r="H9" s="310"/>
-      <c r="I9" s="547"/>
+      <c r="I9" s="520"/>
       <c r="J9" s="103" t="s">
         <v>669</v>
       </c>
@@ -16627,7 +16630,7 @@
         <v>409</v>
       </c>
       <c r="H10" s="310"/>
-      <c r="I10" s="547"/>
+      <c r="I10" s="520"/>
       <c r="J10" s="103" t="s">
         <v>671</v>
       </c>
@@ -16653,7 +16656,7 @@
         <v>409</v>
       </c>
       <c r="H11" s="310"/>
-      <c r="I11" s="547"/>
+      <c r="I11" s="520"/>
       <c r="J11" s="103" t="s">
         <v>672</v>
       </c>
@@ -16677,7 +16680,7 @@
         <v>409</v>
       </c>
       <c r="H12" s="310"/>
-      <c r="I12" s="547"/>
+      <c r="I12" s="520"/>
       <c r="J12" s="103" t="s">
         <v>674</v>
       </c>
@@ -16701,7 +16704,7 @@
         <v>409</v>
       </c>
       <c r="H13" s="310"/>
-      <c r="I13" s="547"/>
+      <c r="I13" s="520"/>
       <c r="J13" s="103" t="s">
         <v>675</v>
       </c>
@@ -16725,7 +16728,7 @@
         <v>409</v>
       </c>
       <c r="H14" s="310"/>
-      <c r="I14" s="547"/>
+      <c r="I14" s="520"/>
       <c r="J14" s="103" t="s">
         <v>677</v>
       </c>
@@ -16749,7 +16752,7 @@
         <v>409</v>
       </c>
       <c r="H15" s="310"/>
-      <c r="I15" s="547"/>
+      <c r="I15" s="520"/>
       <c r="J15" s="103" t="s">
         <v>678</v>
       </c>
@@ -16773,7 +16776,7 @@
         <v>409</v>
       </c>
       <c r="H16" s="310"/>
-      <c r="I16" s="547"/>
+      <c r="I16" s="520"/>
       <c r="J16" s="103" t="s">
         <v>680</v>
       </c>
@@ -16796,7 +16799,7 @@
         <v>409</v>
       </c>
       <c r="H17" s="310"/>
-      <c r="I17" s="547"/>
+      <c r="I17" s="520"/>
       <c r="J17" s="103" t="s">
         <v>681</v>
       </c>
@@ -16996,7 +16999,7 @@
         <v>409</v>
       </c>
       <c r="H25" s="336"/>
-      <c r="I25" s="547" t="s">
+      <c r="I25" s="520" t="s">
         <v>693</v>
       </c>
       <c r="J25" s="273" t="s">
@@ -17023,7 +17026,7 @@
         <v>409</v>
       </c>
       <c r="H26" s="336"/>
-      <c r="I26" s="541"/>
+      <c r="I26" s="519"/>
       <c r="J26" s="273" t="s">
         <v>697</v>
       </c>
@@ -17048,7 +17051,7 @@
         <v>409</v>
       </c>
       <c r="H27" s="336"/>
-      <c r="I27" s="541"/>
+      <c r="I27" s="519"/>
       <c r="J27" s="273" t="s">
         <v>697</v>
       </c>
@@ -17073,7 +17076,7 @@
         <v>409</v>
       </c>
       <c r="H28" s="336"/>
-      <c r="I28" s="541"/>
+      <c r="I28" s="519"/>
       <c r="J28" s="273" t="s">
         <v>697</v>
       </c>
@@ -17098,7 +17101,7 @@
         <v>409</v>
       </c>
       <c r="H29" s="336"/>
-      <c r="I29" s="541"/>
+      <c r="I29" s="519"/>
       <c r="J29" s="273" t="s">
         <v>697</v>
       </c>
@@ -17123,7 +17126,7 @@
         <v>409</v>
       </c>
       <c r="H30" s="336"/>
-      <c r="I30" s="541"/>
+      <c r="I30" s="519"/>
       <c r="J30" s="273" t="s">
         <v>697</v>
       </c>
@@ -17146,10 +17149,10 @@
         <v>409</v>
       </c>
       <c r="H31" s="310"/>
-      <c r="I31" s="541" t="s">
+      <c r="I31" s="519" t="s">
         <v>705</v>
       </c>
-      <c r="J31" s="539" t="s">
+      <c r="J31" s="514" t="s">
         <v>706</v>
       </c>
     </row>
@@ -17171,8 +17174,8 @@
         <v>409</v>
       </c>
       <c r="H32" s="310"/>
-      <c r="I32" s="541"/>
-      <c r="J32" s="540"/>
+      <c r="I32" s="519"/>
+      <c r="J32" s="516"/>
     </row>
     <row r="33" spans="2:10" ht="32">
       <c r="B33" s="83" t="s">
@@ -17192,10 +17195,10 @@
         <v>409</v>
       </c>
       <c r="H33" s="310"/>
-      <c r="I33" s="541" t="s">
+      <c r="I33" s="519" t="s">
         <v>705</v>
       </c>
-      <c r="J33" s="539" t="s">
+      <c r="J33" s="514" t="s">
         <v>706</v>
       </c>
     </row>
@@ -17217,8 +17220,8 @@
         <v>409</v>
       </c>
       <c r="H34" s="310"/>
-      <c r="I34" s="541"/>
-      <c r="J34" s="540"/>
+      <c r="I34" s="519"/>
+      <c r="J34" s="516"/>
     </row>
     <row r="35" spans="2:10" ht="48">
       <c r="B35" s="81" t="s">
@@ -17234,7 +17237,7 @@
         <v>711</v>
       </c>
       <c r="H35" s="82"/>
-      <c r="I35" s="539" t="s">
+      <c r="I35" s="514" t="s">
         <v>712</v>
       </c>
       <c r="J35" s="82" t="s">
@@ -17259,7 +17262,7 @@
         <v>711</v>
       </c>
       <c r="H36" s="335"/>
-      <c r="I36" s="544"/>
+      <c r="I36" s="515"/>
       <c r="J36" s="82" t="s">
         <v>713</v>
       </c>
@@ -17282,7 +17285,7 @@
         <v>711</v>
       </c>
       <c r="H37" s="82"/>
-      <c r="I37" s="544"/>
+      <c r="I37" s="515"/>
       <c r="J37" s="82"/>
     </row>
     <row r="38" spans="2:10" ht="48">
@@ -17303,7 +17306,7 @@
         <v>711</v>
       </c>
       <c r="H38" s="82"/>
-      <c r="I38" s="544"/>
+      <c r="I38" s="515"/>
       <c r="J38" s="82"/>
     </row>
     <row r="39" spans="2:10" ht="48">
@@ -17324,7 +17327,7 @@
         <v>711</v>
       </c>
       <c r="H39" s="82"/>
-      <c r="I39" s="540"/>
+      <c r="I39" s="516"/>
       <c r="J39" s="82" t="s">
         <v>713</v>
       </c>
@@ -17344,13 +17347,13 @@
       <c r="B41" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="534" t="s">
+      <c r="C41" s="508" t="s">
         <v>716</v>
       </c>
-      <c r="D41" s="535"/>
-      <c r="E41" s="535"/>
-      <c r="F41" s="535"/>
-      <c r="G41" s="535"/>
+      <c r="D41" s="509"/>
+      <c r="E41" s="509"/>
+      <c r="F41" s="509"/>
+      <c r="G41" s="509"/>
       <c r="H41" s="312"/>
       <c r="I41" s="312"/>
       <c r="J41" s="312"/>
@@ -17359,13 +17362,13 @@
       <c r="B42" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="536" t="s">
+      <c r="C42" s="510" t="s">
         <v>717</v>
       </c>
-      <c r="D42" s="537"/>
-      <c r="E42" s="537"/>
-      <c r="F42" s="537"/>
-      <c r="G42" s="537"/>
+      <c r="D42" s="511"/>
+      <c r="E42" s="511"/>
+      <c r="F42" s="511"/>
+      <c r="G42" s="511"/>
       <c r="H42" s="312"/>
       <c r="I42" s="312"/>
       <c r="J42" s="312"/>
@@ -17374,13 +17377,13 @@
       <c r="B43" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="530" t="s">
+      <c r="C43" s="512" t="s">
         <v>580</v>
       </c>
-      <c r="D43" s="531"/>
-      <c r="E43" s="531"/>
-      <c r="F43" s="531"/>
-      <c r="G43" s="531"/>
+      <c r="D43" s="513"/>
+      <c r="E43" s="513"/>
+      <c r="F43" s="513"/>
+      <c r="G43" s="513"/>
       <c r="H43" s="312"/>
       <c r="I43" s="312"/>
       <c r="J43" s="312"/>
@@ -17392,19 +17395,19 @@
       <c r="C44" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="516" t="s">
+      <c r="D44" s="525" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="517"/>
-      <c r="F44" s="538" t="s">
+      <c r="E44" s="526"/>
+      <c r="F44" s="527" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="538"/>
-      <c r="H44" s="543" t="s">
+      <c r="G44" s="527"/>
+      <c r="H44" s="528" t="s">
         <v>222</v>
       </c>
-      <c r="I44" s="543"/>
-      <c r="J44" s="543"/>
+      <c r="I44" s="528"/>
+      <c r="J44" s="528"/>
     </row>
     <row r="45" spans="2:10" ht="181.5" customHeight="1">
       <c r="B45" s="313" t="s">
@@ -17417,15 +17420,15 @@
         <v>719</v>
       </c>
       <c r="E45" s="58"/>
-      <c r="F45" s="471" t="s">
+      <c r="F45" s="476" t="s">
         <v>720</v>
       </c>
-      <c r="G45" s="471"/>
-      <c r="H45" s="542" t="s">
+      <c r="G45" s="476"/>
+      <c r="H45" s="524" t="s">
         <v>506</v>
       </c>
-      <c r="I45" s="542"/>
-      <c r="J45" s="542"/>
+      <c r="I45" s="524"/>
+      <c r="J45" s="524"/>
     </row>
     <row r="46" spans="2:10" ht="255.75" customHeight="1">
       <c r="B46" s="313" t="s">
@@ -17438,15 +17441,15 @@
         <v>722</v>
       </c>
       <c r="E46" s="58"/>
-      <c r="F46" s="443" t="s">
+      <c r="F46" s="445" t="s">
         <v>723</v>
       </c>
-      <c r="G46" s="443"/>
-      <c r="H46" s="542" t="s">
+      <c r="G46" s="445"/>
+      <c r="H46" s="524" t="s">
         <v>506</v>
       </c>
-      <c r="I46" s="542"/>
-      <c r="J46" s="542"/>
+      <c r="I46" s="524"/>
+      <c r="J46" s="524"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="76"/>
@@ -17474,13 +17477,13 @@
       <c r="B49" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="534" t="s">
+      <c r="C49" s="508" t="s">
         <v>724</v>
       </c>
-      <c r="D49" s="535"/>
-      <c r="E49" s="535"/>
-      <c r="F49" s="535"/>
-      <c r="G49" s="535"/>
+      <c r="D49" s="509"/>
+      <c r="E49" s="509"/>
+      <c r="F49" s="509"/>
+      <c r="G49" s="509"/>
       <c r="H49" s="312"/>
       <c r="I49" s="312"/>
       <c r="J49" s="312"/>
@@ -17489,13 +17492,13 @@
       <c r="B50" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="536" t="s">
+      <c r="C50" s="510" t="s">
         <v>725</v>
       </c>
-      <c r="D50" s="537"/>
-      <c r="E50" s="537"/>
-      <c r="F50" s="537"/>
-      <c r="G50" s="537"/>
+      <c r="D50" s="511"/>
+      <c r="E50" s="511"/>
+      <c r="F50" s="511"/>
+      <c r="G50" s="511"/>
       <c r="H50" s="312"/>
       <c r="I50" s="312"/>
       <c r="J50" s="312"/>
@@ -17504,13 +17507,13 @@
       <c r="B51" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="530" t="s">
+      <c r="C51" s="512" t="s">
         <v>580</v>
       </c>
-      <c r="D51" s="531"/>
-      <c r="E51" s="531"/>
-      <c r="F51" s="531"/>
-      <c r="G51" s="531"/>
+      <c r="D51" s="513"/>
+      <c r="E51" s="513"/>
+      <c r="F51" s="513"/>
+      <c r="G51" s="513"/>
       <c r="H51" s="312"/>
       <c r="I51" s="312"/>
       <c r="J51" s="312"/>
@@ -17522,14 +17525,14 @@
       <c r="C52" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="516" t="s">
+      <c r="D52" s="525" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="517"/>
-      <c r="F52" s="538" t="s">
+      <c r="E52" s="526"/>
+      <c r="F52" s="527" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="538"/>
+      <c r="G52" s="527"/>
       <c r="H52" s="134" t="s">
         <v>222</v>
       </c>
@@ -17547,10 +17550,10 @@
         <v>728</v>
       </c>
       <c r="E53" s="89"/>
-      <c r="F53" s="532" t="s">
+      <c r="F53" s="529" t="s">
         <v>729</v>
       </c>
-      <c r="G53" s="533"/>
+      <c r="G53" s="530"/>
       <c r="H53" s="52" t="s">
         <v>730</v>
       </c>
@@ -17568,10 +17571,10 @@
         <v>732</v>
       </c>
       <c r="E54" s="58"/>
-      <c r="F54" s="443" t="s">
+      <c r="F54" s="445" t="s">
         <v>733</v>
       </c>
-      <c r="G54" s="435"/>
+      <c r="G54" s="438"/>
       <c r="H54" s="52" t="s">
         <v>734</v>
       </c>
@@ -17593,13 +17596,13 @@
       <c r="B56" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="534" t="s">
+      <c r="C56" s="508" t="s">
         <v>735</v>
       </c>
-      <c r="D56" s="535"/>
-      <c r="E56" s="535"/>
-      <c r="F56" s="535"/>
-      <c r="G56" s="535"/>
+      <c r="D56" s="509"/>
+      <c r="E56" s="509"/>
+      <c r="F56" s="509"/>
+      <c r="G56" s="509"/>
       <c r="H56" s="312"/>
       <c r="I56" s="312"/>
       <c r="J56" s="312"/>
@@ -17608,13 +17611,13 @@
       <c r="B57" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="536" t="s">
+      <c r="C57" s="510" t="s">
         <v>736</v>
       </c>
-      <c r="D57" s="537"/>
-      <c r="E57" s="537"/>
-      <c r="F57" s="537"/>
-      <c r="G57" s="537"/>
+      <c r="D57" s="511"/>
+      <c r="E57" s="511"/>
+      <c r="F57" s="511"/>
+      <c r="G57" s="511"/>
       <c r="H57" s="312"/>
       <c r="I57" s="312"/>
       <c r="J57" s="312"/>
@@ -17623,13 +17626,13 @@
       <c r="B58" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="530" t="s">
+      <c r="C58" s="512" t="s">
         <v>580</v>
       </c>
-      <c r="D58" s="531"/>
-      <c r="E58" s="531"/>
-      <c r="F58" s="531"/>
-      <c r="G58" s="531"/>
+      <c r="D58" s="513"/>
+      <c r="E58" s="513"/>
+      <c r="F58" s="513"/>
+      <c r="G58" s="513"/>
       <c r="H58" s="312"/>
       <c r="I58" s="312"/>
       <c r="J58" s="312"/>
@@ -17641,14 +17644,14 @@
       <c r="C59" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="516" t="s">
+      <c r="D59" s="525" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="517"/>
-      <c r="F59" s="538" t="s">
+      <c r="E59" s="526"/>
+      <c r="F59" s="527" t="s">
         <v>32</v>
       </c>
-      <c r="G59" s="538"/>
+      <c r="G59" s="527"/>
       <c r="H59" s="290" t="s">
         <v>222</v>
       </c>
@@ -17666,10 +17669,10 @@
         <v>738</v>
       </c>
       <c r="E60" s="58"/>
-      <c r="F60" s="443" t="s">
+      <c r="F60" s="445" t="s">
         <v>733</v>
       </c>
-      <c r="G60" s="443"/>
+      <c r="G60" s="445"/>
       <c r="H60" s="52" t="s">
         <v>739</v>
       </c>
@@ -17691,45 +17694,45 @@
       <c r="B62" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="534" t="s">
+      <c r="C62" s="508" t="s">
         <v>740</v>
       </c>
-      <c r="D62" s="535"/>
-      <c r="E62" s="535"/>
-      <c r="F62" s="535"/>
-      <c r="G62" s="535"/>
-      <c r="H62" s="535"/>
-      <c r="I62" s="535"/>
+      <c r="D62" s="509"/>
+      <c r="E62" s="509"/>
+      <c r="F62" s="509"/>
+      <c r="G62" s="509"/>
+      <c r="H62" s="509"/>
+      <c r="I62" s="509"/>
       <c r="J62" s="312"/>
     </row>
     <row r="63" spans="2:10" ht="16">
       <c r="B63" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="536" t="s">
+      <c r="C63" s="510" t="s">
         <v>741</v>
       </c>
-      <c r="D63" s="537"/>
-      <c r="E63" s="537"/>
-      <c r="F63" s="537"/>
-      <c r="G63" s="537"/>
-      <c r="H63" s="537"/>
-      <c r="I63" s="537"/>
+      <c r="D63" s="511"/>
+      <c r="E63" s="511"/>
+      <c r="F63" s="511"/>
+      <c r="G63" s="511"/>
+      <c r="H63" s="511"/>
+      <c r="I63" s="511"/>
       <c r="J63" s="312"/>
     </row>
     <row r="64" spans="2:10" ht="16">
       <c r="B64" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="530" t="s">
+      <c r="C64" s="512" t="s">
         <v>580</v>
       </c>
-      <c r="D64" s="531"/>
-      <c r="E64" s="531"/>
-      <c r="F64" s="531"/>
-      <c r="G64" s="531"/>
-      <c r="H64" s="531"/>
-      <c r="I64" s="531"/>
+      <c r="D64" s="513"/>
+      <c r="E64" s="513"/>
+      <c r="F64" s="513"/>
+      <c r="G64" s="513"/>
+      <c r="H64" s="513"/>
+      <c r="I64" s="513"/>
       <c r="J64" s="312"/>
     </row>
     <row r="65" spans="2:10" s="133" customFormat="1" ht="16">
@@ -17741,14 +17744,14 @@
       <c r="E65" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="516" t="s">
+      <c r="F65" s="525" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="517"/>
-      <c r="H65" s="526" t="s">
+      <c r="G65" s="526"/>
+      <c r="H65" s="531" t="s">
         <v>32</v>
       </c>
-      <c r="I65" s="527"/>
+      <c r="I65" s="532"/>
       <c r="J65" s="78" t="s">
         <v>222</v>
       </c>
@@ -17770,10 +17773,10 @@
         <v>745</v>
       </c>
       <c r="G66" s="58"/>
-      <c r="H66" s="443" t="s">
+      <c r="H66" s="445" t="s">
         <v>746</v>
       </c>
-      <c r="I66" s="443"/>
+      <c r="I66" s="445"/>
       <c r="J66" s="323" t="s">
         <v>506</v>
       </c>
@@ -17795,10 +17798,10 @@
         <v>745</v>
       </c>
       <c r="G67" s="58"/>
-      <c r="H67" s="443" t="s">
+      <c r="H67" s="445" t="s">
         <v>748</v>
       </c>
-      <c r="I67" s="443"/>
+      <c r="I67" s="445"/>
       <c r="J67" s="323" t="s">
         <v>506</v>
       </c>
@@ -17818,10 +17821,10 @@
         <v>745</v>
       </c>
       <c r="G68" s="58"/>
-      <c r="H68" s="443" t="s">
+      <c r="H68" s="445" t="s">
         <v>751</v>
       </c>
-      <c r="I68" s="443"/>
+      <c r="I68" s="445"/>
       <c r="J68" s="323" t="s">
         <v>506</v>
       </c>
@@ -17841,45 +17844,45 @@
       <c r="B70" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="510" t="s">
+      <c r="C70" s="506" t="s">
         <v>752</v>
       </c>
-      <c r="D70" s="511"/>
-      <c r="E70" s="511"/>
-      <c r="F70" s="511"/>
-      <c r="G70" s="511"/>
-      <c r="H70" s="511"/>
-      <c r="I70" s="511"/>
+      <c r="D70" s="507"/>
+      <c r="E70" s="507"/>
+      <c r="F70" s="507"/>
+      <c r="G70" s="507"/>
+      <c r="H70" s="507"/>
+      <c r="I70" s="507"/>
       <c r="J70" s="312"/>
     </row>
     <row r="71" spans="2:10" ht="16">
       <c r="B71" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="512" t="s">
+      <c r="C71" s="536" t="s">
         <v>753</v>
       </c>
-      <c r="D71" s="513"/>
-      <c r="E71" s="513"/>
-      <c r="F71" s="513"/>
-      <c r="G71" s="513"/>
-      <c r="H71" s="513"/>
-      <c r="I71" s="513"/>
+      <c r="D71" s="537"/>
+      <c r="E71" s="537"/>
+      <c r="F71" s="537"/>
+      <c r="G71" s="537"/>
+      <c r="H71" s="537"/>
+      <c r="I71" s="537"/>
       <c r="J71" s="312"/>
     </row>
     <row r="72" spans="2:10" ht="16">
       <c r="B72" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="528" t="s">
+      <c r="C72" s="538" t="s">
         <v>754</v>
       </c>
-      <c r="D72" s="529"/>
-      <c r="E72" s="529"/>
-      <c r="F72" s="529"/>
-      <c r="G72" s="529"/>
-      <c r="H72" s="529"/>
-      <c r="I72" s="529"/>
+      <c r="D72" s="539"/>
+      <c r="E72" s="539"/>
+      <c r="F72" s="539"/>
+      <c r="G72" s="539"/>
+      <c r="H72" s="539"/>
+      <c r="I72" s="539"/>
       <c r="J72" s="312"/>
     </row>
     <row r="73" spans="2:10" s="133" customFormat="1" ht="16">
@@ -17889,16 +17892,16 @@
       <c r="C73" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D73" s="516" t="s">
+      <c r="D73" s="525" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="517"/>
-      <c r="F73" s="518" t="s">
+      <c r="E73" s="526"/>
+      <c r="F73" s="533" t="s">
         <v>32</v>
       </c>
-      <c r="G73" s="519"/>
-      <c r="H73" s="519"/>
-      <c r="I73" s="520"/>
+      <c r="G73" s="534"/>
+      <c r="H73" s="534"/>
+      <c r="I73" s="535"/>
       <c r="J73" s="290" t="s">
         <v>222</v>
       </c>
@@ -17914,12 +17917,12 @@
         <v>757</v>
       </c>
       <c r="E74" s="58"/>
-      <c r="F74" s="435" t="s">
+      <c r="F74" s="438" t="s">
         <v>758</v>
       </c>
-      <c r="G74" s="525"/>
-      <c r="H74" s="525"/>
-      <c r="I74" s="436"/>
+      <c r="G74" s="505"/>
+      <c r="H74" s="505"/>
+      <c r="I74" s="439"/>
       <c r="J74" s="323" t="s">
         <v>568</v>
       </c>
@@ -17935,12 +17938,12 @@
         <v>757</v>
       </c>
       <c r="E75" s="58"/>
-      <c r="F75" s="435" t="s">
+      <c r="F75" s="438" t="s">
         <v>758</v>
       </c>
-      <c r="G75" s="525"/>
-      <c r="H75" s="525"/>
-      <c r="I75" s="436"/>
+      <c r="G75" s="505"/>
+      <c r="H75" s="505"/>
+      <c r="I75" s="439"/>
       <c r="J75" s="323" t="s">
         <v>568</v>
       </c>
@@ -17956,12 +17959,12 @@
         <v>757</v>
       </c>
       <c r="E76" s="58"/>
-      <c r="F76" s="435" t="s">
+      <c r="F76" s="438" t="s">
         <v>758</v>
       </c>
-      <c r="G76" s="525"/>
-      <c r="H76" s="525"/>
-      <c r="I76" s="436"/>
+      <c r="G76" s="505"/>
+      <c r="H76" s="505"/>
+      <c r="I76" s="439"/>
       <c r="J76" s="323" t="s">
         <v>568</v>
       </c>
@@ -17977,12 +17980,12 @@
         <v>757</v>
       </c>
       <c r="E77" s="58"/>
-      <c r="F77" s="435" t="s">
+      <c r="F77" s="438" t="s">
         <v>758</v>
       </c>
-      <c r="G77" s="525"/>
-      <c r="H77" s="525"/>
-      <c r="I77" s="436"/>
+      <c r="G77" s="505"/>
+      <c r="H77" s="505"/>
+      <c r="I77" s="439"/>
       <c r="J77" s="323" t="s">
         <v>568</v>
       </c>
@@ -17998,12 +18001,12 @@
         <v>757</v>
       </c>
       <c r="E78" s="58"/>
-      <c r="F78" s="435" t="s">
+      <c r="F78" s="438" t="s">
         <v>758</v>
       </c>
-      <c r="G78" s="525"/>
-      <c r="H78" s="525"/>
-      <c r="I78" s="436"/>
+      <c r="G78" s="505"/>
+      <c r="H78" s="505"/>
+      <c r="I78" s="439"/>
       <c r="J78" s="323" t="s">
         <v>568</v>
       </c>
@@ -18019,12 +18022,12 @@
         <v>757</v>
       </c>
       <c r="E79" s="58"/>
-      <c r="F79" s="435" t="s">
+      <c r="F79" s="438" t="s">
         <v>758</v>
       </c>
-      <c r="G79" s="525"/>
-      <c r="H79" s="525"/>
-      <c r="I79" s="436"/>
+      <c r="G79" s="505"/>
+      <c r="H79" s="505"/>
+      <c r="I79" s="439"/>
       <c r="J79" s="323" t="s">
         <v>568</v>
       </c>
@@ -18040,12 +18043,12 @@
         <v>757</v>
       </c>
       <c r="E80" s="58"/>
-      <c r="F80" s="435" t="s">
+      <c r="F80" s="438" t="s">
         <v>758</v>
       </c>
-      <c r="G80" s="525"/>
-      <c r="H80" s="525"/>
-      <c r="I80" s="436"/>
+      <c r="G80" s="505"/>
+      <c r="H80" s="505"/>
+      <c r="I80" s="439"/>
       <c r="J80" s="323" t="s">
         <v>568</v>
       </c>
@@ -18061,12 +18064,12 @@
         <v>757</v>
       </c>
       <c r="E81" s="58"/>
-      <c r="F81" s="435" t="s">
+      <c r="F81" s="438" t="s">
         <v>758</v>
       </c>
-      <c r="G81" s="525"/>
-      <c r="H81" s="525"/>
-      <c r="I81" s="436"/>
+      <c r="G81" s="505"/>
+      <c r="H81" s="505"/>
+      <c r="I81" s="439"/>
       <c r="J81" s="323" t="s">
         <v>568</v>
       </c>
@@ -18082,12 +18085,12 @@
         <v>757</v>
       </c>
       <c r="E82" s="58"/>
-      <c r="F82" s="435" t="s">
+      <c r="F82" s="438" t="s">
         <v>758</v>
       </c>
-      <c r="G82" s="525"/>
-      <c r="H82" s="525"/>
-      <c r="I82" s="436"/>
+      <c r="G82" s="505"/>
+      <c r="H82" s="505"/>
+      <c r="I82" s="439"/>
       <c r="J82" s="323" t="s">
         <v>568</v>
       </c>
@@ -18103,12 +18106,12 @@
         <v>757</v>
       </c>
       <c r="E83" s="58"/>
-      <c r="F83" s="435" t="s">
+      <c r="F83" s="438" t="s">
         <v>758</v>
       </c>
-      <c r="G83" s="525"/>
-      <c r="H83" s="525"/>
-      <c r="I83" s="436"/>
+      <c r="G83" s="505"/>
+      <c r="H83" s="505"/>
+      <c r="I83" s="439"/>
       <c r="J83" s="323" t="s">
         <v>568</v>
       </c>
@@ -18124,12 +18127,12 @@
         <v>757</v>
       </c>
       <c r="E84" s="58"/>
-      <c r="F84" s="435" t="s">
+      <c r="F84" s="438" t="s">
         <v>758</v>
       </c>
-      <c r="G84" s="525"/>
-      <c r="H84" s="525"/>
-      <c r="I84" s="436"/>
+      <c r="G84" s="505"/>
+      <c r="H84" s="505"/>
+      <c r="I84" s="439"/>
       <c r="J84" s="323" t="s">
         <v>568</v>
       </c>
@@ -18145,12 +18148,12 @@
         <v>771</v>
       </c>
       <c r="E85" s="58"/>
-      <c r="F85" s="435" t="s">
+      <c r="F85" s="438" t="s">
         <v>772</v>
       </c>
-      <c r="G85" s="525"/>
-      <c r="H85" s="525"/>
-      <c r="I85" s="436"/>
+      <c r="G85" s="505"/>
+      <c r="H85" s="505"/>
+      <c r="I85" s="439"/>
       <c r="J85" s="323" t="s">
         <v>568</v>
       </c>
@@ -18170,14 +18173,14 @@
       <c r="B87" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="510" t="s">
+      <c r="C87" s="506" t="s">
         <v>773</v>
       </c>
-      <c r="D87" s="511"/>
-      <c r="E87" s="511"/>
-      <c r="F87" s="511"/>
-      <c r="G87" s="511"/>
-      <c r="H87" s="511"/>
+      <c r="D87" s="507"/>
+      <c r="E87" s="507"/>
+      <c r="F87" s="507"/>
+      <c r="G87" s="507"/>
+      <c r="H87" s="507"/>
       <c r="I87" s="312"/>
       <c r="J87" s="312"/>
     </row>
@@ -18185,14 +18188,14 @@
       <c r="B88" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="512" t="s">
+      <c r="C88" s="536" t="s">
         <v>774</v>
       </c>
-      <c r="D88" s="513"/>
-      <c r="E88" s="513"/>
-      <c r="F88" s="513"/>
-      <c r="G88" s="513"/>
-      <c r="H88" s="524"/>
+      <c r="D88" s="537"/>
+      <c r="E88" s="537"/>
+      <c r="F88" s="537"/>
+      <c r="G88" s="537"/>
+      <c r="H88" s="543"/>
       <c r="I88" s="290"/>
       <c r="J88" s="312"/>
     </row>
@@ -18200,14 +18203,14 @@
       <c r="B89" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="521" t="s">
+      <c r="C89" s="540" t="s">
         <v>580</v>
       </c>
-      <c r="D89" s="522"/>
-      <c r="E89" s="522"/>
-      <c r="F89" s="522"/>
-      <c r="G89" s="522"/>
-      <c r="H89" s="523"/>
+      <c r="D89" s="541"/>
+      <c r="E89" s="541"/>
+      <c r="F89" s="541"/>
+      <c r="G89" s="541"/>
+      <c r="H89" s="542"/>
       <c r="I89" s="290"/>
       <c r="J89" s="312"/>
     </row>
@@ -18218,15 +18221,15 @@
       <c r="C90" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D90" s="516" t="s">
+      <c r="D90" s="525" t="s">
         <v>28</v>
       </c>
-      <c r="E90" s="517"/>
-      <c r="F90" s="505" t="s">
+      <c r="E90" s="526"/>
+      <c r="F90" s="546" t="s">
         <v>32</v>
       </c>
-      <c r="G90" s="506"/>
-      <c r="H90" s="507"/>
+      <c r="G90" s="547"/>
+      <c r="H90" s="548"/>
       <c r="I90" s="290" t="s">
         <v>222</v>
       </c>
@@ -18243,11 +18246,11 @@
         <v>777</v>
       </c>
       <c r="E91" s="58"/>
-      <c r="F91" s="450" t="s">
+      <c r="F91" s="440" t="s">
         <v>778</v>
       </c>
-      <c r="G91" s="508"/>
-      <c r="H91" s="509"/>
+      <c r="G91" s="549"/>
+      <c r="H91" s="550"/>
       <c r="I91" s="310" t="s">
         <v>779</v>
       </c>
@@ -18264,11 +18267,11 @@
         <v>777</v>
       </c>
       <c r="E92" s="58"/>
-      <c r="F92" s="450" t="s">
+      <c r="F92" s="440" t="s">
         <v>781</v>
       </c>
-      <c r="G92" s="508"/>
-      <c r="H92" s="509"/>
+      <c r="G92" s="549"/>
+      <c r="H92" s="550"/>
       <c r="I92" s="310" t="s">
         <v>779</v>
       </c>
@@ -18285,11 +18288,11 @@
         <v>777</v>
       </c>
       <c r="E93" s="58"/>
-      <c r="F93" s="450" t="s">
+      <c r="F93" s="440" t="s">
         <v>783</v>
       </c>
-      <c r="G93" s="508"/>
-      <c r="H93" s="509"/>
+      <c r="G93" s="549"/>
+      <c r="H93" s="550"/>
       <c r="I93" s="310" t="s">
         <v>779</v>
       </c>
@@ -18306,11 +18309,11 @@
         <v>777</v>
       </c>
       <c r="E94" s="58"/>
-      <c r="F94" s="450" t="s">
+      <c r="F94" s="440" t="s">
         <v>785</v>
       </c>
-      <c r="G94" s="508"/>
-      <c r="H94" s="509"/>
+      <c r="G94" s="549"/>
+      <c r="H94" s="550"/>
       <c r="I94" s="310" t="s">
         <v>779</v>
       </c>
@@ -18327,11 +18330,11 @@
         <v>788</v>
       </c>
       <c r="E95" s="58"/>
-      <c r="F95" s="450" t="s">
+      <c r="F95" s="440" t="s">
         <v>789</v>
       </c>
-      <c r="G95" s="508"/>
-      <c r="H95" s="509"/>
+      <c r="G95" s="549"/>
+      <c r="H95" s="550"/>
       <c r="I95" s="310" t="s">
         <v>779</v>
       </c>
@@ -18348,11 +18351,11 @@
         <v>788</v>
       </c>
       <c r="E96" s="58"/>
-      <c r="F96" s="450" t="s">
+      <c r="F96" s="440" t="s">
         <v>791</v>
       </c>
-      <c r="G96" s="508"/>
-      <c r="H96" s="509"/>
+      <c r="G96" s="549"/>
+      <c r="H96" s="550"/>
       <c r="I96" s="310" t="s">
         <v>779</v>
       </c>
@@ -18369,11 +18372,11 @@
         <v>788</v>
       </c>
       <c r="E97" s="58"/>
-      <c r="F97" s="450" t="s">
+      <c r="F97" s="440" t="s">
         <v>793</v>
       </c>
-      <c r="G97" s="508"/>
-      <c r="H97" s="509"/>
+      <c r="G97" s="549"/>
+      <c r="H97" s="550"/>
       <c r="I97" s="310" t="s">
         <v>779</v>
       </c>
@@ -18390,11 +18393,11 @@
         <v>788</v>
       </c>
       <c r="E98" s="58"/>
-      <c r="F98" s="450" t="s">
+      <c r="F98" s="440" t="s">
         <v>795</v>
       </c>
-      <c r="G98" s="508"/>
-      <c r="H98" s="509"/>
+      <c r="G98" s="549"/>
+      <c r="H98" s="550"/>
       <c r="I98" s="340" t="s">
         <v>779</v>
       </c>
@@ -18411,11 +18414,11 @@
         <v>788</v>
       </c>
       <c r="E99" s="58"/>
-      <c r="F99" s="450" t="s">
+      <c r="F99" s="440" t="s">
         <v>797</v>
       </c>
-      <c r="G99" s="508"/>
-      <c r="H99" s="509"/>
+      <c r="G99" s="549"/>
+      <c r="H99" s="550"/>
       <c r="I99" s="310" t="s">
         <v>779</v>
       </c>
@@ -18436,14 +18439,14 @@
       <c r="B101" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="510" t="s">
+      <c r="C101" s="506" t="s">
         <v>798</v>
       </c>
-      <c r="D101" s="511"/>
-      <c r="E101" s="511"/>
-      <c r="F101" s="511"/>
-      <c r="G101" s="511"/>
-      <c r="H101" s="511"/>
+      <c r="D101" s="507"/>
+      <c r="E101" s="507"/>
+      <c r="F101" s="507"/>
+      <c r="G101" s="507"/>
+      <c r="H101" s="507"/>
       <c r="I101" s="312"/>
       <c r="J101" s="335"/>
     </row>
@@ -18451,14 +18454,14 @@
       <c r="B102" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="512" t="s">
+      <c r="C102" s="536" t="s">
         <v>799</v>
       </c>
-      <c r="D102" s="513"/>
-      <c r="E102" s="513"/>
-      <c r="F102" s="513"/>
-      <c r="G102" s="513"/>
-      <c r="H102" s="513"/>
+      <c r="D102" s="537"/>
+      <c r="E102" s="537"/>
+      <c r="F102" s="537"/>
+      <c r="G102" s="537"/>
+      <c r="H102" s="537"/>
       <c r="I102" s="312"/>
       <c r="J102" s="335"/>
     </row>
@@ -18466,14 +18469,14 @@
       <c r="B103" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="514" t="s">
+      <c r="C103" s="544" t="s">
         <v>580</v>
       </c>
-      <c r="D103" s="515"/>
-      <c r="E103" s="515"/>
-      <c r="F103" s="515"/>
-      <c r="G103" s="515"/>
-      <c r="H103" s="515"/>
+      <c r="D103" s="545"/>
+      <c r="E103" s="545"/>
+      <c r="F103" s="545"/>
+      <c r="G103" s="545"/>
+      <c r="H103" s="545"/>
       <c r="I103" s="312"/>
       <c r="J103" s="335"/>
     </row>
@@ -18484,15 +18487,15 @@
       <c r="C104" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="516" t="s">
+      <c r="D104" s="525" t="s">
         <v>28</v>
       </c>
-      <c r="E104" s="517"/>
-      <c r="F104" s="518" t="s">
+      <c r="E104" s="526"/>
+      <c r="F104" s="533" t="s">
         <v>32</v>
       </c>
-      <c r="G104" s="519"/>
-      <c r="H104" s="520"/>
+      <c r="G104" s="534"/>
+      <c r="H104" s="535"/>
       <c r="I104" s="290" t="s">
         <v>222</v>
       </c>
@@ -18509,11 +18512,11 @@
         <v>801</v>
       </c>
       <c r="E105" s="58"/>
-      <c r="F105" s="435" t="s">
+      <c r="F105" s="438" t="s">
         <v>802</v>
       </c>
-      <c r="G105" s="525"/>
-      <c r="H105" s="436"/>
+      <c r="G105" s="505"/>
+      <c r="H105" s="439"/>
       <c r="I105" s="310" t="s">
         <v>803</v>
       </c>
@@ -18521,6 +18524,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="C71:I71"/>
+    <mergeCell ref="C72:I72"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C62:I62"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
     <mergeCell ref="F105:H105"/>
     <mergeCell ref="C70:I70"/>
     <mergeCell ref="B2:H2"/>
@@ -18537,71 +18605,6 @@
     <mergeCell ref="I25:I30"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="H45:J45"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C62:I62"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="C71:I71"/>
-    <mergeCell ref="C72:I72"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18686,22 +18689,22 @@
       <c r="M4" s="315"/>
     </row>
     <row r="5" spans="2:13" ht="16">
-      <c r="B5" s="441" t="s">
+      <c r="B5" s="450" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="479"/>
-      <c r="E5" s="442"/>
+      <c r="C5" s="467"/>
+      <c r="D5" s="467"/>
+      <c r="E5" s="451"/>
       <c r="F5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="444" t="s">
+      <c r="G5" s="446" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="551"/>
       <c r="I5" s="551"/>
       <c r="J5" s="551"/>
-      <c r="K5" s="445"/>
+      <c r="K5" s="447"/>
       <c r="L5" s="283" t="s">
         <v>32</v>
       </c>
@@ -18734,7 +18737,7 @@
       <c r="K6" s="292" t="s">
         <v>812</v>
       </c>
-      <c r="L6" s="451" t="s">
+      <c r="L6" s="443" t="s">
         <v>813</v>
       </c>
       <c r="M6" s="273" t="s">
@@ -18766,7 +18769,7 @@
       <c r="K7" s="292" t="s">
         <v>812</v>
       </c>
-      <c r="L7" s="451"/>
+      <c r="L7" s="443"/>
       <c r="M7" s="273" t="s">
         <v>816</v>
       </c>
@@ -18796,7 +18799,7 @@
       <c r="K8" s="292" t="s">
         <v>812</v>
       </c>
-      <c r="L8" s="451"/>
+      <c r="L8" s="443"/>
       <c r="M8" s="273" t="s">
         <v>819</v>
       </c>
@@ -18826,7 +18829,7 @@
       <c r="K9" s="292" t="s">
         <v>812</v>
       </c>
-      <c r="L9" s="451"/>
+      <c r="L9" s="443"/>
       <c r="M9" s="273" t="s">
         <v>822</v>
       </c>
@@ -19644,14 +19647,14 @@
       <c r="B3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="440" t="s">
+      <c r="C3" s="449" t="s">
         <v>842</v>
       </c>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
-      <c r="G3" s="440"/>
-      <c r="H3" s="440"/>
+      <c r="D3" s="449"/>
+      <c r="E3" s="449"/>
+      <c r="F3" s="449"/>
+      <c r="G3" s="449"/>
+      <c r="H3" s="449"/>
       <c r="I3" s="315"/>
     </row>
     <row r="4" spans="1:9" ht="16">
@@ -19677,12 +19680,12 @@
       <c r="C5" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="554" t="s">
+      <c r="D5" s="555" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="555"/>
-      <c r="F5" s="555"/>
-      <c r="G5" s="556"/>
+      <c r="E5" s="556"/>
+      <c r="F5" s="556"/>
+      <c r="G5" s="557"/>
       <c r="H5" s="114" t="s">
         <v>32</v>
       </c>
@@ -19702,10 +19705,10 @@
         <v>845</v>
       </c>
       <c r="E6" s="323"/>
-      <c r="F6" s="542" t="s">
+      <c r="F6" s="524" t="s">
         <v>846</v>
       </c>
-      <c r="G6" s="542"/>
+      <c r="G6" s="524"/>
       <c r="H6" s="293" t="s">
         <v>847</v>
       </c>
@@ -19721,12 +19724,12 @@
       <c r="C7" s="345" t="s">
         <v>850</v>
       </c>
-      <c r="D7" s="542" t="s">
+      <c r="D7" s="524" t="s">
         <v>850</v>
       </c>
-      <c r="E7" s="542"/>
-      <c r="F7" s="542"/>
-      <c r="G7" s="542"/>
+      <c r="E7" s="524"/>
+      <c r="F7" s="524"/>
+      <c r="G7" s="524"/>
       <c r="H7" s="327" t="s">
         <v>851</v>
       </c>
@@ -19739,10 +19742,10 @@
       <c r="B8" s="553" t="s">
         <v>852</v>
       </c>
-      <c r="C8" s="472" t="s">
+      <c r="C8" s="486" t="s">
         <v>853</v>
       </c>
-      <c r="D8" s="542" t="s">
+      <c r="D8" s="524" t="s">
         <v>853</v>
       </c>
       <c r="E8" s="306"/>
@@ -19752,7 +19755,7 @@
       <c r="G8" s="80" t="s">
         <v>855</v>
       </c>
-      <c r="H8" s="557" t="s">
+      <c r="H8" s="554" t="s">
         <v>856</v>
       </c>
       <c r="I8" s="323" t="s">
@@ -19762,8 +19765,8 @@
     <row r="9" spans="1:9" ht="91.5" customHeight="1">
       <c r="A9" s="306"/>
       <c r="B9" s="553"/>
-      <c r="C9" s="472"/>
-      <c r="D9" s="542"/>
+      <c r="C9" s="486"/>
+      <c r="D9" s="524"/>
       <c r="E9" s="306"/>
       <c r="F9" s="288" t="s">
         <v>858</v>
@@ -19771,7 +19774,7 @@
       <c r="G9" s="80" t="s">
         <v>859</v>
       </c>
-      <c r="H9" s="557"/>
+      <c r="H9" s="554"/>
       <c r="I9" s="323" t="s">
         <v>857</v>
       </c>
@@ -20305,17 +20308,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20394,16 +20397,16 @@
       <c r="B5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="439" t="s">
+      <c r="C5" s="448" t="s">
         <v>865</v>
       </c>
-      <c r="D5" s="440"/>
-      <c r="E5" s="440"/>
-      <c r="F5" s="440"/>
-      <c r="G5" s="440"/>
-      <c r="H5" s="440"/>
-      <c r="I5" s="440"/>
-      <c r="J5" s="440"/>
+      <c r="D5" s="449"/>
+      <c r="E5" s="449"/>
+      <c r="F5" s="449"/>
+      <c r="G5" s="449"/>
+      <c r="H5" s="449"/>
+      <c r="I5" s="449"/>
+      <c r="J5" s="449"/>
       <c r="K5" s="315"/>
     </row>
     <row r="6" spans="1:11" ht="16">
@@ -20425,20 +20428,20 @@
     </row>
     <row r="7" spans="1:11" ht="16">
       <c r="A7" s="306"/>
-      <c r="B7" s="441" t="s">
+      <c r="B7" s="450" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="479"/>
-      <c r="D7" s="442"/>
+      <c r="C7" s="467"/>
+      <c r="D7" s="451"/>
       <c r="E7" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="444" t="s">
+      <c r="F7" s="446" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="551"/>
       <c r="H7" s="551"/>
-      <c r="I7" s="445"/>
+      <c r="I7" s="447"/>
       <c r="J7" s="283" t="s">
         <v>32</v>
       </c>
@@ -20462,7 +20465,7 @@
       </c>
       <c r="H8" s="295"/>
       <c r="I8" s="295"/>
-      <c r="J8" s="558" t="s">
+      <c r="J8" s="572" t="s">
         <v>870</v>
       </c>
       <c r="K8" s="273" t="s">
@@ -20485,7 +20488,7 @@
       </c>
       <c r="H9" s="295"/>
       <c r="I9" s="295"/>
-      <c r="J9" s="559"/>
+      <c r="J9" s="573"/>
       <c r="K9" s="273" t="s">
         <v>873</v>
       </c>
@@ -20506,7 +20509,7 @@
       </c>
       <c r="H10" s="295"/>
       <c r="I10" s="295"/>
-      <c r="J10" s="559"/>
+      <c r="J10" s="573"/>
       <c r="K10" s="273" t="s">
         <v>875</v>
       </c>
@@ -20527,7 +20530,7 @@
       </c>
       <c r="H11" s="295"/>
       <c r="I11" s="295"/>
-      <c r="J11" s="559"/>
+      <c r="J11" s="573"/>
       <c r="K11" s="273" t="s">
         <v>877</v>
       </c>
@@ -20548,7 +20551,7 @@
       </c>
       <c r="H12" s="295"/>
       <c r="I12" s="295"/>
-      <c r="J12" s="559"/>
+      <c r="J12" s="573"/>
       <c r="K12" s="273" t="s">
         <v>879</v>
       </c>
@@ -20569,7 +20572,7 @@
       </c>
       <c r="H13" s="295"/>
       <c r="I13" s="295"/>
-      <c r="J13" s="559"/>
+      <c r="J13" s="573"/>
       <c r="K13" s="273" t="s">
         <v>881</v>
       </c>
@@ -20590,7 +20593,7 @@
       </c>
       <c r="H14" s="295"/>
       <c r="I14" s="295"/>
-      <c r="J14" s="559"/>
+      <c r="J14" s="573"/>
       <c r="K14" s="273" t="s">
         <v>882</v>
       </c>
@@ -20611,7 +20614,7 @@
       </c>
       <c r="H15" s="295"/>
       <c r="I15" s="295"/>
-      <c r="J15" s="560"/>
+      <c r="J15" s="574"/>
       <c r="K15" s="273" t="s">
         <v>884</v>
       </c>
@@ -20636,7 +20639,7 @@
         <v>886</v>
       </c>
       <c r="I16" s="295"/>
-      <c r="J16" s="558" t="s">
+      <c r="J16" s="572" t="s">
         <v>887</v>
       </c>
       <c r="K16" s="273" t="s">
@@ -20662,7 +20665,7 @@
         <v>886</v>
       </c>
       <c r="I17" s="295"/>
-      <c r="J17" s="559"/>
+      <c r="J17" s="573"/>
       <c r="K17" s="273" t="s">
         <v>889</v>
       </c>
@@ -20686,7 +20689,7 @@
         <v>886</v>
       </c>
       <c r="I18" s="295"/>
-      <c r="J18" s="559"/>
+      <c r="J18" s="573"/>
       <c r="K18" s="273" t="s">
         <v>890</v>
       </c>
@@ -20710,7 +20713,7 @@
         <v>886</v>
       </c>
       <c r="I19" s="295"/>
-      <c r="J19" s="559"/>
+      <c r="J19" s="573"/>
       <c r="K19" s="273" t="s">
         <v>891</v>
       </c>
@@ -20734,7 +20737,7 @@
         <v>886</v>
       </c>
       <c r="I20" s="295"/>
-      <c r="J20" s="559"/>
+      <c r="J20" s="573"/>
       <c r="K20" s="273" t="s">
         <v>892</v>
       </c>
@@ -20758,7 +20761,7 @@
         <v>886</v>
       </c>
       <c r="I21" s="295"/>
-      <c r="J21" s="559"/>
+      <c r="J21" s="573"/>
       <c r="K21" s="273" t="s">
         <v>893</v>
       </c>
@@ -20782,7 +20785,7 @@
         <v>886</v>
       </c>
       <c r="I22" s="295"/>
-      <c r="J22" s="559"/>
+      <c r="J22" s="573"/>
       <c r="K22" s="273" t="s">
         <v>894</v>
       </c>
@@ -20806,7 +20809,7 @@
         <v>886</v>
       </c>
       <c r="I23" s="295"/>
-      <c r="J23" s="560"/>
+      <c r="J23" s="574"/>
       <c r="K23" s="273" t="s">
         <v>895</v>
       </c>
@@ -20834,7 +20837,7 @@
       <c r="I24" s="295" t="s">
         <v>898</v>
       </c>
-      <c r="J24" s="558" t="s">
+      <c r="J24" s="572" t="s">
         <v>899</v>
       </c>
       <c r="K24" s="273" t="s">
@@ -20864,7 +20867,7 @@
       <c r="I25" s="295" t="s">
         <v>898</v>
       </c>
-      <c r="J25" s="559"/>
+      <c r="J25" s="573"/>
       <c r="K25" s="273" t="s">
         <v>901</v>
       </c>
@@ -20892,7 +20895,7 @@
       <c r="I26" s="295" t="s">
         <v>898</v>
       </c>
-      <c r="J26" s="559"/>
+      <c r="J26" s="573"/>
       <c r="K26" s="273" t="s">
         <v>902</v>
       </c>
@@ -20920,7 +20923,7 @@
       <c r="I27" s="295" t="s">
         <v>898</v>
       </c>
-      <c r="J27" s="559"/>
+      <c r="J27" s="573"/>
       <c r="K27" s="273" t="s">
         <v>903</v>
       </c>
@@ -20948,7 +20951,7 @@
       <c r="I28" s="295" t="s">
         <v>898</v>
       </c>
-      <c r="J28" s="559"/>
+      <c r="J28" s="573"/>
       <c r="K28" s="273" t="s">
         <v>904</v>
       </c>
@@ -20976,7 +20979,7 @@
       <c r="I29" s="295" t="s">
         <v>898</v>
       </c>
-      <c r="J29" s="559"/>
+      <c r="J29" s="573"/>
       <c r="K29" s="273" t="s">
         <v>905</v>
       </c>
@@ -21004,7 +21007,7 @@
       <c r="I30" s="295" t="s">
         <v>898</v>
       </c>
-      <c r="J30" s="559"/>
+      <c r="J30" s="573"/>
       <c r="K30" s="273" t="s">
         <v>906</v>
       </c>
@@ -21032,7 +21035,7 @@
       <c r="I31" s="295" t="s">
         <v>898</v>
       </c>
-      <c r="J31" s="560"/>
+      <c r="J31" s="574"/>
       <c r="K31" s="273" t="s">
         <v>907</v>
       </c>
@@ -21086,11 +21089,11 @@
       <c r="K36" s="315"/>
     </row>
     <row r="37" spans="2:11" ht="16">
-      <c r="B37" s="441" t="s">
+      <c r="B37" s="450" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="479"/>
-      <c r="D37" s="442"/>
+      <c r="C37" s="467"/>
+      <c r="D37" s="451"/>
       <c r="E37" s="61" t="s">
         <v>31</v>
       </c>
@@ -21098,11 +21101,11 @@
         <v>28</v>
       </c>
       <c r="G37" s="291"/>
-      <c r="H37" s="477" t="s">
+      <c r="H37" s="475" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="477"/>
-      <c r="J37" s="477"/>
+      <c r="I37" s="475"/>
+      <c r="J37" s="475"/>
       <c r="K37" s="78" t="s">
         <v>222</v>
       </c>
@@ -21124,11 +21127,11 @@
         <v>914</v>
       </c>
       <c r="G38" s="295"/>
-      <c r="H38" s="566" t="s">
+      <c r="H38" s="568" t="s">
         <v>915</v>
       </c>
-      <c r="I38" s="566"/>
-      <c r="J38" s="561"/>
+      <c r="I38" s="568"/>
+      <c r="J38" s="558"/>
       <c r="K38" s="139" t="s">
         <v>916</v>
       </c>
@@ -21150,9 +21153,9 @@
         <v>914</v>
       </c>
       <c r="G39" s="295"/>
-      <c r="H39" s="566"/>
-      <c r="I39" s="566"/>
-      <c r="J39" s="561"/>
+      <c r="H39" s="568"/>
+      <c r="I39" s="568"/>
+      <c r="J39" s="558"/>
       <c r="K39" s="139" t="s">
         <v>918</v>
       </c>
@@ -21174,9 +21177,9 @@
         <v>914</v>
       </c>
       <c r="G40" s="295"/>
-      <c r="H40" s="566"/>
-      <c r="I40" s="566"/>
-      <c r="J40" s="561"/>
+      <c r="H40" s="568"/>
+      <c r="I40" s="568"/>
+      <c r="J40" s="558"/>
       <c r="K40" s="139" t="s">
         <v>920</v>
       </c>
@@ -21198,9 +21201,9 @@
         <v>914</v>
       </c>
       <c r="G41" s="295"/>
-      <c r="H41" s="566"/>
-      <c r="I41" s="566"/>
-      <c r="J41" s="561"/>
+      <c r="H41" s="568"/>
+      <c r="I41" s="568"/>
+      <c r="J41" s="558"/>
       <c r="K41" s="139" t="s">
         <v>922</v>
       </c>
@@ -21222,9 +21225,9 @@
         <v>914</v>
       </c>
       <c r="G42" s="295"/>
-      <c r="H42" s="566"/>
-      <c r="I42" s="566"/>
-      <c r="J42" s="561"/>
+      <c r="H42" s="568"/>
+      <c r="I42" s="568"/>
+      <c r="J42" s="558"/>
       <c r="K42" s="139" t="s">
         <v>924</v>
       </c>
@@ -21246,9 +21249,9 @@
         <v>914</v>
       </c>
       <c r="G43" s="295"/>
-      <c r="H43" s="566"/>
-      <c r="I43" s="566"/>
-      <c r="J43" s="561"/>
+      <c r="H43" s="568"/>
+      <c r="I43" s="568"/>
+      <c r="J43" s="558"/>
       <c r="K43" s="139" t="s">
         <v>926</v>
       </c>
@@ -21270,9 +21273,9 @@
         <v>914</v>
       </c>
       <c r="G44" s="295"/>
-      <c r="H44" s="566"/>
-      <c r="I44" s="566"/>
-      <c r="J44" s="561"/>
+      <c r="H44" s="568"/>
+      <c r="I44" s="568"/>
+      <c r="J44" s="558"/>
       <c r="K44" s="139" t="s">
         <v>928</v>
       </c>
@@ -21357,16 +21360,16 @@
       <c r="D50" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="444" t="s">
+      <c r="E50" s="446" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="551"/>
-      <c r="G50" s="445"/>
-      <c r="H50" s="563" t="s">
+      <c r="G50" s="447"/>
+      <c r="H50" s="569" t="s">
         <v>32</v>
       </c>
-      <c r="I50" s="564"/>
-      <c r="J50" s="565"/>
+      <c r="I50" s="570"/>
+      <c r="J50" s="571"/>
       <c r="K50" s="290" t="s">
         <v>222</v>
       </c>
@@ -21382,15 +21385,15 @@
         <v>932</v>
       </c>
       <c r="E51" s="138"/>
-      <c r="F51" s="561" t="s">
+      <c r="F51" s="558" t="s">
         <v>933</v>
       </c>
-      <c r="G51" s="562"/>
-      <c r="H51" s="566" t="s">
+      <c r="G51" s="559"/>
+      <c r="H51" s="568" t="s">
         <v>934</v>
       </c>
-      <c r="I51" s="566"/>
-      <c r="J51" s="561"/>
+      <c r="I51" s="568"/>
+      <c r="J51" s="558"/>
       <c r="K51" s="273" t="s">
         <v>935</v>
       </c>
@@ -21406,13 +21409,13 @@
         <v>932</v>
       </c>
       <c r="E52" s="138"/>
-      <c r="F52" s="561" t="s">
+      <c r="F52" s="558" t="s">
         <v>933</v>
       </c>
-      <c r="G52" s="562"/>
-      <c r="H52" s="566"/>
-      <c r="I52" s="566"/>
-      <c r="J52" s="561"/>
+      <c r="G52" s="559"/>
+      <c r="H52" s="568"/>
+      <c r="I52" s="568"/>
+      <c r="J52" s="558"/>
       <c r="K52" s="273" t="s">
         <v>937</v>
       </c>
@@ -21428,13 +21431,13 @@
         <v>932</v>
       </c>
       <c r="E53" s="138"/>
-      <c r="F53" s="561" t="s">
+      <c r="F53" s="558" t="s">
         <v>933</v>
       </c>
-      <c r="G53" s="562"/>
-      <c r="H53" s="566"/>
-      <c r="I53" s="566"/>
-      <c r="J53" s="561"/>
+      <c r="G53" s="559"/>
+      <c r="H53" s="568"/>
+      <c r="I53" s="568"/>
+      <c r="J53" s="558"/>
       <c r="K53" s="273" t="s">
         <v>939</v>
       </c>
@@ -21450,13 +21453,13 @@
         <v>932</v>
       </c>
       <c r="E54" s="138"/>
-      <c r="F54" s="561" t="s">
+      <c r="F54" s="558" t="s">
         <v>933</v>
       </c>
-      <c r="G54" s="562"/>
-      <c r="H54" s="566"/>
-      <c r="I54" s="566"/>
-      <c r="J54" s="561"/>
+      <c r="G54" s="559"/>
+      <c r="H54" s="568"/>
+      <c r="I54" s="568"/>
+      <c r="J54" s="558"/>
       <c r="K54" s="273" t="s">
         <v>941</v>
       </c>
@@ -21472,13 +21475,13 @@
         <v>932</v>
       </c>
       <c r="E55" s="138"/>
-      <c r="F55" s="561" t="s">
+      <c r="F55" s="558" t="s">
         <v>933</v>
       </c>
-      <c r="G55" s="562"/>
-      <c r="H55" s="566"/>
-      <c r="I55" s="566"/>
-      <c r="J55" s="561"/>
+      <c r="G55" s="559"/>
+      <c r="H55" s="568"/>
+      <c r="I55" s="568"/>
+      <c r="J55" s="558"/>
       <c r="K55" s="273" t="s">
         <v>942</v>
       </c>
@@ -21494,44 +21497,44 @@
         <v>932</v>
       </c>
       <c r="E56" s="138"/>
-      <c r="F56" s="561" t="s">
+      <c r="F56" s="558" t="s">
         <v>933</v>
       </c>
-      <c r="G56" s="562"/>
-      <c r="H56" s="566"/>
-      <c r="I56" s="566"/>
-      <c r="J56" s="561"/>
+      <c r="G56" s="559"/>
+      <c r="H56" s="568"/>
+      <c r="I56" s="568"/>
+      <c r="J56" s="558"/>
       <c r="K56" s="273" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="32">
-      <c r="B57" s="561" t="s">
+      <c r="B57" s="558" t="s">
         <v>944</v>
       </c>
-      <c r="C57" s="562"/>
+      <c r="C57" s="559"/>
       <c r="D57" s="295" t="s">
         <v>932</v>
       </c>
       <c r="E57" s="138"/>
-      <c r="F57" s="561" t="s">
+      <c r="F57" s="558" t="s">
         <v>945</v>
       </c>
-      <c r="G57" s="562"/>
-      <c r="H57" s="566" t="s">
+      <c r="G57" s="559"/>
+      <c r="H57" s="568" t="s">
         <v>946</v>
       </c>
-      <c r="I57" s="566"/>
-      <c r="J57" s="566"/>
+      <c r="I57" s="568"/>
+      <c r="J57" s="568"/>
       <c r="K57" s="300" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="48">
-      <c r="B58" s="567" t="s">
+      <c r="B58" s="560" t="s">
         <v>948</v>
       </c>
-      <c r="C58" s="568"/>
+      <c r="C58" s="561"/>
       <c r="D58" s="323" t="s">
         <v>948</v>
       </c>
@@ -21542,20 +21545,20 @@
       <c r="G58" s="323" t="s">
         <v>949</v>
       </c>
-      <c r="H58" s="542" t="s">
+      <c r="H58" s="524" t="s">
         <v>950</v>
       </c>
-      <c r="I58" s="542"/>
-      <c r="J58" s="567"/>
+      <c r="I58" s="524"/>
+      <c r="J58" s="560"/>
       <c r="K58" s="273" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="48">
-      <c r="B59" s="567" t="s">
+      <c r="B59" s="560" t="s">
         <v>952</v>
       </c>
-      <c r="C59" s="568"/>
+      <c r="C59" s="561"/>
       <c r="D59" s="323" t="s">
         <v>948</v>
       </c>
@@ -21566,9 +21569,9 @@
       <c r="G59" s="323" t="s">
         <v>949</v>
       </c>
-      <c r="H59" s="542"/>
-      <c r="I59" s="542"/>
-      <c r="J59" s="567"/>
+      <c r="H59" s="524"/>
+      <c r="I59" s="524"/>
+      <c r="J59" s="560"/>
       <c r="K59" s="273" t="s">
         <v>951</v>
       </c>
@@ -21598,15 +21601,15 @@
       <c r="K61" s="306"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="572" t="s">
+      <c r="B62" s="565" t="s">
         <v>953</v>
       </c>
-      <c r="C62" s="573"/>
-      <c r="D62" s="573"/>
-      <c r="E62" s="573"/>
-      <c r="F62" s="573"/>
-      <c r="G62" s="573"/>
-      <c r="H62" s="574"/>
+      <c r="C62" s="566"/>
+      <c r="D62" s="566"/>
+      <c r="E62" s="566"/>
+      <c r="F62" s="566"/>
+      <c r="G62" s="566"/>
+      <c r="H62" s="567"/>
       <c r="I62" s="109"/>
       <c r="J62" s="109"/>
       <c r="K62" s="306"/>
@@ -22252,15 +22255,15 @@
     </row>
     <row r="116" spans="1:11" ht="16" thickBot="1">
       <c r="A116" s="306"/>
-      <c r="B116" s="569" t="s">
+      <c r="B116" s="562" t="s">
         <v>954</v>
       </c>
-      <c r="C116" s="570"/>
-      <c r="D116" s="570"/>
-      <c r="E116" s="570"/>
-      <c r="F116" s="570"/>
-      <c r="G116" s="570"/>
-      <c r="H116" s="571"/>
+      <c r="C116" s="563"/>
+      <c r="D116" s="563"/>
+      <c r="E116" s="563"/>
+      <c r="F116" s="563"/>
+      <c r="G116" s="563"/>
+      <c r="H116" s="564"/>
       <c r="I116" s="332"/>
       <c r="J116" s="332"/>
       <c r="K116" s="306"/>
@@ -22350,16 +22353,16 @@
       <c r="C122" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D122" s="444" t="s">
+      <c r="D122" s="446" t="s">
         <v>28</v>
       </c>
       <c r="E122" s="551"/>
-      <c r="F122" s="445"/>
-      <c r="G122" s="477" t="s">
+      <c r="F122" s="447"/>
+      <c r="G122" s="475" t="s">
         <v>32</v>
       </c>
-      <c r="H122" s="477"/>
-      <c r="I122" s="477"/>
+      <c r="H122" s="475"/>
+      <c r="I122" s="475"/>
       <c r="J122" s="290" t="s">
         <v>222</v>
       </c>
@@ -22374,10 +22377,10 @@
         <v>957</v>
       </c>
       <c r="D123" s="138"/>
-      <c r="E123" s="437" t="s">
+      <c r="E123" s="441" t="s">
         <v>958</v>
       </c>
-      <c r="F123" s="438"/>
+      <c r="F123" s="442"/>
       <c r="G123" s="552" t="s">
         <v>959</v>
       </c>
@@ -22397,15 +22400,15 @@
         <v>961</v>
       </c>
       <c r="D124" s="138"/>
-      <c r="E124" s="437" t="s">
+      <c r="E124" s="441" t="s">
         <v>962</v>
       </c>
-      <c r="F124" s="438"/>
-      <c r="G124" s="446" t="s">
+      <c r="F124" s="442"/>
+      <c r="G124" s="444" t="s">
         <v>963</v>
       </c>
-      <c r="H124" s="446"/>
-      <c r="I124" s="446"/>
+      <c r="H124" s="444"/>
+      <c r="I124" s="444"/>
       <c r="J124" s="323" t="s">
         <v>964</v>
       </c>
@@ -22413,6 +22416,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="J8:J15"/>
+    <mergeCell ref="J16:J23"/>
+    <mergeCell ref="J24:J31"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="H38:J44"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G123:I123"/>
     <mergeCell ref="G124:I124"/>
@@ -22429,25 +22451,6 @@
     <mergeCell ref="H57:J57"/>
     <mergeCell ref="H58:J59"/>
     <mergeCell ref="E50:G50"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="H38:J44"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="J8:J15"/>
-    <mergeCell ref="J16:J23"/>
-    <mergeCell ref="J24:J31"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23343,10 +23346,10 @@
       <c r="C7" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="444" t="s">
+      <c r="D7" s="446" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="445"/>
+      <c r="E7" s="447"/>
       <c r="F7" s="283" t="s">
         <v>32</v>
       </c>
@@ -26673,12 +26676,12 @@
   <sheetData>
     <row r="1" spans="2:10" s="191" customFormat="1" ht="15"/>
     <row r="2" spans="2:10" s="204" customFormat="1" ht="61.5" customHeight="1">
-      <c r="B2" s="582" t="s">
+      <c r="B2" s="577" t="s">
         <v>988</v>
       </c>
-      <c r="C2" s="582"/>
-      <c r="D2" s="582"/>
-      <c r="E2" s="582"/>
+      <c r="C2" s="577"/>
+      <c r="D2" s="577"/>
+      <c r="E2" s="577"/>
       <c r="F2" s="191"/>
       <c r="G2" s="191"/>
       <c r="H2" s="315"/>
@@ -26738,16 +26741,16 @@
       <c r="C7" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="444" t="s">
+      <c r="D7" s="446" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="551"/>
-      <c r="F7" s="445"/>
-      <c r="G7" s="477" t="s">
+      <c r="F7" s="447"/>
+      <c r="G7" s="475" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="477"/>
-      <c r="I7" s="477"/>
+      <c r="H7" s="475"/>
+      <c r="I7" s="475"/>
       <c r="J7" s="290" t="s">
         <v>222</v>
       </c>
@@ -26762,13 +26765,13 @@
       <c r="D8" s="351" t="s">
         <v>993</v>
       </c>
-      <c r="E8" s="578"/>
-      <c r="F8" s="579"/>
-      <c r="G8" s="580" t="s">
+      <c r="E8" s="579"/>
+      <c r="F8" s="580"/>
+      <c r="G8" s="581" t="s">
         <v>994</v>
       </c>
-      <c r="H8" s="580"/>
-      <c r="I8" s="580"/>
+      <c r="H8" s="581"/>
+      <c r="I8" s="581"/>
       <c r="J8" s="229" t="s">
         <v>995</v>
       </c>
@@ -26836,16 +26839,16 @@
       <c r="C13" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="444" t="s">
+      <c r="D13" s="446" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="551"/>
-      <c r="F13" s="445"/>
-      <c r="G13" s="477" t="s">
+      <c r="F13" s="447"/>
+      <c r="G13" s="475" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="477"/>
-      <c r="I13" s="477"/>
+      <c r="H13" s="475"/>
+      <c r="I13" s="475"/>
       <c r="J13" s="290" t="s">
         <v>222</v>
       </c>
@@ -26864,11 +26867,11 @@
         <v>999</v>
       </c>
       <c r="F14" s="220"/>
-      <c r="G14" s="446" t="s">
+      <c r="G14" s="444" t="s">
         <v>1000</v>
       </c>
-      <c r="H14" s="446"/>
-      <c r="I14" s="446"/>
+      <c r="H14" s="444"/>
+      <c r="I14" s="444"/>
       <c r="J14" s="139" t="s">
         <v>1001</v>
       </c>
@@ -26887,9 +26890,9 @@
         <v>999</v>
       </c>
       <c r="F15" s="220"/>
-      <c r="G15" s="446"/>
-      <c r="H15" s="446"/>
-      <c r="I15" s="446"/>
+      <c r="G15" s="444"/>
+      <c r="H15" s="444"/>
+      <c r="I15" s="444"/>
       <c r="J15" s="139" t="s">
         <v>1001</v>
       </c>
@@ -26908,9 +26911,9 @@
         <v>999</v>
       </c>
       <c r="F16" s="220"/>
-      <c r="G16" s="446"/>
-      <c r="H16" s="446"/>
-      <c r="I16" s="446"/>
+      <c r="G16" s="444"/>
+      <c r="H16" s="444"/>
+      <c r="I16" s="444"/>
       <c r="J16" s="139" t="s">
         <v>1001</v>
       </c>
@@ -26929,9 +26932,9 @@
         <v>999</v>
       </c>
       <c r="F17" s="220"/>
-      <c r="G17" s="446"/>
-      <c r="H17" s="446"/>
-      <c r="I17" s="446"/>
+      <c r="G17" s="444"/>
+      <c r="H17" s="444"/>
+      <c r="I17" s="444"/>
       <c r="J17" s="139" t="s">
         <v>1001</v>
       </c>
@@ -26951,9 +26954,9 @@
         <v>999</v>
       </c>
       <c r="F18" s="220"/>
-      <c r="G18" s="446"/>
-      <c r="H18" s="446"/>
-      <c r="I18" s="446"/>
+      <c r="G18" s="444"/>
+      <c r="H18" s="444"/>
+      <c r="I18" s="444"/>
       <c r="J18" s="139" t="s">
         <v>1001</v>
       </c>
@@ -26971,9 +26974,9 @@
       </c>
       <c r="E19" s="221"/>
       <c r="F19" s="220"/>
-      <c r="G19" s="446"/>
-      <c r="H19" s="446"/>
-      <c r="I19" s="446"/>
+      <c r="G19" s="444"/>
+      <c r="H19" s="444"/>
+      <c r="I19" s="444"/>
       <c r="J19" s="220"/>
       <c r="K19" s="306"/>
     </row>
@@ -26991,9 +26994,9 @@
         <v>999</v>
       </c>
       <c r="F20" s="220"/>
-      <c r="G20" s="446"/>
-      <c r="H20" s="446"/>
-      <c r="I20" s="446"/>
+      <c r="G20" s="444"/>
+      <c r="H20" s="444"/>
+      <c r="I20" s="444"/>
       <c r="J20" s="139" t="s">
         <v>1001</v>
       </c>
@@ -27013,9 +27016,9 @@
         <v>999</v>
       </c>
       <c r="F21" s="220"/>
-      <c r="G21" s="446"/>
-      <c r="H21" s="446"/>
-      <c r="I21" s="446"/>
+      <c r="G21" s="444"/>
+      <c r="H21" s="444"/>
+      <c r="I21" s="444"/>
       <c r="J21" s="139" t="s">
         <v>1001</v>
       </c>
@@ -27035,9 +27038,9 @@
         <v>999</v>
       </c>
       <c r="F22" s="220"/>
-      <c r="G22" s="446"/>
-      <c r="H22" s="446"/>
-      <c r="I22" s="446"/>
+      <c r="G22" s="444"/>
+      <c r="H22" s="444"/>
+      <c r="I22" s="444"/>
       <c r="J22" s="139" t="s">
         <v>1001</v>
       </c>
@@ -27057,9 +27060,9 @@
         <v>999</v>
       </c>
       <c r="F23" s="220"/>
-      <c r="G23" s="446"/>
-      <c r="H23" s="446"/>
-      <c r="I23" s="446"/>
+      <c r="G23" s="444"/>
+      <c r="H23" s="444"/>
+      <c r="I23" s="444"/>
       <c r="J23" s="139" t="s">
         <v>1001</v>
       </c>
@@ -27079,9 +27082,9 @@
         <v>999</v>
       </c>
       <c r="F24" s="220"/>
-      <c r="G24" s="446"/>
-      <c r="H24" s="446"/>
-      <c r="I24" s="446"/>
+      <c r="G24" s="444"/>
+      <c r="H24" s="444"/>
+      <c r="I24" s="444"/>
       <c r="J24" s="139" t="s">
         <v>1001</v>
       </c>
@@ -27101,9 +27104,9 @@
         <v>999</v>
       </c>
       <c r="F25" s="220"/>
-      <c r="G25" s="446"/>
-      <c r="H25" s="446"/>
-      <c r="I25" s="446"/>
+      <c r="G25" s="444"/>
+      <c r="H25" s="444"/>
+      <c r="I25" s="444"/>
       <c r="J25" s="139" t="s">
         <v>1001</v>
       </c>
@@ -27123,9 +27126,9 @@
         <v>999</v>
       </c>
       <c r="F26" s="220"/>
-      <c r="G26" s="446"/>
-      <c r="H26" s="446"/>
-      <c r="I26" s="446"/>
+      <c r="G26" s="444"/>
+      <c r="H26" s="444"/>
+      <c r="I26" s="444"/>
       <c r="J26" s="139" t="s">
         <v>1001</v>
       </c>
@@ -27145,9 +27148,9 @@
         <v>999</v>
       </c>
       <c r="F27" s="220"/>
-      <c r="G27" s="446"/>
-      <c r="H27" s="446"/>
-      <c r="I27" s="446"/>
+      <c r="G27" s="444"/>
+      <c r="H27" s="444"/>
+      <c r="I27" s="444"/>
       <c r="J27" s="139" t="s">
         <v>1001</v>
       </c>
@@ -27167,9 +27170,9 @@
         <v>999</v>
       </c>
       <c r="F28" s="220"/>
-      <c r="G28" s="446"/>
-      <c r="H28" s="446"/>
-      <c r="I28" s="446"/>
+      <c r="G28" s="444"/>
+      <c r="H28" s="444"/>
+      <c r="I28" s="444"/>
       <c r="J28" s="139" t="s">
         <v>1001</v>
       </c>
@@ -27189,9 +27192,9 @@
         <v>999</v>
       </c>
       <c r="F29" s="220"/>
-      <c r="G29" s="446"/>
-      <c r="H29" s="446"/>
-      <c r="I29" s="446"/>
+      <c r="G29" s="444"/>
+      <c r="H29" s="444"/>
+      <c r="I29" s="444"/>
       <c r="J29" s="139" t="s">
         <v>1001</v>
       </c>
@@ -27211,9 +27214,9 @@
         <v>999</v>
       </c>
       <c r="F30" s="220"/>
-      <c r="G30" s="446"/>
-      <c r="H30" s="446"/>
-      <c r="I30" s="446"/>
+      <c r="G30" s="444"/>
+      <c r="H30" s="444"/>
+      <c r="I30" s="444"/>
       <c r="J30" s="139" t="s">
         <v>1001</v>
       </c>
@@ -27229,15 +27232,15 @@
       <c r="D31" s="295" t="s">
         <v>998</v>
       </c>
-      <c r="E31" s="561" t="s">
+      <c r="E31" s="558" t="s">
         <v>1015</v>
       </c>
-      <c r="F31" s="562"/>
-      <c r="G31" s="446" t="s">
+      <c r="F31" s="559"/>
+      <c r="G31" s="444" t="s">
         <v>1015</v>
       </c>
-      <c r="H31" s="446"/>
-      <c r="I31" s="446"/>
+      <c r="H31" s="444"/>
+      <c r="I31" s="444"/>
       <c r="J31" s="139" t="s">
         <v>1001</v>
       </c>
@@ -27298,16 +27301,16 @@
       <c r="C36" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="444" t="s">
+      <c r="D36" s="446" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="551"/>
-      <c r="F36" s="445"/>
-      <c r="G36" s="477" t="s">
+      <c r="F36" s="447"/>
+      <c r="G36" s="475" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="477"/>
-      <c r="I36" s="477"/>
+      <c r="H36" s="475"/>
+      <c r="I36" s="475"/>
       <c r="J36" s="290" t="s">
         <v>222</v>
       </c>
@@ -27320,16 +27323,16 @@
       <c r="C37" s="305" t="s">
         <v>1017</v>
       </c>
-      <c r="D37" s="577" t="s">
+      <c r="D37" s="578" t="s">
         <v>1018</v>
       </c>
-      <c r="E37" s="577"/>
-      <c r="F37" s="577"/>
-      <c r="G37" s="581" t="s">
+      <c r="E37" s="578"/>
+      <c r="F37" s="578"/>
+      <c r="G37" s="582" t="s">
         <v>1019</v>
       </c>
-      <c r="H37" s="581"/>
-      <c r="I37" s="581"/>
+      <c r="H37" s="582"/>
+      <c r="I37" s="582"/>
       <c r="J37" s="307" t="s">
         <v>1020</v>
       </c>
@@ -27457,11 +27460,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -27471,6 +27469,11 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27516,11 +27519,11 @@
     </row>
     <row r="2" spans="1:10" ht="49.5" customHeight="1">
       <c r="A2" s="306"/>
-      <c r="B2" s="582" t="s">
+      <c r="B2" s="577" t="s">
         <v>1021</v>
       </c>
-      <c r="C2" s="582"/>
-      <c r="D2" s="582"/>
+      <c r="C2" s="577"/>
+      <c r="D2" s="577"/>
       <c r="E2" s="192"/>
       <c r="F2" s="191"/>
       <c r="G2" s="191"/>
@@ -27590,12 +27593,12 @@
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1">
       <c r="A7" s="306"/>
-      <c r="B7" s="583" t="s">
+      <c r="B7" s="587" t="s">
         <v>532</v>
       </c>
-      <c r="C7" s="583"/>
-      <c r="D7" s="583"/>
-      <c r="E7" s="584"/>
+      <c r="C7" s="587"/>
+      <c r="D7" s="587"/>
+      <c r="E7" s="588"/>
       <c r="F7" s="61" t="s">
         <v>31</v>
       </c>
@@ -27616,10 +27619,10 @@
       <c r="C8" s="353" t="s">
         <v>1025</v>
       </c>
-      <c r="D8" s="585" t="s">
+      <c r="D8" s="592" t="s">
         <v>1026</v>
       </c>
-      <c r="E8" s="585"/>
+      <c r="E8" s="592"/>
       <c r="F8" s="354" t="s">
         <v>1027</v>
       </c>
@@ -27639,10 +27642,10 @@
       <c r="B9" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C9" s="472" t="s">
+      <c r="C9" s="486" t="s">
         <v>1032</v>
       </c>
-      <c r="D9" s="472"/>
+      <c r="D9" s="486"/>
       <c r="E9" s="553"/>
       <c r="F9" s="345" t="s">
         <v>1033</v>
@@ -27653,7 +27656,7 @@
       <c r="H9" s="553" t="s">
         <v>1035</v>
       </c>
-      <c r="I9" s="443" t="s">
+      <c r="I9" s="445" t="s">
         <v>1036</v>
       </c>
       <c r="J9" s="306"/>
@@ -27663,17 +27666,17 @@
       <c r="B10" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C10" s="472" t="s">
+      <c r="C10" s="486" t="s">
         <v>1037</v>
       </c>
-      <c r="D10" s="472"/>
+      <c r="D10" s="486"/>
       <c r="E10" s="553"/>
       <c r="F10" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G10" s="553"/>
       <c r="H10" s="553"/>
-      <c r="I10" s="443"/>
+      <c r="I10" s="445"/>
       <c r="J10" s="306"/>
     </row>
     <row r="11" spans="1:10" ht="48">
@@ -27681,17 +27684,17 @@
       <c r="B11" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C11" s="472" t="s">
+      <c r="C11" s="486" t="s">
         <v>1039</v>
       </c>
-      <c r="D11" s="472"/>
+      <c r="D11" s="486"/>
       <c r="E11" s="553"/>
       <c r="F11" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G11" s="553"/>
       <c r="H11" s="553"/>
-      <c r="I11" s="443"/>
+      <c r="I11" s="445"/>
       <c r="J11" s="306"/>
     </row>
     <row r="12" spans="1:10" ht="48">
@@ -27699,17 +27702,17 @@
       <c r="B12" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C12" s="472" t="s">
+      <c r="C12" s="486" t="s">
         <v>1040</v>
       </c>
-      <c r="D12" s="472"/>
+      <c r="D12" s="486"/>
       <c r="E12" s="553"/>
       <c r="F12" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G12" s="553"/>
       <c r="H12" s="553"/>
-      <c r="I12" s="443"/>
+      <c r="I12" s="445"/>
       <c r="J12" s="306"/>
     </row>
     <row r="13" spans="1:10" ht="48">
@@ -27717,17 +27720,17 @@
       <c r="B13" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C13" s="472" t="s">
+      <c r="C13" s="486" t="s">
         <v>1041</v>
       </c>
-      <c r="D13" s="472"/>
+      <c r="D13" s="486"/>
       <c r="E13" s="553"/>
       <c r="F13" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G13" s="553"/>
       <c r="H13" s="553"/>
-      <c r="I13" s="443"/>
+      <c r="I13" s="445"/>
       <c r="J13" s="306"/>
     </row>
     <row r="14" spans="1:10" ht="48">
@@ -27735,17 +27738,17 @@
       <c r="B14" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C14" s="472" t="s">
+      <c r="C14" s="486" t="s">
         <v>1042</v>
       </c>
-      <c r="D14" s="472"/>
+      <c r="D14" s="486"/>
       <c r="E14" s="553"/>
       <c r="F14" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G14" s="553"/>
       <c r="H14" s="553"/>
-      <c r="I14" s="443"/>
+      <c r="I14" s="445"/>
       <c r="J14" s="306"/>
     </row>
     <row r="15" spans="1:10" ht="48">
@@ -27753,17 +27756,17 @@
       <c r="B15" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C15" s="472" t="s">
+      <c r="C15" s="486" t="s">
         <v>1043</v>
       </c>
-      <c r="D15" s="472"/>
+      <c r="D15" s="486"/>
       <c r="E15" s="553"/>
       <c r="F15" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G15" s="553"/>
       <c r="H15" s="553"/>
-      <c r="I15" s="443"/>
+      <c r="I15" s="445"/>
       <c r="J15" s="306"/>
     </row>
     <row r="16" spans="1:10" ht="48">
@@ -27771,17 +27774,17 @@
       <c r="B16" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C16" s="472" t="s">
+      <c r="C16" s="486" t="s">
         <v>1044</v>
       </c>
-      <c r="D16" s="472"/>
+      <c r="D16" s="486"/>
       <c r="E16" s="553"/>
       <c r="F16" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G16" s="553"/>
       <c r="H16" s="553"/>
-      <c r="I16" s="443"/>
+      <c r="I16" s="445"/>
       <c r="J16" s="306"/>
     </row>
     <row r="17" spans="1:10" ht="48">
@@ -27789,17 +27792,17 @@
       <c r="B17" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C17" s="472" t="s">
+      <c r="C17" s="486" t="s">
         <v>1045</v>
       </c>
-      <c r="D17" s="472"/>
+      <c r="D17" s="486"/>
       <c r="E17" s="553"/>
       <c r="F17" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G17" s="553"/>
       <c r="H17" s="553"/>
-      <c r="I17" s="443"/>
+      <c r="I17" s="445"/>
       <c r="J17" s="306"/>
     </row>
     <row r="18" spans="1:10" ht="48">
@@ -27807,17 +27810,17 @@
       <c r="B18" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C18" s="472" t="s">
+      <c r="C18" s="486" t="s">
         <v>1046</v>
       </c>
-      <c r="D18" s="472"/>
+      <c r="D18" s="486"/>
       <c r="E18" s="553"/>
       <c r="F18" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G18" s="553"/>
       <c r="H18" s="553"/>
-      <c r="I18" s="443"/>
+      <c r="I18" s="445"/>
       <c r="J18" s="306"/>
     </row>
     <row r="19" spans="1:10" ht="48">
@@ -27825,17 +27828,17 @@
       <c r="B19" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C19" s="472" t="s">
+      <c r="C19" s="486" t="s">
         <v>1047</v>
       </c>
-      <c r="D19" s="472"/>
+      <c r="D19" s="486"/>
       <c r="E19" s="553"/>
       <c r="F19" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G19" s="553"/>
       <c r="H19" s="553"/>
-      <c r="I19" s="443"/>
+      <c r="I19" s="445"/>
       <c r="J19" s="306"/>
     </row>
     <row r="20" spans="1:10" ht="48">
@@ -27843,17 +27846,17 @@
       <c r="B20" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C20" s="472" t="s">
+      <c r="C20" s="486" t="s">
         <v>1048</v>
       </c>
-      <c r="D20" s="472"/>
+      <c r="D20" s="486"/>
       <c r="E20" s="553"/>
       <c r="F20" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G20" s="553"/>
       <c r="H20" s="553"/>
-      <c r="I20" s="443"/>
+      <c r="I20" s="445"/>
       <c r="J20" s="306"/>
     </row>
     <row r="21" spans="1:10" ht="48">
@@ -27861,17 +27864,17 @@
       <c r="B21" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C21" s="472" t="s">
+      <c r="C21" s="486" t="s">
         <v>1049</v>
       </c>
-      <c r="D21" s="472"/>
+      <c r="D21" s="486"/>
       <c r="E21" s="553"/>
       <c r="F21" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G21" s="553"/>
       <c r="H21" s="553"/>
-      <c r="I21" s="443" t="s">
+      <c r="I21" s="445" t="s">
         <v>1050</v>
       </c>
       <c r="J21" s="306"/>
@@ -27881,17 +27884,17 @@
       <c r="B22" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C22" s="472" t="s">
+      <c r="C22" s="486" t="s">
         <v>1051</v>
       </c>
-      <c r="D22" s="472"/>
+      <c r="D22" s="486"/>
       <c r="E22" s="553"/>
       <c r="F22" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G22" s="553"/>
       <c r="H22" s="553"/>
-      <c r="I22" s="443"/>
+      <c r="I22" s="445"/>
       <c r="J22" s="306"/>
     </row>
     <row r="23" spans="1:10" ht="48">
@@ -27899,17 +27902,17 @@
       <c r="B23" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C23" s="472" t="s">
+      <c r="C23" s="486" t="s">
         <v>1052</v>
       </c>
-      <c r="D23" s="472"/>
+      <c r="D23" s="486"/>
       <c r="E23" s="553"/>
       <c r="F23" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G23" s="553"/>
       <c r="H23" s="553"/>
-      <c r="I23" s="443"/>
+      <c r="I23" s="445"/>
       <c r="J23" s="306"/>
     </row>
     <row r="24" spans="1:10" ht="48">
@@ -27917,17 +27920,17 @@
       <c r="B24" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C24" s="472" t="s">
+      <c r="C24" s="486" t="s">
         <v>1053</v>
       </c>
-      <c r="D24" s="472"/>
+      <c r="D24" s="486"/>
       <c r="E24" s="553"/>
       <c r="F24" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G24" s="553"/>
       <c r="H24" s="553"/>
-      <c r="I24" s="443"/>
+      <c r="I24" s="445"/>
       <c r="J24" s="306"/>
     </row>
     <row r="25" spans="1:10" ht="48">
@@ -27935,17 +27938,17 @@
       <c r="B25" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C25" s="472" t="s">
+      <c r="C25" s="486" t="s">
         <v>1054</v>
       </c>
-      <c r="D25" s="472"/>
+      <c r="D25" s="486"/>
       <c r="E25" s="553"/>
       <c r="F25" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G25" s="553"/>
       <c r="H25" s="553"/>
-      <c r="I25" s="443"/>
+      <c r="I25" s="445"/>
       <c r="J25" s="306"/>
     </row>
     <row r="26" spans="1:10" ht="48">
@@ -27953,17 +27956,17 @@
       <c r="B26" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C26" s="472" t="s">
+      <c r="C26" s="486" t="s">
         <v>1055</v>
       </c>
-      <c r="D26" s="472"/>
+      <c r="D26" s="486"/>
       <c r="E26" s="553"/>
       <c r="F26" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G26" s="553"/>
       <c r="H26" s="553"/>
-      <c r="I26" s="443"/>
+      <c r="I26" s="445"/>
       <c r="J26" s="306"/>
     </row>
     <row r="27" spans="1:10" ht="48">
@@ -27971,17 +27974,17 @@
       <c r="B27" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C27" s="472" t="s">
+      <c r="C27" s="486" t="s">
         <v>1056</v>
       </c>
-      <c r="D27" s="472"/>
+      <c r="D27" s="486"/>
       <c r="E27" s="553"/>
       <c r="F27" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G27" s="553"/>
       <c r="H27" s="553"/>
-      <c r="I27" s="443"/>
+      <c r="I27" s="445"/>
       <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:10" ht="48">
@@ -27989,17 +27992,17 @@
       <c r="B28" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C28" s="472" t="s">
+      <c r="C28" s="486" t="s">
         <v>1057</v>
       </c>
-      <c r="D28" s="472"/>
+      <c r="D28" s="486"/>
       <c r="E28" s="553"/>
       <c r="F28" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G28" s="553"/>
       <c r="H28" s="553"/>
-      <c r="I28" s="443"/>
+      <c r="I28" s="445"/>
       <c r="J28" s="306"/>
     </row>
     <row r="29" spans="1:10" ht="48">
@@ -28007,17 +28010,17 @@
       <c r="B29" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C29" s="472" t="s">
+      <c r="C29" s="486" t="s">
         <v>1058</v>
       </c>
-      <c r="D29" s="472"/>
+      <c r="D29" s="486"/>
       <c r="E29" s="553"/>
       <c r="F29" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G29" s="553"/>
       <c r="H29" s="553"/>
-      <c r="I29" s="443" t="s">
+      <c r="I29" s="445" t="s">
         <v>1036</v>
       </c>
       <c r="J29" s="306"/>
@@ -28027,17 +28030,17 @@
       <c r="B30" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C30" s="472" t="s">
+      <c r="C30" s="486" t="s">
         <v>1059</v>
       </c>
-      <c r="D30" s="472"/>
+      <c r="D30" s="486"/>
       <c r="E30" s="553"/>
       <c r="F30" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G30" s="553"/>
       <c r="H30" s="553"/>
-      <c r="I30" s="443"/>
+      <c r="I30" s="445"/>
       <c r="J30" s="306"/>
     </row>
     <row r="31" spans="1:10" ht="48">
@@ -28045,17 +28048,17 @@
       <c r="B31" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C31" s="472" t="s">
+      <c r="C31" s="486" t="s">
         <v>1060</v>
       </c>
-      <c r="D31" s="472"/>
+      <c r="D31" s="486"/>
       <c r="E31" s="553"/>
       <c r="F31" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G31" s="553"/>
       <c r="H31" s="553"/>
-      <c r="I31" s="443"/>
+      <c r="I31" s="445"/>
       <c r="J31" s="306"/>
     </row>
     <row r="32" spans="1:10" ht="48">
@@ -28063,17 +28066,17 @@
       <c r="B32" s="327" t="s">
         <v>1031</v>
       </c>
-      <c r="C32" s="472" t="s">
+      <c r="C32" s="486" t="s">
         <v>1061</v>
       </c>
-      <c r="D32" s="472"/>
+      <c r="D32" s="486"/>
       <c r="E32" s="553"/>
       <c r="F32" s="345" t="s">
         <v>1038</v>
       </c>
       <c r="G32" s="553"/>
       <c r="H32" s="553"/>
-      <c r="I32" s="443"/>
+      <c r="I32" s="445"/>
       <c r="J32" s="306"/>
     </row>
     <row r="33" spans="1:10" ht="48">
@@ -28167,12 +28170,12 @@
     </row>
     <row r="39" spans="1:10" ht="16">
       <c r="A39" s="306"/>
-      <c r="B39" s="583" t="s">
+      <c r="B39" s="587" t="s">
         <v>532</v>
       </c>
-      <c r="C39" s="583"/>
-      <c r="D39" s="583"/>
-      <c r="E39" s="584"/>
+      <c r="C39" s="587"/>
+      <c r="D39" s="587"/>
+      <c r="E39" s="588"/>
       <c r="F39" s="61" t="s">
         <v>31</v>
       </c>
@@ -28189,12 +28192,12 @@
     </row>
     <row r="40" spans="1:10" ht="192">
       <c r="A40" s="306"/>
-      <c r="B40" s="587" t="s">
+      <c r="B40" s="586" t="s">
         <v>1066</v>
       </c>
-      <c r="C40" s="587"/>
-      <c r="D40" s="587"/>
-      <c r="E40" s="587"/>
+      <c r="C40" s="586"/>
+      <c r="D40" s="586"/>
+      <c r="E40" s="586"/>
       <c r="F40" s="306" t="s">
         <v>1067</v>
       </c>
@@ -28204,19 +28207,19 @@
       <c r="H40" s="326" t="s">
         <v>1069</v>
       </c>
-      <c r="I40" s="588" t="s">
+      <c r="I40" s="589" t="s">
         <v>1036</v>
       </c>
       <c r="J40" s="306"/>
     </row>
     <row r="41" spans="1:10" ht="147.75" customHeight="1">
       <c r="A41" s="306"/>
-      <c r="B41" s="586" t="s">
+      <c r="B41" s="585" t="s">
         <v>1070</v>
       </c>
-      <c r="C41" s="586"/>
-      <c r="D41" s="586"/>
-      <c r="E41" s="586"/>
+      <c r="C41" s="585"/>
+      <c r="D41" s="585"/>
+      <c r="E41" s="585"/>
       <c r="F41" s="326" t="s">
         <v>1071</v>
       </c>
@@ -28226,7 +28229,7 @@
       <c r="H41" s="326" t="s">
         <v>1073</v>
       </c>
-      <c r="I41" s="589"/>
+      <c r="I41" s="590"/>
       <c r="J41" s="306"/>
     </row>
     <row r="42" spans="1:10" ht="45" customHeight="1">
@@ -28237,20 +28240,20 @@
       <c r="C42" s="355" t="s">
         <v>1075</v>
       </c>
-      <c r="D42" s="592" t="s">
+      <c r="D42" s="584" t="s">
         <v>1076</v>
       </c>
-      <c r="E42" s="592"/>
-      <c r="F42" s="590" t="s">
+      <c r="E42" s="584"/>
+      <c r="F42" s="591" t="s">
         <v>1077</v>
       </c>
-      <c r="G42" s="590" t="s">
+      <c r="G42" s="591" t="s">
         <v>1078</v>
       </c>
-      <c r="H42" s="590" t="s">
+      <c r="H42" s="591" t="s">
         <v>1078</v>
       </c>
-      <c r="I42" s="589"/>
+      <c r="I42" s="590"/>
       <c r="J42" s="306"/>
     </row>
     <row r="43" spans="1:10" ht="45" customHeight="1">
@@ -28261,14 +28264,14 @@
       <c r="C43" s="356" t="s">
         <v>1075</v>
       </c>
-      <c r="D43" s="591" t="s">
+      <c r="D43" s="583" t="s">
         <v>1079</v>
       </c>
-      <c r="E43" s="591"/>
-      <c r="F43" s="590"/>
-      <c r="G43" s="590"/>
-      <c r="H43" s="590"/>
-      <c r="I43" s="589"/>
+      <c r="E43" s="583"/>
+      <c r="F43" s="591"/>
+      <c r="G43" s="591"/>
+      <c r="H43" s="591"/>
+      <c r="I43" s="590"/>
       <c r="J43" s="306"/>
     </row>
     <row r="44" spans="1:10" ht="45" customHeight="1">
@@ -28279,14 +28282,14 @@
       <c r="C44" s="356" t="s">
         <v>1075</v>
       </c>
-      <c r="D44" s="591" t="s">
+      <c r="D44" s="583" t="s">
         <v>1080</v>
       </c>
-      <c r="E44" s="591"/>
-      <c r="F44" s="590"/>
-      <c r="G44" s="590"/>
-      <c r="H44" s="590"/>
-      <c r="I44" s="589"/>
+      <c r="E44" s="583"/>
+      <c r="F44" s="591"/>
+      <c r="G44" s="591"/>
+      <c r="H44" s="591"/>
+      <c r="I44" s="590"/>
       <c r="J44" s="306"/>
     </row>
     <row r="45" spans="1:10" ht="45" customHeight="1">
@@ -28297,14 +28300,14 @@
       <c r="C45" s="356" t="s">
         <v>1075</v>
       </c>
-      <c r="D45" s="591" t="s">
+      <c r="D45" s="583" t="s">
         <v>1081</v>
       </c>
-      <c r="E45" s="591"/>
-      <c r="F45" s="590"/>
-      <c r="G45" s="590"/>
-      <c r="H45" s="590"/>
-      <c r="I45" s="589"/>
+      <c r="E45" s="583"/>
+      <c r="F45" s="591"/>
+      <c r="G45" s="591"/>
+      <c r="H45" s="591"/>
+      <c r="I45" s="590"/>
       <c r="J45" s="306"/>
     </row>
     <row r="46" spans="1:10" ht="45" customHeight="1">
@@ -28315,14 +28318,14 @@
       <c r="C46" s="356" t="s">
         <v>1076</v>
       </c>
-      <c r="D46" s="591" t="s">
+      <c r="D46" s="583" t="s">
         <v>1079</v>
       </c>
-      <c r="E46" s="591"/>
-      <c r="F46" s="590"/>
-      <c r="G46" s="590"/>
-      <c r="H46" s="590"/>
-      <c r="I46" s="589"/>
+      <c r="E46" s="583"/>
+      <c r="F46" s="591"/>
+      <c r="G46" s="591"/>
+      <c r="H46" s="591"/>
+      <c r="I46" s="590"/>
       <c r="J46" s="306"/>
     </row>
     <row r="47" spans="1:10" ht="45" customHeight="1">
@@ -28333,14 +28336,14 @@
       <c r="C47" s="356" t="s">
         <v>1076</v>
       </c>
-      <c r="D47" s="591" t="s">
+      <c r="D47" s="583" t="s">
         <v>1083</v>
       </c>
-      <c r="E47" s="591"/>
-      <c r="F47" s="590"/>
-      <c r="G47" s="590"/>
-      <c r="H47" s="590"/>
-      <c r="I47" s="589"/>
+      <c r="E47" s="583"/>
+      <c r="F47" s="591"/>
+      <c r="G47" s="591"/>
+      <c r="H47" s="591"/>
+      <c r="I47" s="590"/>
       <c r="J47" s="306"/>
     </row>
     <row r="48" spans="1:10" ht="45" customHeight="1">
@@ -28351,13 +28354,13 @@
       <c r="C48" s="356" t="s">
         <v>1076</v>
       </c>
-      <c r="D48" s="591" t="s">
+      <c r="D48" s="583" t="s">
         <v>1079</v>
       </c>
-      <c r="E48" s="591"/>
-      <c r="F48" s="590"/>
-      <c r="G48" s="590"/>
-      <c r="H48" s="590"/>
+      <c r="E48" s="583"/>
+      <c r="F48" s="591"/>
+      <c r="G48" s="591"/>
+      <c r="H48" s="591"/>
       <c r="I48" s="306"/>
       <c r="J48" s="306"/>
     </row>
@@ -28368,13 +28371,13 @@
       <c r="C49" s="356" t="s">
         <v>1076</v>
       </c>
-      <c r="D49" s="591" t="s">
+      <c r="D49" s="583" t="s">
         <v>1081</v>
       </c>
-      <c r="E49" s="591"/>
-      <c r="F49" s="590"/>
-      <c r="G49" s="590"/>
-      <c r="H49" s="590"/>
+      <c r="E49" s="583"/>
+      <c r="F49" s="591"/>
+      <c r="G49" s="591"/>
+      <c r="H49" s="591"/>
     </row>
     <row r="50" spans="2:8" ht="45" customHeight="1">
       <c r="B50" s="356" t="s">
@@ -28383,13 +28386,13 @@
       <c r="C50" s="356" t="s">
         <v>1084</v>
       </c>
-      <c r="D50" s="591" t="s">
+      <c r="D50" s="583" t="s">
         <v>1076</v>
       </c>
-      <c r="E50" s="591"/>
-      <c r="F50" s="590"/>
-      <c r="G50" s="590"/>
-      <c r="H50" s="590"/>
+      <c r="E50" s="583"/>
+      <c r="F50" s="591"/>
+      <c r="G50" s="591"/>
+      <c r="H50" s="591"/>
     </row>
     <row r="51" spans="2:8" ht="32">
       <c r="B51" s="356" t="s">
@@ -28398,13 +28401,13 @@
       <c r="C51" s="356" t="s">
         <v>1084</v>
       </c>
-      <c r="D51" s="591" t="s">
+      <c r="D51" s="583" t="s">
         <v>1081</v>
       </c>
-      <c r="E51" s="591"/>
-      <c r="F51" s="590"/>
-      <c r="G51" s="590"/>
-      <c r="H51" s="590"/>
+      <c r="E51" s="583"/>
+      <c r="F51" s="591"/>
+      <c r="G51" s="591"/>
+      <c r="H51" s="591"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="355"/>
@@ -28444,25 +28447,22 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I9:I20"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:G32"/>
+    <mergeCell ref="H9:H32"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="C33:E33"/>
@@ -28479,22 +28479,25 @@
     <mergeCell ref="H42:H51"/>
     <mergeCell ref="I21:I28"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I9:I20"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:G32"/>
-    <mergeCell ref="H9:H32"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28605,10 +28608,10 @@
       <c r="M5" s="326"/>
     </row>
     <row r="6" spans="2:13" ht="64">
-      <c r="B6" s="542" t="s">
+      <c r="B6" s="524" t="s">
         <v>1088</v>
       </c>
-      <c r="C6" s="542"/>
+      <c r="C6" s="524"/>
       <c r="D6" s="80" t="s">
         <v>1089</v>
       </c>
@@ -28655,17 +28658,17 @@
       <c r="M7" s="326"/>
     </row>
     <row r="8" spans="2:13" ht="48">
-      <c r="B8" s="478" t="s">
+      <c r="B8" s="485" t="s">
         <v>1097</v>
       </c>
-      <c r="C8" s="478"/>
+      <c r="C8" s="485"/>
       <c r="D8" s="328" t="s">
         <v>1098</v>
       </c>
       <c r="E8" s="273" t="s">
         <v>1099</v>
       </c>
-      <c r="F8" s="557" t="s">
+      <c r="F8" s="554" t="s">
         <v>1100</v>
       </c>
       <c r="G8" s="323" t="s">
@@ -28679,17 +28682,17 @@
       <c r="M8" s="326"/>
     </row>
     <row r="9" spans="2:13" ht="48">
-      <c r="B9" s="472" t="s">
+      <c r="B9" s="486" t="s">
         <v>824</v>
       </c>
-      <c r="C9" s="472"/>
+      <c r="C9" s="486"/>
       <c r="D9" s="328" t="s">
         <v>1098</v>
       </c>
       <c r="E9" s="273" t="s">
         <v>1099</v>
       </c>
-      <c r="F9" s="557"/>
+      <c r="F9" s="554"/>
       <c r="G9" s="323" t="s">
         <v>1101</v>
       </c>
@@ -29433,19 +29436,19 @@
     </row>
     <row r="9" spans="2:12" hidden="1"/>
     <row r="10" spans="2:12" ht="57" customHeight="1">
-      <c r="B10" s="414" t="s">
+      <c r="B10" s="400" t="s">
         <v>1682</v>
       </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="414"/>
-      <c r="K10" s="414"/>
-      <c r="L10" s="414"/>
+      <c r="C10" s="400"/>
+      <c r="D10" s="400"/>
+      <c r="E10" s="400"/>
+      <c r="F10" s="400"/>
+      <c r="G10" s="400"/>
+      <c r="H10" s="400"/>
+      <c r="I10" s="400"/>
+      <c r="J10" s="400"/>
+      <c r="K10" s="400"/>
+      <c r="L10" s="400"/>
     </row>
     <row r="11" spans="2:12" s="382" customFormat="1" ht="18.75" customHeight="1">
       <c r="B11" s="376"/>
@@ -29461,19 +29464,19 @@
       <c r="L11" s="384"/>
     </row>
     <row r="12" spans="2:12" ht="119.25" customHeight="1">
-      <c r="B12" s="416" t="s">
+      <c r="B12" s="402" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="416"/>
-      <c r="D12" s="416"/>
-      <c r="E12" s="416"/>
-      <c r="F12" s="416"/>
-      <c r="G12" s="416"/>
-      <c r="H12" s="416"/>
-      <c r="I12" s="416"/>
-      <c r="J12" s="416"/>
-      <c r="K12" s="416"/>
-      <c r="L12" s="416"/>
+      <c r="C12" s="402"/>
+      <c r="D12" s="402"/>
+      <c r="E12" s="402"/>
+      <c r="F12" s="402"/>
+      <c r="G12" s="402"/>
+      <c r="H12" s="402"/>
+      <c r="I12" s="402"/>
+      <c r="J12" s="402"/>
+      <c r="K12" s="402"/>
+      <c r="L12" s="402"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="376"/>
@@ -29486,16 +29489,16 @@
       <c r="C14" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="417" t="s">
+      <c r="D14" s="408" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="417"/>
-      <c r="F14" s="417"/>
-      <c r="G14" s="417"/>
-      <c r="H14" s="417"/>
-      <c r="I14" s="417"/>
-      <c r="J14" s="417"/>
-      <c r="K14" s="417"/>
+      <c r="E14" s="408"/>
+      <c r="F14" s="408"/>
+      <c r="G14" s="408"/>
+      <c r="H14" s="408"/>
+      <c r="I14" s="408"/>
+      <c r="J14" s="408"/>
+      <c r="K14" s="408"/>
       <c r="L14" s="224" t="s">
         <v>61</v>
       </c>
@@ -29507,16 +29510,16 @@
       <c r="C15" s="372" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="396" t="s">
+      <c r="D15" s="395" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
-      <c r="G15" s="396"/>
-      <c r="H15" s="396"/>
-      <c r="I15" s="396"/>
-      <c r="J15" s="396"/>
-      <c r="K15" s="396"/>
+      <c r="E15" s="395"/>
+      <c r="F15" s="395"/>
+      <c r="G15" s="395"/>
+      <c r="H15" s="395"/>
+      <c r="I15" s="395"/>
+      <c r="J15" s="395"/>
+      <c r="K15" s="395"/>
       <c r="L15" s="52" t="s">
         <v>65</v>
       </c>
@@ -29528,16 +29531,16 @@
       <c r="C16" s="372" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="396" t="s">
+      <c r="D16" s="395" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="396"/>
-      <c r="F16" s="396"/>
-      <c r="G16" s="396"/>
-      <c r="H16" s="396"/>
-      <c r="I16" s="396"/>
-      <c r="J16" s="396"/>
-      <c r="K16" s="396"/>
+      <c r="E16" s="395"/>
+      <c r="F16" s="395"/>
+      <c r="G16" s="395"/>
+      <c r="H16" s="395"/>
+      <c r="I16" s="395"/>
+      <c r="J16" s="395"/>
+      <c r="K16" s="395"/>
       <c r="L16" s="52" t="s">
         <v>69</v>
       </c>
@@ -29549,43 +29552,43 @@
       <c r="C17" s="372" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="395" t="s">
+      <c r="D17" s="396" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="395"/>
-      <c r="F17" s="395"/>
-      <c r="G17" s="395"/>
-      <c r="H17" s="395"/>
-      <c r="I17" s="395"/>
-      <c r="J17" s="395"/>
-      <c r="K17" s="395"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="396"/>
+      <c r="G17" s="396"/>
+      <c r="H17" s="396"/>
+      <c r="I17" s="396"/>
+      <c r="J17" s="396"/>
+      <c r="K17" s="396"/>
       <c r="L17" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="38.25" customHeight="1">
-      <c r="B18" s="408" t="s">
+      <c r="B18" s="403" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="234" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="395" t="s">
+      <c r="D18" s="396" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="395"/>
-      <c r="F18" s="395"/>
-      <c r="G18" s="395"/>
-      <c r="H18" s="395"/>
-      <c r="I18" s="395"/>
-      <c r="J18" s="395"/>
-      <c r="K18" s="395"/>
+      <c r="E18" s="396"/>
+      <c r="F18" s="396"/>
+      <c r="G18" s="396"/>
+      <c r="H18" s="396"/>
+      <c r="I18" s="396"/>
+      <c r="J18" s="396"/>
+      <c r="K18" s="396"/>
       <c r="L18" s="52" t="s">
         <v>1678</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="410"/>
+      <c r="B19" s="404"/>
       <c r="C19" s="233" t="s">
         <v>77</v>
       </c>
@@ -29610,16 +29613,16 @@
       <c r="C20" s="372" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="396" t="s">
+      <c r="D20" s="395" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="396"/>
-      <c r="F20" s="396"/>
-      <c r="G20" s="396"/>
-      <c r="H20" s="396"/>
-      <c r="I20" s="396"/>
-      <c r="J20" s="396"/>
-      <c r="K20" s="396"/>
+      <c r="E20" s="395"/>
+      <c r="F20" s="395"/>
+      <c r="G20" s="395"/>
+      <c r="H20" s="395"/>
+      <c r="I20" s="395"/>
+      <c r="J20" s="395"/>
+      <c r="K20" s="395"/>
       <c r="L20" s="52" t="s">
         <v>82</v>
       </c>
@@ -29764,16 +29767,16 @@
       <c r="C28" s="233" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="411" t="s">
+      <c r="D28" s="397" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="412"/>
-      <c r="F28" s="412"/>
-      <c r="G28" s="412"/>
-      <c r="H28" s="412"/>
-      <c r="I28" s="412"/>
-      <c r="J28" s="412"/>
-      <c r="K28" s="413"/>
+      <c r="E28" s="398"/>
+      <c r="F28" s="398"/>
+      <c r="G28" s="398"/>
+      <c r="H28" s="398"/>
+      <c r="I28" s="398"/>
+      <c r="J28" s="398"/>
+      <c r="K28" s="399"/>
       <c r="L28" s="378" t="s">
         <v>105</v>
       </c>
@@ -29785,16 +29788,16 @@
       <c r="C29" s="372" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="395" t="s">
+      <c r="D29" s="396" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="395"/>
-      <c r="F29" s="395"/>
-      <c r="G29" s="395"/>
-      <c r="H29" s="395"/>
-      <c r="I29" s="395"/>
-      <c r="J29" s="395"/>
-      <c r="K29" s="395"/>
+      <c r="E29" s="396"/>
+      <c r="F29" s="396"/>
+      <c r="G29" s="396"/>
+      <c r="H29" s="396"/>
+      <c r="I29" s="396"/>
+      <c r="J29" s="396"/>
+      <c r="K29" s="396"/>
       <c r="L29" s="52" t="s">
         <v>109</v>
       </c>
@@ -29806,170 +29809,170 @@
       <c r="C30" s="372" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="395" t="s">
+      <c r="D30" s="396" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="395"/>
-      <c r="F30" s="395"/>
-      <c r="G30" s="395"/>
-      <c r="H30" s="395"/>
-      <c r="I30" s="395"/>
-      <c r="J30" s="395"/>
-      <c r="K30" s="395"/>
+      <c r="E30" s="396"/>
+      <c r="F30" s="396"/>
+      <c r="G30" s="396"/>
+      <c r="H30" s="396"/>
+      <c r="I30" s="396"/>
+      <c r="J30" s="396"/>
+      <c r="K30" s="396"/>
       <c r="L30" s="52" t="s">
         <v>1680</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="46.5" customHeight="1">
-      <c r="B31" s="409" t="s">
+      <c r="B31" s="414" t="s">
         <v>113</v>
       </c>
       <c r="C31" s="233" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="396" t="s">
+      <c r="D31" s="395" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="396"/>
-      <c r="F31" s="396"/>
-      <c r="G31" s="396"/>
-      <c r="H31" s="396"/>
-      <c r="I31" s="396"/>
-      <c r="J31" s="396"/>
-      <c r="K31" s="396"/>
+      <c r="E31" s="395"/>
+      <c r="F31" s="395"/>
+      <c r="G31" s="395"/>
+      <c r="H31" s="395"/>
+      <c r="I31" s="395"/>
+      <c r="J31" s="395"/>
+      <c r="K31" s="395"/>
       <c r="L31" s="52" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="48">
-      <c r="B32" s="409"/>
+      <c r="B32" s="414"/>
       <c r="C32" s="233" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="396" t="s">
+      <c r="D32" s="395" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="396"/>
-      <c r="F32" s="396"/>
-      <c r="G32" s="396"/>
-      <c r="H32" s="396"/>
-      <c r="I32" s="396"/>
-      <c r="J32" s="396"/>
-      <c r="K32" s="396"/>
+      <c r="E32" s="395"/>
+      <c r="F32" s="395"/>
+      <c r="G32" s="395"/>
+      <c r="H32" s="395"/>
+      <c r="I32" s="395"/>
+      <c r="J32" s="395"/>
+      <c r="K32" s="395"/>
       <c r="L32" s="379" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B33" s="409"/>
+      <c r="B33" s="414"/>
       <c r="C33" s="233" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="396" t="s">
+      <c r="D33" s="395" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="396"/>
-      <c r="F33" s="396"/>
-      <c r="G33" s="396"/>
-      <c r="H33" s="396"/>
-      <c r="I33" s="396"/>
-      <c r="J33" s="396"/>
-      <c r="K33" s="396"/>
+      <c r="E33" s="395"/>
+      <c r="F33" s="395"/>
+      <c r="G33" s="395"/>
+      <c r="H33" s="395"/>
+      <c r="I33" s="395"/>
+      <c r="J33" s="395"/>
+      <c r="K33" s="395"/>
       <c r="L33" s="52" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B34" s="409"/>
+      <c r="B34" s="414"/>
       <c r="C34" s="233" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="396" t="s">
+      <c r="D34" s="395" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="396"/>
-      <c r="F34" s="396"/>
-      <c r="G34" s="396"/>
-      <c r="H34" s="396"/>
-      <c r="I34" s="396"/>
-      <c r="J34" s="396"/>
-      <c r="K34" s="396"/>
+      <c r="E34" s="395"/>
+      <c r="F34" s="395"/>
+      <c r="G34" s="395"/>
+      <c r="H34" s="395"/>
+      <c r="I34" s="395"/>
+      <c r="J34" s="395"/>
+      <c r="K34" s="395"/>
       <c r="L34" s="52" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B35" s="409"/>
+      <c r="B35" s="414"/>
       <c r="C35" s="233" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="396" t="s">
+      <c r="D35" s="395" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="396"/>
-      <c r="F35" s="396"/>
-      <c r="G35" s="396"/>
-      <c r="H35" s="396"/>
-      <c r="I35" s="396"/>
-      <c r="J35" s="396"/>
-      <c r="K35" s="396"/>
+      <c r="E35" s="395"/>
+      <c r="F35" s="395"/>
+      <c r="G35" s="395"/>
+      <c r="H35" s="395"/>
+      <c r="I35" s="395"/>
+      <c r="J35" s="395"/>
+      <c r="K35" s="395"/>
       <c r="L35" s="378" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B36" s="409"/>
+      <c r="B36" s="414"/>
       <c r="C36" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="396" t="s">
+      <c r="D36" s="395" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="396"/>
-      <c r="F36" s="396"/>
-      <c r="G36" s="396"/>
-      <c r="H36" s="396"/>
-      <c r="I36" s="396"/>
-      <c r="J36" s="396"/>
-      <c r="K36" s="396"/>
+      <c r="E36" s="395"/>
+      <c r="F36" s="395"/>
+      <c r="G36" s="395"/>
+      <c r="H36" s="395"/>
+      <c r="I36" s="395"/>
+      <c r="J36" s="395"/>
+      <c r="K36" s="395"/>
       <c r="L36" s="52" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="31.5" customHeight="1">
-      <c r="B37" s="409"/>
+      <c r="B37" s="414"/>
       <c r="C37" s="233" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="395" t="s">
+      <c r="D37" s="396" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="395"/>
-      <c r="F37" s="395"/>
-      <c r="G37" s="395"/>
-      <c r="H37" s="395"/>
-      <c r="I37" s="395"/>
-      <c r="J37" s="395"/>
-      <c r="K37" s="395"/>
+      <c r="E37" s="396"/>
+      <c r="F37" s="396"/>
+      <c r="G37" s="396"/>
+      <c r="H37" s="396"/>
+      <c r="I37" s="396"/>
+      <c r="J37" s="396"/>
+      <c r="K37" s="396"/>
       <c r="L37" s="52" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B38" s="410"/>
+      <c r="B38" s="404"/>
       <c r="C38" s="233" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="396" t="s">
+      <c r="D38" s="395" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="396"/>
-      <c r="F38" s="396"/>
-      <c r="G38" s="396"/>
-      <c r="H38" s="396"/>
-      <c r="I38" s="396"/>
-      <c r="J38" s="396"/>
-      <c r="K38" s="396"/>
+      <c r="E38" s="395"/>
+      <c r="F38" s="395"/>
+      <c r="G38" s="395"/>
+      <c r="H38" s="395"/>
+      <c r="I38" s="395"/>
+      <c r="J38" s="395"/>
+      <c r="K38" s="395"/>
       <c r="L38" s="52" t="s">
         <v>102</v>
       </c>
@@ -29981,16 +29984,16 @@
       <c r="C39" s="372" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="395" t="s">
+      <c r="D39" s="396" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="395"/>
-      <c r="F39" s="395"/>
-      <c r="G39" s="395"/>
-      <c r="H39" s="395"/>
-      <c r="I39" s="395"/>
-      <c r="J39" s="395"/>
-      <c r="K39" s="395"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="396"/>
+      <c r="G39" s="396"/>
+      <c r="H39" s="396"/>
+      <c r="I39" s="396"/>
+      <c r="J39" s="396"/>
+      <c r="K39" s="396"/>
       <c r="L39" s="52" t="s">
         <v>1681</v>
       </c>
@@ -30002,233 +30005,233 @@
       <c r="C40" s="372" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="395" t="s">
+      <c r="D40" s="396" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="395"/>
-      <c r="F40" s="395"/>
-      <c r="G40" s="395"/>
-      <c r="H40" s="395"/>
-      <c r="I40" s="395"/>
-      <c r="J40" s="395"/>
-      <c r="K40" s="395"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="396"/>
+      <c r="G40" s="396"/>
+      <c r="H40" s="396"/>
+      <c r="I40" s="396"/>
+      <c r="J40" s="396"/>
+      <c r="K40" s="396"/>
       <c r="L40" s="52" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B41" s="408" t="s">
+      <c r="B41" s="403" t="s">
         <v>144</v>
       </c>
       <c r="C41" s="372" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="396" t="s">
+      <c r="D41" s="395" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="396"/>
-      <c r="F41" s="396"/>
-      <c r="G41" s="396"/>
-      <c r="H41" s="396"/>
-      <c r="I41" s="396"/>
-      <c r="J41" s="396"/>
-      <c r="K41" s="396"/>
+      <c r="E41" s="395"/>
+      <c r="F41" s="395"/>
+      <c r="G41" s="395"/>
+      <c r="H41" s="395"/>
+      <c r="I41" s="395"/>
+      <c r="J41" s="395"/>
+      <c r="K41" s="395"/>
       <c r="L41" s="52" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B42" s="409"/>
+      <c r="B42" s="414"/>
       <c r="C42" s="372" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="396" t="s">
+      <c r="D42" s="395" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="396"/>
-      <c r="F42" s="396"/>
-      <c r="G42" s="396"/>
-      <c r="H42" s="396"/>
-      <c r="I42" s="396"/>
-      <c r="J42" s="396"/>
-      <c r="K42" s="396"/>
+      <c r="E42" s="395"/>
+      <c r="F42" s="395"/>
+      <c r="G42" s="395"/>
+      <c r="H42" s="395"/>
+      <c r="I42" s="395"/>
+      <c r="J42" s="395"/>
+      <c r="K42" s="395"/>
       <c r="L42" s="52" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="48">
-      <c r="B43" s="409"/>
+      <c r="B43" s="414"/>
       <c r="C43" s="372" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="396" t="s">
+      <c r="D43" s="395" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="396"/>
-      <c r="F43" s="396"/>
-      <c r="G43" s="396"/>
-      <c r="H43" s="396"/>
-      <c r="I43" s="396"/>
-      <c r="J43" s="396"/>
-      <c r="K43" s="396"/>
+      <c r="E43" s="395"/>
+      <c r="F43" s="395"/>
+      <c r="G43" s="395"/>
+      <c r="H43" s="395"/>
+      <c r="I43" s="395"/>
+      <c r="J43" s="395"/>
+      <c r="K43" s="395"/>
       <c r="L43" s="52" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="48">
-      <c r="B44" s="410"/>
+      <c r="B44" s="404"/>
       <c r="C44" s="372" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="396" t="s">
+      <c r="D44" s="395" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="396"/>
-      <c r="F44" s="396"/>
-      <c r="G44" s="396"/>
-      <c r="H44" s="396"/>
-      <c r="I44" s="396"/>
-      <c r="J44" s="396"/>
-      <c r="K44" s="396"/>
+      <c r="E44" s="395"/>
+      <c r="F44" s="395"/>
+      <c r="G44" s="395"/>
+      <c r="H44" s="395"/>
+      <c r="I44" s="395"/>
+      <c r="J44" s="395"/>
+      <c r="K44" s="395"/>
       <c r="L44" s="52" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="20.25" customHeight="1">
-      <c r="B45" s="400" t="s">
+      <c r="B45" s="413" t="s">
         <v>157</v>
       </c>
       <c r="C45" s="372" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="396" t="s">
+      <c r="D45" s="395" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="396"/>
-      <c r="F45" s="396"/>
-      <c r="G45" s="396"/>
-      <c r="H45" s="396"/>
-      <c r="I45" s="396"/>
-      <c r="J45" s="396"/>
-      <c r="K45" s="396"/>
+      <c r="E45" s="395"/>
+      <c r="F45" s="395"/>
+      <c r="G45" s="395"/>
+      <c r="H45" s="395"/>
+      <c r="I45" s="395"/>
+      <c r="J45" s="395"/>
+      <c r="K45" s="395"/>
       <c r="L45" s="52" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="41.25" customHeight="1">
-      <c r="B46" s="400"/>
+      <c r="B46" s="413"/>
       <c r="C46" s="372" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="396" t="s">
+      <c r="D46" s="395" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="396"/>
-      <c r="F46" s="396"/>
-      <c r="G46" s="396"/>
-      <c r="H46" s="396"/>
-      <c r="I46" s="396"/>
-      <c r="J46" s="396"/>
-      <c r="K46" s="396"/>
+      <c r="E46" s="395"/>
+      <c r="F46" s="395"/>
+      <c r="G46" s="395"/>
+      <c r="H46" s="395"/>
+      <c r="I46" s="395"/>
+      <c r="J46" s="395"/>
+      <c r="K46" s="395"/>
       <c r="L46" s="52" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="46.5" customHeight="1">
-      <c r="B47" s="400" t="s">
+      <c r="B47" s="413" t="s">
         <v>164</v>
       </c>
       <c r="C47" s="372" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="415" t="s">
+      <c r="D47" s="401" t="s">
         <v>166</v>
       </c>
-      <c r="E47" s="415"/>
-      <c r="F47" s="415"/>
-      <c r="G47" s="415"/>
-      <c r="H47" s="415"/>
-      <c r="I47" s="415"/>
-      <c r="J47" s="415"/>
-      <c r="K47" s="415"/>
+      <c r="E47" s="401"/>
+      <c r="F47" s="401"/>
+      <c r="G47" s="401"/>
+      <c r="H47" s="401"/>
+      <c r="I47" s="401"/>
+      <c r="J47" s="401"/>
+      <c r="K47" s="401"/>
       <c r="L47" s="52" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B48" s="400"/>
+      <c r="B48" s="413"/>
       <c r="C48" s="372" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="415" t="s">
+      <c r="D48" s="401" t="s">
         <v>169</v>
       </c>
-      <c r="E48" s="415"/>
-      <c r="F48" s="415"/>
-      <c r="G48" s="415"/>
-      <c r="H48" s="415"/>
-      <c r="I48" s="415"/>
-      <c r="J48" s="415"/>
-      <c r="K48" s="415"/>
+      <c r="E48" s="401"/>
+      <c r="F48" s="401"/>
+      <c r="G48" s="401"/>
+      <c r="H48" s="401"/>
+      <c r="I48" s="401"/>
+      <c r="J48" s="401"/>
+      <c r="K48" s="401"/>
       <c r="L48" s="52" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:233" ht="42.75" customHeight="1">
-      <c r="B49" s="400"/>
+      <c r="B49" s="413"/>
       <c r="C49" s="372" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="418" t="s">
+      <c r="D49" s="394" t="s">
         <v>172</v>
       </c>
-      <c r="E49" s="418"/>
-      <c r="F49" s="418"/>
-      <c r="G49" s="418"/>
-      <c r="H49" s="418"/>
-      <c r="I49" s="418"/>
-      <c r="J49" s="418"/>
-      <c r="K49" s="418"/>
+      <c r="E49" s="394"/>
+      <c r="F49" s="394"/>
+      <c r="G49" s="394"/>
+      <c r="H49" s="394"/>
+      <c r="I49" s="394"/>
+      <c r="J49" s="394"/>
+      <c r="K49" s="394"/>
       <c r="L49" s="52" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:233" ht="48">
-      <c r="B50" s="400" t="s">
+      <c r="B50" s="413" t="s">
         <v>174</v>
       </c>
       <c r="C50" s="372" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="396" t="s">
+      <c r="D50" s="395" t="s">
         <v>176</v>
       </c>
-      <c r="E50" s="396"/>
-      <c r="F50" s="396"/>
-      <c r="G50" s="396"/>
-      <c r="H50" s="396"/>
-      <c r="I50" s="396"/>
-      <c r="J50" s="396"/>
-      <c r="K50" s="396"/>
+      <c r="E50" s="395"/>
+      <c r="F50" s="395"/>
+      <c r="G50" s="395"/>
+      <c r="H50" s="395"/>
+      <c r="I50" s="395"/>
+      <c r="J50" s="395"/>
+      <c r="K50" s="395"/>
       <c r="L50" s="52" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:233" ht="48">
-      <c r="B51" s="400"/>
+      <c r="B51" s="413"/>
       <c r="C51" s="372" t="s">
         <v>178</v>
       </c>
-      <c r="D51" s="396" t="s">
+      <c r="D51" s="395" t="s">
         <v>179</v>
       </c>
-      <c r="E51" s="396"/>
-      <c r="F51" s="396"/>
-      <c r="G51" s="396"/>
-      <c r="H51" s="396"/>
-      <c r="I51" s="396"/>
-      <c r="J51" s="396"/>
-      <c r="K51" s="396"/>
+      <c r="E51" s="395"/>
+      <c r="F51" s="395"/>
+      <c r="G51" s="395"/>
+      <c r="H51" s="395"/>
+      <c r="I51" s="395"/>
+      <c r="J51" s="395"/>
+      <c r="K51" s="395"/>
       <c r="L51" s="52" t="s">
         <v>180</v>
       </c>
@@ -30240,35 +30243,35 @@
       <c r="C52" s="372" t="s">
         <v>182</v>
       </c>
-      <c r="D52" s="396" t="s">
+      <c r="D52" s="395" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="396"/>
-      <c r="F52" s="396"/>
-      <c r="G52" s="396"/>
-      <c r="H52" s="396"/>
-      <c r="I52" s="396"/>
-      <c r="J52" s="396"/>
-      <c r="K52" s="396"/>
+      <c r="E52" s="395"/>
+      <c r="F52" s="395"/>
+      <c r="G52" s="395"/>
+      <c r="H52" s="395"/>
+      <c r="I52" s="395"/>
+      <c r="J52" s="395"/>
+      <c r="K52" s="395"/>
       <c r="L52" s="52" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:233" s="381" customFormat="1" ht="17.25" customHeight="1">
       <c r="A53" s="380"/>
-      <c r="B53" s="397" t="s">
+      <c r="B53" s="416" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="398"/>
-      <c r="D53" s="398"/>
-      <c r="E53" s="398"/>
-      <c r="F53" s="398"/>
-      <c r="G53" s="398"/>
-      <c r="H53" s="398"/>
-      <c r="I53" s="398"/>
-      <c r="J53" s="398"/>
-      <c r="K53" s="398"/>
-      <c r="L53" s="399"/>
+      <c r="C53" s="417"/>
+      <c r="D53" s="417"/>
+      <c r="E53" s="417"/>
+      <c r="F53" s="417"/>
+      <c r="G53" s="417"/>
+      <c r="H53" s="417"/>
+      <c r="I53" s="417"/>
+      <c r="J53" s="417"/>
+      <c r="K53" s="417"/>
+      <c r="L53" s="418"/>
       <c r="M53" s="380"/>
       <c r="N53" s="380"/>
       <c r="O53" s="380"/>
@@ -30498,16 +30501,16 @@
       <c r="C54" s="225" t="s">
         <v>187</v>
       </c>
-      <c r="D54" s="396" t="s">
+      <c r="D54" s="395" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="396"/>
-      <c r="F54" s="396"/>
-      <c r="G54" s="396"/>
-      <c r="H54" s="396"/>
-      <c r="I54" s="396"/>
-      <c r="J54" s="396"/>
-      <c r="K54" s="396"/>
+      <c r="E54" s="395"/>
+      <c r="F54" s="395"/>
+      <c r="G54" s="395"/>
+      <c r="H54" s="395"/>
+      <c r="I54" s="395"/>
+      <c r="J54" s="395"/>
+      <c r="K54" s="395"/>
       <c r="L54" s="52" t="s">
         <v>189</v>
       </c>
@@ -30740,16 +30743,16 @@
       <c r="C55" s="226" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="395" t="s">
+      <c r="D55" s="396" t="s">
         <v>192</v>
       </c>
-      <c r="E55" s="395"/>
-      <c r="F55" s="395"/>
-      <c r="G55" s="395"/>
-      <c r="H55" s="395"/>
-      <c r="I55" s="395"/>
-      <c r="J55" s="395"/>
-      <c r="K55" s="395"/>
+      <c r="E55" s="396"/>
+      <c r="F55" s="396"/>
+      <c r="G55" s="396"/>
+      <c r="H55" s="396"/>
+      <c r="I55" s="396"/>
+      <c r="J55" s="396"/>
+      <c r="K55" s="396"/>
       <c r="L55" s="52" t="s">
         <v>193</v>
       </c>
@@ -30761,16 +30764,16 @@
       <c r="C56" s="226" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="396" t="s">
+      <c r="D56" s="395" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="396"/>
-      <c r="F56" s="396"/>
-      <c r="G56" s="396"/>
-      <c r="H56" s="396"/>
-      <c r="I56" s="396"/>
-      <c r="J56" s="396"/>
-      <c r="K56" s="396"/>
+      <c r="E56" s="395"/>
+      <c r="F56" s="395"/>
+      <c r="G56" s="395"/>
+      <c r="H56" s="395"/>
+      <c r="I56" s="395"/>
+      <c r="J56" s="395"/>
+      <c r="K56" s="395"/>
       <c r="L56" s="52" t="s">
         <v>197</v>
       </c>
@@ -30782,16 +30785,16 @@
       <c r="C57" s="227" t="s">
         <v>199</v>
       </c>
-      <c r="D57" s="394" t="s">
+      <c r="D57" s="415" t="s">
         <v>200</v>
       </c>
-      <c r="E57" s="394"/>
-      <c r="F57" s="394"/>
-      <c r="G57" s="394"/>
-      <c r="H57" s="394"/>
-      <c r="I57" s="394"/>
-      <c r="J57" s="394"/>
-      <c r="K57" s="394"/>
+      <c r="E57" s="415"/>
+      <c r="F57" s="415"/>
+      <c r="G57" s="415"/>
+      <c r="H57" s="415"/>
+      <c r="I57" s="415"/>
+      <c r="J57" s="415"/>
+      <c r="K57" s="415"/>
       <c r="L57" s="52" t="s">
         <v>201</v>
       </c>
@@ -30803,33 +30806,33 @@
       <c r="C58" s="227" t="s">
         <v>203</v>
       </c>
-      <c r="D58" s="394" t="s">
+      <c r="D58" s="415" t="s">
         <v>204</v>
       </c>
-      <c r="E58" s="394"/>
-      <c r="F58" s="394"/>
-      <c r="G58" s="394"/>
-      <c r="H58" s="394"/>
-      <c r="I58" s="394"/>
-      <c r="J58" s="394"/>
-      <c r="K58" s="394"/>
+      <c r="E58" s="415"/>
+      <c r="F58" s="415"/>
+      <c r="G58" s="415"/>
+      <c r="H58" s="415"/>
+      <c r="I58" s="415"/>
+      <c r="J58" s="415"/>
+      <c r="K58" s="415"/>
       <c r="L58" s="52" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:233" ht="33.75" customHeight="1">
-      <c r="B60" s="401" t="s">
+      <c r="B60" s="409" t="s">
         <v>1683</v>
       </c>
-      <c r="C60" s="402"/>
-      <c r="D60" s="402"/>
-      <c r="E60" s="402"/>
-      <c r="F60" s="403" t="s">
+      <c r="C60" s="410"/>
+      <c r="D60" s="410"/>
+      <c r="E60" s="410"/>
+      <c r="F60" s="411" t="s">
         <v>1684</v>
       </c>
-      <c r="G60" s="403"/>
-      <c r="H60" s="403"/>
-      <c r="I60" s="404"/>
+      <c r="G60" s="411"/>
+      <c r="H60" s="411"/>
+      <c r="I60" s="412"/>
       <c r="K60" s="375"/>
     </row>
     <row r="61" spans="1:233" ht="16">
@@ -30858,12 +30861,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D43:K43"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="D58:K58"/>
+    <mergeCell ref="D55:K55"/>
+    <mergeCell ref="D54:K54"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D57:K57"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D34:K34"/>
     <mergeCell ref="D28:K28"/>
     <mergeCell ref="D29:K29"/>
     <mergeCell ref="B10:L10"/>
@@ -30880,39 +30910,12 @@
     <mergeCell ref="D18:K18"/>
     <mergeCell ref="D14:K14"/>
     <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D58:K58"/>
-    <mergeCell ref="D55:K55"/>
-    <mergeCell ref="D54:K54"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D57:K57"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="B53:L53"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D43:K43"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="D46:K46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F60" r:id="rId1" display="https://creativecommons.org/licenses/by-nc-sa/3.0/igo" xr:uid="{0BC82CEA-2996-4A54-8BDA-926B6454A752}"/>
@@ -31034,10 +31037,10 @@
       <c r="J4" s="301" t="s">
         <v>1123</v>
       </c>
-      <c r="K4" s="580" t="s">
+      <c r="K4" s="581" t="s">
         <v>1124</v>
       </c>
-      <c r="L4" s="580" t="s">
+      <c r="L4" s="581" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -40921,13 +40924,13 @@
       <c r="B3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="439" t="s">
+      <c r="C3" s="448" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
-      <c r="G3" s="440"/>
+      <c r="D3" s="449"/>
+      <c r="E3" s="449"/>
+      <c r="F3" s="449"/>
+      <c r="G3" s="449"/>
       <c r="H3" s="259"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1">
@@ -40946,17 +40949,17 @@
     </row>
     <row r="5" spans="1:8" s="72" customFormat="1" ht="16">
       <c r="A5" s="315"/>
-      <c r="B5" s="441" t="s">
+      <c r="B5" s="450" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="442"/>
+      <c r="C5" s="451"/>
       <c r="D5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="444" t="s">
+      <c r="E5" s="446" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="445"/>
+      <c r="F5" s="447"/>
       <c r="G5" s="283" t="s">
         <v>221</v>
       </c>
@@ -40966,17 +40969,17 @@
     </row>
     <row r="6" spans="1:8" ht="64">
       <c r="A6" s="312"/>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="438" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="436"/>
+      <c r="C6" s="439"/>
       <c r="D6" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="435" t="s">
+      <c r="E6" s="438" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="436"/>
+      <c r="F6" s="439"/>
       <c r="G6" s="74" t="s">
         <v>257</v>
       </c>
@@ -40986,17 +40989,17 @@
     </row>
     <row r="7" spans="1:8" ht="64">
       <c r="A7" s="312"/>
-      <c r="B7" s="437" t="s">
+      <c r="B7" s="441" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="438"/>
+      <c r="C7" s="442"/>
       <c r="D7" s="274" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="435" t="s">
+      <c r="E7" s="438" t="s">
         <v>256</v>
       </c>
-      <c r="F7" s="436"/>
+      <c r="F7" s="439"/>
       <c r="G7" s="58" t="s">
         <v>261</v>
       </c>
@@ -41006,17 +41009,17 @@
     </row>
     <row r="8" spans="1:8" ht="48">
       <c r="A8" s="312"/>
-      <c r="B8" s="435" t="s">
+      <c r="B8" s="438" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="436"/>
+      <c r="C8" s="439"/>
       <c r="D8" s="274" t="s">
         <v>264</v>
       </c>
-      <c r="E8" s="435" t="s">
+      <c r="E8" s="438" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="436"/>
+      <c r="F8" s="439"/>
       <c r="G8" s="58" t="s">
         <v>265</v>
       </c>
@@ -41026,17 +41029,17 @@
     </row>
     <row r="9" spans="1:8" ht="64">
       <c r="A9" s="312"/>
-      <c r="B9" s="437" t="s">
+      <c r="B9" s="441" t="s">
         <v>267</v>
       </c>
-      <c r="C9" s="438"/>
+      <c r="C9" s="442"/>
       <c r="D9" s="274" t="s">
         <v>268</v>
       </c>
-      <c r="E9" s="435" t="s">
+      <c r="E9" s="438" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="436"/>
+      <c r="F9" s="439"/>
       <c r="G9" s="58" t="s">
         <v>269</v>
       </c>
@@ -41046,17 +41049,17 @@
     </row>
     <row r="10" spans="1:8" ht="48">
       <c r="A10" s="312"/>
-      <c r="B10" s="435" t="s">
+      <c r="B10" s="438" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="436"/>
+      <c r="C10" s="439"/>
       <c r="D10" s="274" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="435" t="s">
+      <c r="E10" s="438" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="436"/>
+      <c r="F10" s="439"/>
       <c r="G10" s="58" t="s">
         <v>272</v>
       </c>
@@ -41066,17 +41069,17 @@
     </row>
     <row r="11" spans="1:8" ht="49.5" customHeight="1">
       <c r="A11" s="312"/>
-      <c r="B11" s="437" t="s">
+      <c r="B11" s="441" t="s">
         <v>274</v>
       </c>
-      <c r="C11" s="438"/>
+      <c r="C11" s="442"/>
       <c r="D11" s="177" t="s">
         <v>275</v>
       </c>
-      <c r="E11" s="435" t="s">
+      <c r="E11" s="438" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="436"/>
+      <c r="F11" s="439"/>
       <c r="G11" s="58" t="s">
         <v>276</v>
       </c>
@@ -41098,10 +41101,10 @@
       <c r="E12" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="F12" s="443" t="s">
+      <c r="F12" s="445" t="s">
         <v>280</v>
       </c>
-      <c r="G12" s="443" t="s">
+      <c r="G12" s="445" t="s">
         <v>281</v>
       </c>
       <c r="H12" s="55" t="s">
@@ -41122,8 +41125,8 @@
       <c r="E13" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="F13" s="443"/>
-      <c r="G13" s="443"/>
+      <c r="F13" s="445"/>
+      <c r="G13" s="445"/>
       <c r="H13" s="55" t="s">
         <v>282</v>
       </c>
@@ -41142,8 +41145,8 @@
       <c r="E14" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="F14" s="443"/>
-      <c r="G14" s="443"/>
+      <c r="F14" s="445"/>
+      <c r="G14" s="445"/>
       <c r="H14" s="55"/>
     </row>
     <row r="15" spans="1:8" ht="80">
@@ -41160,23 +41163,23 @@
       <c r="E15" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="F15" s="443"/>
-      <c r="G15" s="443"/>
+      <c r="F15" s="445"/>
+      <c r="G15" s="445"/>
       <c r="H15" s="55"/>
     </row>
     <row r="16" spans="1:8" ht="48">
       <c r="A16" s="312"/>
-      <c r="B16" s="435" t="s">
+      <c r="B16" s="438" t="s">
         <v>289</v>
       </c>
-      <c r="C16" s="436"/>
+      <c r="C16" s="439"/>
       <c r="D16" s="177" t="s">
         <v>290</v>
       </c>
-      <c r="E16" s="435" t="s">
+      <c r="E16" s="438" t="s">
         <v>256</v>
       </c>
-      <c r="F16" s="436"/>
+      <c r="F16" s="439"/>
       <c r="G16" s="58" t="s">
         <v>291</v>
       </c>
@@ -41185,17 +41188,17 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="48">
-      <c r="B17" s="437" t="s">
+      <c r="B17" s="441" t="s">
         <v>293</v>
       </c>
-      <c r="C17" s="438"/>
+      <c r="C17" s="442"/>
       <c r="D17" s="177" t="s">
         <v>294</v>
       </c>
-      <c r="E17" s="435" t="s">
+      <c r="E17" s="438" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="436"/>
+      <c r="F17" s="439"/>
       <c r="G17" s="58" t="s">
         <v>295</v>
       </c>
@@ -41214,11 +41217,11 @@
       <c r="D18" s="178" t="s">
         <v>298</v>
       </c>
-      <c r="E18" s="435" t="s">
+      <c r="E18" s="438" t="s">
         <v>256</v>
       </c>
-      <c r="F18" s="436"/>
-      <c r="G18" s="446" t="s">
+      <c r="F18" s="439"/>
+      <c r="G18" s="444" t="s">
         <v>299</v>
       </c>
       <c r="H18" s="310" t="s">
@@ -41238,11 +41241,11 @@
       <c r="D19" s="178" t="s">
         <v>298</v>
       </c>
-      <c r="E19" s="435" t="s">
+      <c r="E19" s="438" t="s">
         <v>256</v>
       </c>
-      <c r="F19" s="436"/>
-      <c r="G19" s="446"/>
+      <c r="F19" s="439"/>
+      <c r="G19" s="444"/>
       <c r="H19" s="310" t="s">
         <v>300</v>
       </c>
@@ -41258,11 +41261,11 @@
       <c r="D20" s="178" t="s">
         <v>298</v>
       </c>
-      <c r="E20" s="435" t="s">
+      <c r="E20" s="438" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="436"/>
-      <c r="G20" s="446"/>
+      <c r="F20" s="439"/>
+      <c r="G20" s="444"/>
       <c r="H20" s="309"/>
       <c r="I20" s="304"/>
     </row>
@@ -41276,19 +41279,19 @@
       <c r="D21" s="178" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="435" t="s">
+      <c r="E21" s="438" t="s">
         <v>256</v>
       </c>
-      <c r="F21" s="436"/>
-      <c r="G21" s="446"/>
+      <c r="F21" s="439"/>
+      <c r="G21" s="444"/>
       <c r="H21" s="309"/>
       <c r="I21" s="304"/>
     </row>
     <row r="22" spans="2:9" ht="45" customHeight="1">
-      <c r="B22" s="435" t="s">
+      <c r="B22" s="438" t="s">
         <v>305</v>
       </c>
-      <c r="C22" s="436"/>
+      <c r="C22" s="439"/>
       <c r="D22" s="310" t="s">
         <v>306</v>
       </c>
@@ -41298,7 +41301,7 @@
       <c r="F22" s="310" t="s">
         <v>306</v>
       </c>
-      <c r="G22" s="446" t="s">
+      <c r="G22" s="444" t="s">
         <v>307</v>
       </c>
       <c r="H22" s="110" t="s">
@@ -41307,10 +41310,10 @@
       <c r="I22" s="312"/>
     </row>
     <row r="23" spans="2:9" ht="75" customHeight="1">
-      <c r="B23" s="450" t="s">
+      <c r="B23" s="440" t="s">
         <v>309</v>
       </c>
-      <c r="C23" s="436"/>
+      <c r="C23" s="439"/>
       <c r="D23" s="310" t="s">
         <v>306</v>
       </c>
@@ -41320,17 +41323,17 @@
       <c r="F23" s="310" t="s">
         <v>306</v>
       </c>
-      <c r="G23" s="446"/>
-      <c r="H23" s="447" t="s">
+      <c r="G23" s="444"/>
+      <c r="H23" s="435" t="s">
         <v>310</v>
       </c>
       <c r="I23" s="312"/>
     </row>
     <row r="24" spans="2:9" ht="48">
-      <c r="B24" s="437" t="s">
+      <c r="B24" s="441" t="s">
         <v>311</v>
       </c>
-      <c r="C24" s="438"/>
+      <c r="C24" s="442"/>
       <c r="D24" s="310" t="s">
         <v>306</v>
       </c>
@@ -41340,15 +41343,15 @@
       <c r="F24" s="310" t="s">
         <v>306</v>
       </c>
-      <c r="G24" s="446"/>
-      <c r="H24" s="448"/>
+      <c r="G24" s="444"/>
+      <c r="H24" s="436"/>
       <c r="I24" s="304"/>
     </row>
     <row r="25" spans="2:9" ht="75" customHeight="1">
-      <c r="B25" s="451" t="s">
+      <c r="B25" s="443" t="s">
         <v>312</v>
       </c>
-      <c r="C25" s="438"/>
+      <c r="C25" s="442"/>
       <c r="D25" s="310" t="s">
         <v>306</v>
       </c>
@@ -41358,15 +41361,15 @@
       <c r="F25" s="310" t="s">
         <v>306</v>
       </c>
-      <c r="G25" s="446"/>
-      <c r="H25" s="449"/>
+      <c r="G25" s="444"/>
+      <c r="H25" s="437"/>
       <c r="I25" s="304"/>
     </row>
     <row r="26" spans="2:9" ht="32">
-      <c r="B26" s="435" t="s">
+      <c r="B26" s="438" t="s">
         <v>313</v>
       </c>
-      <c r="C26" s="436"/>
+      <c r="C26" s="439"/>
       <c r="D26" s="274" t="s">
         <v>314</v>
       </c>
@@ -41376,7 +41379,7 @@
       <c r="F26" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="G26" s="446" t="s">
+      <c r="G26" s="444" t="s">
         <v>317</v>
       </c>
       <c r="H26" s="110" t="s">
@@ -41385,10 +41388,10 @@
       <c r="I26" s="304"/>
     </row>
     <row r="27" spans="2:9" ht="32">
-      <c r="B27" s="437" t="s">
+      <c r="B27" s="441" t="s">
         <v>319</v>
       </c>
-      <c r="C27" s="438"/>
+      <c r="C27" s="442"/>
       <c r="D27" s="274" t="s">
         <v>314</v>
       </c>
@@ -41398,7 +41401,7 @@
       <c r="F27" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="G27" s="446"/>
+      <c r="G27" s="444"/>
       <c r="H27" s="309"/>
       <c r="I27" s="304"/>
     </row>
@@ -41416,7 +41419,7 @@
       <c r="F28" s="310" t="s">
         <v>322</v>
       </c>
-      <c r="G28" s="446" t="s">
+      <c r="G28" s="444" t="s">
         <v>323</v>
       </c>
       <c r="H28" s="209" t="s">
@@ -41438,7 +41441,7 @@
       <c r="F29" s="310" t="s">
         <v>322</v>
       </c>
-      <c r="G29" s="446"/>
+      <c r="G29" s="444"/>
       <c r="H29" s="209" t="s">
         <v>326</v>
       </c>
@@ -41458,7 +41461,7 @@
       <c r="F30" s="310" t="s">
         <v>322</v>
       </c>
-      <c r="G30" s="446"/>
+      <c r="G30" s="444"/>
       <c r="H30" s="209"/>
       <c r="I30" s="304"/>
     </row>
@@ -41476,7 +41479,7 @@
       <c r="F31" s="310" t="s">
         <v>322</v>
       </c>
-      <c r="G31" s="446"/>
+      <c r="G31" s="444"/>
       <c r="H31" s="209"/>
       <c r="I31" s="304"/>
     </row>
@@ -41828,21 +41831,14 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="E5:F5"/>
@@ -41858,14 +41854,21 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G22:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41879,7 +41882,7 @@
   </sheetPr>
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -41932,11 +41935,11 @@
       <c r="B5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="440" t="s">
+      <c r="C5" s="449" t="s">
         <v>361</v>
       </c>
-      <c r="D5" s="440"/>
-      <c r="E5" s="440"/>
+      <c r="D5" s="449"/>
+      <c r="E5" s="449"/>
       <c r="F5" s="312"/>
       <c r="G5" s="304"/>
       <c r="H5" s="304"/>
@@ -42342,8 +42345,8 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -43126,7 +43129,7 @@
         <v>397</v>
       </c>
       <c r="D49" s="119" t="s">
-        <v>448</v>
+        <v>1691</v>
       </c>
       <c r="E49" s="323" t="s">
         <v>409</v>
@@ -43273,10 +43276,10 @@
         <v>473</v>
       </c>
       <c r="D5" s="424"/>
-      <c r="E5" s="440"/>
-      <c r="F5" s="440"/>
-      <c r="G5" s="440"/>
-      <c r="H5" s="440"/>
+      <c r="E5" s="449"/>
+      <c r="F5" s="449"/>
+      <c r="G5" s="449"/>
+      <c r="H5" s="449"/>
       <c r="I5" s="322"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1">
@@ -43294,18 +43297,18 @@
       <c r="I6" s="322"/>
     </row>
     <row r="7" spans="2:9" s="117" customFormat="1" ht="16">
-      <c r="B7" s="441" t="s">
+      <c r="B7" s="450" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="479"/>
-      <c r="D7" s="442"/>
+      <c r="C7" s="467"/>
+      <c r="D7" s="451"/>
       <c r="E7" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="444" t="s">
+      <c r="F7" s="446" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="445"/>
+      <c r="G7" s="447"/>
       <c r="H7" s="283" t="s">
         <v>32</v>
       </c>
@@ -43626,11 +43629,11 @@
     </row>
     <row r="18" spans="1:141" s="117" customFormat="1" ht="16">
       <c r="A18" s="306"/>
-      <c r="B18" s="441" t="s">
+      <c r="B18" s="450" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="479"/>
-      <c r="D18" s="442"/>
+      <c r="C18" s="467"/>
+      <c r="D18" s="451"/>
       <c r="E18" s="61" t="s">
         <v>31</v>
       </c>
@@ -43782,10 +43785,10 @@
       <c r="B19" s="328" t="s">
         <v>501</v>
       </c>
-      <c r="C19" s="466" t="s">
+      <c r="C19" s="483" t="s">
         <v>502</v>
       </c>
-      <c r="D19" s="468"/>
+      <c r="D19" s="484"/>
       <c r="E19" s="313" t="s">
         <v>503</v>
       </c>
@@ -44091,11 +44094,11 @@
     </row>
     <row r="21" spans="1:141" ht="80">
       <c r="A21" s="304"/>
-      <c r="B21" s="466" t="s">
+      <c r="B21" s="483" t="s">
         <v>510</v>
       </c>
-      <c r="C21" s="467"/>
-      <c r="D21" s="468"/>
+      <c r="C21" s="491"/>
+      <c r="D21" s="484"/>
       <c r="E21" s="59" t="s">
         <v>511</v>
       </c>
@@ -44244,11 +44247,11 @@
     </row>
     <row r="22" spans="1:141" ht="32">
       <c r="A22" s="304"/>
-      <c r="B22" s="466" t="s">
+      <c r="B22" s="483" t="s">
         <v>514</v>
       </c>
-      <c r="C22" s="467"/>
-      <c r="D22" s="468"/>
+      <c r="C22" s="491"/>
+      <c r="D22" s="484"/>
       <c r="E22" s="313" t="s">
         <v>515</v>
       </c>
@@ -44400,14 +44403,14 @@
       <c r="B24" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="480" t="s">
+      <c r="C24" s="477" t="s">
         <v>518</v>
       </c>
-      <c r="D24" s="481"/>
-      <c r="E24" s="481"/>
-      <c r="F24" s="481"/>
-      <c r="G24" s="481"/>
-      <c r="H24" s="481"/>
+      <c r="D24" s="478"/>
+      <c r="E24" s="478"/>
+      <c r="F24" s="478"/>
+      <c r="G24" s="478"/>
+      <c r="H24" s="478"/>
       <c r="I24" s="240"/>
       <c r="J24" s="238"/>
       <c r="K24" s="238"/>
@@ -44547,14 +44550,14 @@
       <c r="B25" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="482" t="s">
+      <c r="C25" s="479" t="s">
         <v>519</v>
       </c>
-      <c r="D25" s="483"/>
-      <c r="E25" s="483"/>
-      <c r="F25" s="483"/>
-      <c r="G25" s="483"/>
-      <c r="H25" s="483"/>
+      <c r="D25" s="480"/>
+      <c r="E25" s="480"/>
+      <c r="F25" s="480"/>
+      <c r="G25" s="480"/>
+      <c r="H25" s="480"/>
       <c r="I25" s="240"/>
       <c r="J25" s="238"/>
       <c r="K25" s="238"/>
@@ -44694,14 +44697,14 @@
       <c r="B26" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="484" t="s">
+      <c r="C26" s="481" t="s">
         <v>500</v>
       </c>
-      <c r="D26" s="485"/>
-      <c r="E26" s="485"/>
-      <c r="F26" s="485"/>
-      <c r="G26" s="485"/>
-      <c r="H26" s="485"/>
+      <c r="D26" s="482"/>
+      <c r="E26" s="482"/>
+      <c r="F26" s="482"/>
+      <c r="G26" s="482"/>
+      <c r="H26" s="482"/>
       <c r="I26" s="240"/>
       <c r="J26" s="238"/>
       <c r="K26" s="238"/>
@@ -44838,18 +44841,18 @@
     </row>
     <row r="27" spans="1:141" s="170" customFormat="1" ht="16">
       <c r="A27" s="213"/>
-      <c r="B27" s="441" t="s">
+      <c r="B27" s="450" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="479"/>
-      <c r="D27" s="442"/>
+      <c r="C27" s="467"/>
+      <c r="D27" s="451"/>
       <c r="E27" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="444" t="s">
+      <c r="F27" s="446" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="445"/>
+      <c r="G27" s="447"/>
       <c r="H27" s="283" t="s">
         <v>32</v>
       </c>
@@ -44924,75 +44927,75 @@
       <c r="BW27" s="213"/>
     </row>
     <row r="28" spans="1:141" s="238" customFormat="1" ht="32">
-      <c r="B28" s="466" t="s">
+      <c r="B28" s="483" t="s">
         <v>520</v>
       </c>
-      <c r="C28" s="467"/>
-      <c r="D28" s="468"/>
+      <c r="C28" s="491"/>
+      <c r="D28" s="484"/>
       <c r="E28" s="313" t="s">
         <v>521</v>
       </c>
       <c r="F28" s="58" t="s">
         <v>522</v>
       </c>
-      <c r="G28" s="471" t="s">
+      <c r="G28" s="476" t="s">
         <v>523</v>
       </c>
-      <c r="H28" s="471"/>
+      <c r="H28" s="476"/>
       <c r="I28" s="323" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:141" s="238" customFormat="1" ht="32">
-      <c r="B29" s="466" t="s">
+      <c r="B29" s="483" t="s">
         <v>514</v>
       </c>
-      <c r="C29" s="467"/>
-      <c r="D29" s="468"/>
+      <c r="C29" s="491"/>
+      <c r="D29" s="484"/>
       <c r="E29" s="313" t="s">
         <v>521</v>
       </c>
       <c r="F29" s="58" t="s">
         <v>522</v>
       </c>
-      <c r="G29" s="471"/>
-      <c r="H29" s="471"/>
+      <c r="G29" s="476"/>
+      <c r="H29" s="476"/>
       <c r="I29" s="323" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:141" s="238" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="466" t="s">
+      <c r="B30" s="483" t="s">
         <v>526</v>
       </c>
-      <c r="C30" s="467"/>
-      <c r="D30" s="468"/>
+      <c r="C30" s="491"/>
+      <c r="D30" s="484"/>
       <c r="E30" s="313" t="s">
         <v>521</v>
       </c>
       <c r="F30" s="58" t="s">
         <v>522</v>
       </c>
-      <c r="G30" s="471"/>
-      <c r="H30" s="471"/>
+      <c r="G30" s="476"/>
+      <c r="H30" s="476"/>
       <c r="I30" s="323" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:141" s="238" customFormat="1" ht="30" customHeight="1">
-      <c r="B31" s="469" t="s">
+      <c r="B31" s="492" t="s">
         <v>528</v>
       </c>
-      <c r="C31" s="469"/>
-      <c r="D31" s="470"/>
+      <c r="C31" s="492"/>
+      <c r="D31" s="493"/>
       <c r="E31" s="313" t="s">
         <v>521</v>
       </c>
       <c r="F31" s="58" t="s">
         <v>522</v>
       </c>
-      <c r="G31" s="471"/>
-      <c r="H31" s="471"/>
+      <c r="G31" s="476"/>
+      <c r="H31" s="476"/>
       <c r="I31" s="323" t="s">
         <v>529</v>
       </c>
@@ -45200,11 +45203,11 @@
         <v>28</v>
       </c>
       <c r="E36" s="276"/>
-      <c r="F36" s="477" t="s">
+      <c r="F36" s="475" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="477"/>
-      <c r="H36" s="477"/>
+      <c r="G36" s="475"/>
+      <c r="H36" s="475"/>
       <c r="I36" s="63" t="s">
         <v>222</v>
       </c>
@@ -45218,15 +45221,15 @@
       <c r="C37" s="313" t="s">
         <v>534</v>
       </c>
-      <c r="D37" s="435" t="s">
+      <c r="D37" s="438" t="s">
         <v>535</v>
       </c>
-      <c r="E37" s="436"/>
-      <c r="F37" s="471" t="s">
+      <c r="E37" s="439"/>
+      <c r="F37" s="476" t="s">
         <v>536</v>
       </c>
-      <c r="G37" s="471"/>
-      <c r="H37" s="471"/>
+      <c r="G37" s="476"/>
+      <c r="H37" s="476"/>
       <c r="I37" s="323" t="s">
         <v>537</v>
       </c>
@@ -45240,15 +45243,15 @@
       <c r="C38" s="313" t="s">
         <v>534</v>
       </c>
-      <c r="D38" s="435" t="s">
+      <c r="D38" s="438" t="s">
         <v>535</v>
       </c>
-      <c r="E38" s="436"/>
-      <c r="F38" s="471" t="s">
+      <c r="E38" s="439"/>
+      <c r="F38" s="476" t="s">
         <v>538</v>
       </c>
-      <c r="G38" s="471"/>
-      <c r="H38" s="471"/>
+      <c r="G38" s="476"/>
+      <c r="H38" s="476"/>
       <c r="I38" s="323" t="s">
         <v>537</v>
       </c>
@@ -45262,15 +45265,15 @@
       <c r="C39" s="313" t="s">
         <v>534</v>
       </c>
-      <c r="D39" s="435" t="s">
+      <c r="D39" s="438" t="s">
         <v>535</v>
       </c>
-      <c r="E39" s="436"/>
-      <c r="F39" s="471" t="s">
+      <c r="E39" s="439"/>
+      <c r="F39" s="476" t="s">
         <v>540</v>
       </c>
-      <c r="G39" s="471"/>
-      <c r="H39" s="471"/>
+      <c r="G39" s="476"/>
+      <c r="H39" s="476"/>
       <c r="I39" s="323" t="s">
         <v>537</v>
       </c>
@@ -45284,15 +45287,15 @@
       <c r="C40" s="313" t="s">
         <v>534</v>
       </c>
-      <c r="D40" s="435" t="s">
+      <c r="D40" s="438" t="s">
         <v>535</v>
       </c>
-      <c r="E40" s="436"/>
-      <c r="F40" s="471" t="s">
+      <c r="E40" s="439"/>
+      <c r="F40" s="476" t="s">
         <v>542</v>
       </c>
-      <c r="G40" s="471"/>
-      <c r="H40" s="471"/>
+      <c r="G40" s="476"/>
+      <c r="H40" s="476"/>
       <c r="I40" s="323" t="s">
         <v>537</v>
       </c>
@@ -45370,11 +45373,11 @@
         <v>28</v>
       </c>
       <c r="E45" s="276"/>
-      <c r="F45" s="477" t="s">
+      <c r="F45" s="475" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="477"/>
-      <c r="H45" s="477"/>
+      <c r="G45" s="475"/>
+      <c r="H45" s="475"/>
       <c r="I45" s="63" t="s">
         <v>222</v>
       </c>
@@ -45392,11 +45395,11 @@
         <v>546</v>
       </c>
       <c r="E46" s="58"/>
-      <c r="F46" s="471" t="s">
+      <c r="F46" s="476" t="s">
         <v>547</v>
       </c>
-      <c r="G46" s="471"/>
-      <c r="H46" s="471"/>
+      <c r="G46" s="476"/>
+      <c r="H46" s="476"/>
       <c r="I46" s="327" t="s">
         <v>506</v>
       </c>
@@ -45414,11 +45417,11 @@
         <v>546</v>
       </c>
       <c r="E47" s="58"/>
-      <c r="F47" s="471" t="s">
+      <c r="F47" s="476" t="s">
         <v>548</v>
       </c>
-      <c r="G47" s="471"/>
-      <c r="H47" s="471"/>
+      <c r="G47" s="476"/>
+      <c r="H47" s="476"/>
       <c r="I47" s="327" t="s">
         <v>506</v>
       </c>
@@ -45438,11 +45441,11 @@
       <c r="E48" s="58" t="s">
         <v>552</v>
       </c>
-      <c r="F48" s="471" t="s">
+      <c r="F48" s="476" t="s">
         <v>553</v>
       </c>
-      <c r="G48" s="471"/>
-      <c r="H48" s="471"/>
+      <c r="G48" s="476"/>
+      <c r="H48" s="476"/>
       <c r="I48" s="327" t="s">
         <v>506</v>
       </c>
@@ -45516,10 +45519,10 @@
         <v>557</v>
       </c>
       <c r="F53" s="276"/>
-      <c r="G53" s="473" t="s">
+      <c r="G53" s="487" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="474"/>
+      <c r="H53" s="488"/>
       <c r="I53" s="63" t="s">
         <v>222</v>
       </c>
@@ -45529,18 +45532,18 @@
       <c r="B54" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="C54" s="466" t="s">
+      <c r="C54" s="483" t="s">
         <v>558</v>
       </c>
-      <c r="D54" s="468"/>
+      <c r="D54" s="484"/>
       <c r="E54" s="58" t="s">
         <v>559</v>
       </c>
       <c r="F54" s="58"/>
-      <c r="G54" s="471" t="s">
+      <c r="G54" s="476" t="s">
         <v>560</v>
       </c>
-      <c r="H54" s="471"/>
+      <c r="H54" s="476"/>
       <c r="I54" s="127" t="s">
         <v>561</v>
       </c>
@@ -45560,10 +45563,10 @@
         <v>564</v>
       </c>
       <c r="F55" s="83"/>
-      <c r="G55" s="472" t="s">
+      <c r="G55" s="486" t="s">
         <v>565</v>
       </c>
-      <c r="H55" s="472"/>
+      <c r="H55" s="486"/>
       <c r="I55" s="127" t="s">
         <v>561</v>
       </c>
@@ -45583,10 +45586,10 @@
         <v>564</v>
       </c>
       <c r="F56" s="83"/>
-      <c r="G56" s="472" t="s">
+      <c r="G56" s="486" t="s">
         <v>565</v>
       </c>
-      <c r="H56" s="472"/>
+      <c r="H56" s="486"/>
       <c r="I56" s="127" t="s">
         <v>561</v>
       </c>
@@ -45596,18 +45599,18 @@
       <c r="B57" s="94" t="s">
         <v>502</v>
       </c>
-      <c r="C57" s="466" t="s">
+      <c r="C57" s="483" t="s">
         <v>558</v>
       </c>
-      <c r="D57" s="468"/>
+      <c r="D57" s="484"/>
       <c r="E57" s="58" t="s">
         <v>559</v>
       </c>
       <c r="F57" s="58"/>
-      <c r="G57" s="472" t="s">
+      <c r="G57" s="486" t="s">
         <v>567</v>
       </c>
-      <c r="H57" s="472"/>
+      <c r="H57" s="486"/>
       <c r="I57" s="323" t="s">
         <v>568</v>
       </c>
@@ -45617,18 +45620,18 @@
       <c r="B58" s="94" t="s">
         <v>569</v>
       </c>
-      <c r="C58" s="466" t="s">
+      <c r="C58" s="483" t="s">
         <v>558</v>
       </c>
-      <c r="D58" s="468"/>
+      <c r="D58" s="484"/>
       <c r="E58" s="58" t="s">
         <v>559</v>
       </c>
       <c r="F58" s="58"/>
-      <c r="G58" s="472" t="s">
+      <c r="G58" s="486" t="s">
         <v>567</v>
       </c>
-      <c r="H58" s="472"/>
+      <c r="H58" s="486"/>
       <c r="I58" s="323" t="s">
         <v>568</v>
       </c>
@@ -45638,18 +45641,18 @@
       <c r="B59" s="83" t="s">
         <v>570</v>
       </c>
-      <c r="C59" s="466" t="s">
+      <c r="C59" s="483" t="s">
         <v>558</v>
       </c>
-      <c r="D59" s="468"/>
+      <c r="D59" s="484"/>
       <c r="E59" s="58" t="s">
         <v>559</v>
       </c>
       <c r="F59" s="58"/>
-      <c r="G59" s="472" t="s">
+      <c r="G59" s="486" t="s">
         <v>567</v>
       </c>
-      <c r="H59" s="472"/>
+      <c r="H59" s="486"/>
       <c r="I59" s="323" t="s">
         <v>568</v>
       </c>
@@ -45670,14 +45673,14 @@
       <c r="B61" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="475" t="s">
+      <c r="C61" s="489" t="s">
         <v>571</v>
       </c>
-      <c r="D61" s="476"/>
-      <c r="E61" s="476"/>
-      <c r="F61" s="476"/>
-      <c r="G61" s="476"/>
-      <c r="H61" s="476"/>
+      <c r="D61" s="490"/>
+      <c r="E61" s="490"/>
+      <c r="F61" s="490"/>
+      <c r="G61" s="490"/>
+      <c r="H61" s="490"/>
       <c r="I61" s="322"/>
       <c r="J61" s="312"/>
     </row>
@@ -45722,11 +45725,11 @@
         <v>557</v>
       </c>
       <c r="E64" s="276"/>
-      <c r="F64" s="477" t="s">
+      <c r="F64" s="475" t="s">
         <v>32</v>
       </c>
-      <c r="G64" s="477"/>
-      <c r="H64" s="477"/>
+      <c r="G64" s="475"/>
+      <c r="H64" s="475"/>
       <c r="I64" s="63" t="s">
         <v>222</v>
       </c>
@@ -45743,11 +45746,11 @@
         <v>575</v>
       </c>
       <c r="E65" s="331"/>
-      <c r="F65" s="478" t="s">
+      <c r="F65" s="485" t="s">
         <v>576</v>
       </c>
-      <c r="G65" s="478"/>
-      <c r="H65" s="478"/>
+      <c r="G65" s="485"/>
+      <c r="H65" s="485"/>
       <c r="I65" s="327" t="s">
         <v>577</v>
       </c>
@@ -45764,9 +45767,9 @@
         <v>575</v>
       </c>
       <c r="E66" s="313"/>
-      <c r="F66" s="478"/>
-      <c r="G66" s="478"/>
-      <c r="H66" s="478"/>
+      <c r="F66" s="485"/>
+      <c r="G66" s="485"/>
+      <c r="H66" s="485"/>
       <c r="I66" s="327" t="s">
         <v>577</v>
       </c>
@@ -45787,14 +45790,14 @@
       <c r="B68" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="487" t="s">
+      <c r="C68" s="468" t="s">
         <v>578</v>
       </c>
-      <c r="D68" s="488"/>
-      <c r="E68" s="488"/>
-      <c r="F68" s="488"/>
-      <c r="G68" s="488"/>
-      <c r="H68" s="488"/>
+      <c r="D68" s="469"/>
+      <c r="E68" s="469"/>
+      <c r="F68" s="469"/>
+      <c r="G68" s="469"/>
+      <c r="H68" s="469"/>
       <c r="I68" s="322"/>
       <c r="J68" s="322"/>
     </row>
@@ -45802,14 +45805,14 @@
       <c r="B69" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="489" t="s">
+      <c r="C69" s="470" t="s">
         <v>579</v>
       </c>
-      <c r="D69" s="490"/>
-      <c r="E69" s="490"/>
-      <c r="F69" s="490"/>
-      <c r="G69" s="490"/>
-      <c r="H69" s="491"/>
+      <c r="D69" s="471"/>
+      <c r="E69" s="471"/>
+      <c r="F69" s="471"/>
+      <c r="G69" s="471"/>
+      <c r="H69" s="472"/>
       <c r="I69" s="322"/>
       <c r="J69" s="322"/>
     </row>
@@ -45817,14 +45820,14 @@
       <c r="B70" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="492" t="s">
+      <c r="C70" s="473" t="s">
         <v>580</v>
       </c>
-      <c r="D70" s="493"/>
-      <c r="E70" s="493"/>
-      <c r="F70" s="493"/>
-      <c r="G70" s="493"/>
-      <c r="H70" s="493"/>
+      <c r="D70" s="474"/>
+      <c r="E70" s="474"/>
+      <c r="F70" s="474"/>
+      <c r="G70" s="474"/>
+      <c r="H70" s="474"/>
       <c r="I70" s="322"/>
       <c r="J70" s="322"/>
     </row>
@@ -45835,15 +45838,15 @@
       <c r="C71" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="444" t="s">
+      <c r="D71" s="446" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="445"/>
-      <c r="F71" s="477" t="s">
+      <c r="E71" s="447"/>
+      <c r="F71" s="475" t="s">
         <v>32</v>
       </c>
-      <c r="G71" s="477"/>
-      <c r="H71" s="477"/>
+      <c r="G71" s="475"/>
+      <c r="H71" s="475"/>
       <c r="I71" s="244" t="s">
         <v>581</v>
       </c>
@@ -45860,11 +45863,11 @@
         <v>229</v>
       </c>
       <c r="E72" s="228"/>
-      <c r="F72" s="437" t="s">
+      <c r="F72" s="441" t="s">
         <v>584</v>
       </c>
-      <c r="G72" s="486"/>
-      <c r="H72" s="486"/>
+      <c r="G72" s="466"/>
+      <c r="H72" s="466"/>
       <c r="I72" s="245" t="s">
         <v>585</v>
       </c>
@@ -45881,11 +45884,11 @@
         <v>229</v>
       </c>
       <c r="E73" s="228"/>
-      <c r="F73" s="437" t="s">
+      <c r="F73" s="441" t="s">
         <v>588</v>
       </c>
-      <c r="G73" s="486"/>
-      <c r="H73" s="486"/>
+      <c r="G73" s="466"/>
+      <c r="H73" s="466"/>
       <c r="I73" s="246" t="s">
         <v>589</v>
       </c>
@@ -45902,11 +45905,11 @@
         <v>229</v>
       </c>
       <c r="E74" s="228"/>
-      <c r="F74" s="437" t="s">
+      <c r="F74" s="441" t="s">
         <v>592</v>
       </c>
-      <c r="G74" s="486"/>
-      <c r="H74" s="486"/>
+      <c r="G74" s="466"/>
+      <c r="H74" s="466"/>
       <c r="I74" s="247" t="s">
         <v>593</v>
       </c>
@@ -45925,6 +45928,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H66"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="G28:H31"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F72:H72"/>
     <mergeCell ref="F73:H73"/>
@@ -45941,54 +45992,6 @@
     <mergeCell ref="F47:H47"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="G28:H31"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H66"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45996,12 +45999,62 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
+      <UserInfo>
+        <DisplayName>RATANAPRAYUL, Natschja</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>BARREIX ETCHEGOIMBERRY, Maria</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Guy Manners (Green Ink)</DisplayName>
+        <AccountId>27</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Pete Christopher (Green Ink) (p.christopher@greenink.co.uk)</DisplayName>
+        <AccountId>26</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>KIPRUTO, Hillary Kipchumba</DisplayName>
+        <AccountId>28</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SEYDI, Aminata Binetou Wahebine</DisplayName>
+        <AccountId>61</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TITI-OFEI, Regina</DisplayName>
+        <AccountId>62</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>COSMAS, Leonard</DisplayName>
+        <AccountId>63</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>AMIN, Avni</DisplayName>
+        <AccountId>46</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GARCIA MORENO ESTEVA, Claudia M.</DisplayName>
+        <AccountId>47</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46216,68 +46269,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
-      <UserInfo>
-        <DisplayName>RATANAPRAYUL, Natschja</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>BARREIX ETCHEGOIMBERRY, Maria</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Guy Manners (Green Ink)</DisplayName>
-        <AccountId>27</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Pete Christopher (Green Ink) (p.christopher@greenink.co.uk)</DisplayName>
-        <AccountId>26</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>KIPRUTO, Hillary Kipchumba</DisplayName>
-        <AccountId>28</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SEYDI, Aminata Binetou Wahebine</DisplayName>
-        <AccountId>61</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TITI-OFEI, Regina</DisplayName>
-        <AccountId>62</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>COSMAS, Leonard</DisplayName>
-        <AccountId>63</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>AMIN, Avni</DisplayName>
-        <AccountId>46</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GARCIA MORENO ESTEVA, Claudia M.</DisplayName>
-        <AccountId>47</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD935512-F454-4A53-8449-95D547709634}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -46302,18 +46314,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD935512-F454-4A53-8449-95D547709634}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input/l2/WHO-SRH-21.2-eng.xlsx
+++ b/input/l2/WHO-SRH-21.2-eng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adam/Src/who-int/anc-cds/input/l2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE0754B-6718-3C4F-BED2-82600D174BE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18243CC-0371-FE47-91F1-8B218C04221B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="1280" windowWidth="26060" windowHeight="17620" firstSheet="11" activeTab="16" xr2:uid="{8743308B-CEBB-4E83-A8A2-EC270BF9A959}"/>
+    <workbookView xWindow="3020" yWindow="1280" windowWidth="26060" windowHeight="17620" firstSheet="10" activeTab="11" xr2:uid="{8743308B-CEBB-4E83-A8A2-EC270BF9A959}"/>
   </bookViews>
   <sheets>
     <sheet name="FP.LO.004-3. PregTestNegative" sheetId="26" state="hidden" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3731" uniqueCount="1695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3731" uniqueCount="1704">
   <si>
     <t>FP.LO.004-2 Pregnancy Test Needed</t>
   </si>
@@ -9422,6 +9422,33 @@
   </si>
   <si>
     <t>"Syphilis diagnosis" = "Syphilis positive" (RPR)</t>
+  </si>
+  <si>
+    <t>"Gestational diabetes mellitus (GDM) diagnosis" = "GDM positive" [92 mg/dL, 126 mg/dL)</t>
+  </si>
+  <si>
+    <t>"Gestational diabetes mellitus (GDM) diagnosis" = "GDM positive" '92 mg/dL ≤ "75 g OGTT – fasting glucose results" &lt; 126 mg/dL</t>
+  </si>
+  <si>
+    <t>"Gestational diabetes mellitus (GDM) diagnosis" = "GDM positive" '180 mg/dL ≤ "75 g OGTT – 1 hour results" &lt; 200 mg/dL</t>
+  </si>
+  <si>
+    <t>"Gestational diabetes mellitus (GDM) diagnosis" = "GDM positive" '153 mg/dL ≤ "75 g OGTT – 2 hours results" &lt; 200 mg/dL</t>
+  </si>
+  <si>
+    <t>"Diabetes mellitus (DM) during pregnancy diagnosis" = "DM positive" '"Fasting plasma glucose results" ≥ 126 mg/dL</t>
+  </si>
+  <si>
+    <t>"Diabetes mellitus (DM) during pregnancy diagnosis" = "DM positive" '"75 g OGTT – fasting glucose results" ≥ 126 mg/dL</t>
+  </si>
+  <si>
+    <t>"Diabetes mellitus (DM) during pregnancy diagnosis" = "DM positive" '"75 g OGTT – 1 hour results" ≥ 200 mg/dL</t>
+  </si>
+  <si>
+    <t>"Diabetes mellitus (DM) during pregnancy diagnosis" = "DM positive" '"75 g OGTT – 2 hours results" ≥ 200 mg/dL</t>
+  </si>
+  <si>
+    <t>"Diabetes mellitus (DM) during pregnancy diagnosis" = "DM positive" '"Random plasma glucose test results" ≥ 200 mg/dL</t>
   </si>
 </sst>
 </file>
@@ -16546,8 +16573,8 @@
   </sheetPr>
   <dimension ref="A2:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18324,8 +18351,8 @@
       <c r="B91" s="310" t="s">
         <v>768</v>
       </c>
-      <c r="C91" s="310" t="s">
-        <v>769</v>
+      <c r="C91" s="381" t="s">
+        <v>1695</v>
       </c>
       <c r="D91" s="58" t="s">
         <v>770</v>
@@ -18342,11 +18369,11 @@
       <c r="J91" s="332"/>
     </row>
     <row r="92" spans="2:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="310" t="s">
+      <c r="B92" s="381" t="s">
         <v>773</v>
       </c>
-      <c r="C92" s="310" t="s">
-        <v>769</v>
+      <c r="C92" s="381" t="s">
+        <v>1696</v>
       </c>
       <c r="D92" s="58" t="s">
         <v>770</v>
@@ -18363,11 +18390,11 @@
       <c r="J92" s="332"/>
     </row>
     <row r="93" spans="2:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="310" t="s">
+      <c r="B93" s="381" t="s">
         <v>775</v>
       </c>
-      <c r="C93" s="310" t="s">
-        <v>769</v>
+      <c r="C93" s="381" t="s">
+        <v>1697</v>
       </c>
       <c r="D93" s="58" t="s">
         <v>770</v>
@@ -18384,11 +18411,11 @@
       <c r="J93" s="332"/>
     </row>
     <row r="94" spans="2:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="310" t="s">
+      <c r="B94" s="381" t="s">
         <v>777</v>
       </c>
-      <c r="C94" s="310" t="s">
-        <v>769</v>
+      <c r="C94" s="381" t="s">
+        <v>1698</v>
       </c>
       <c r="D94" s="58" t="s">
         <v>770</v>
@@ -18405,11 +18432,11 @@
       <c r="J94" s="332"/>
     </row>
     <row r="95" spans="2:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="310" t="s">
+      <c r="B95" s="381" t="s">
         <v>779</v>
       </c>
-      <c r="C95" s="310" t="s">
-        <v>780</v>
+      <c r="C95" s="381" t="s">
+        <v>1699</v>
       </c>
       <c r="D95" s="58" t="s">
         <v>781</v>
@@ -18426,11 +18453,11 @@
       <c r="J95" s="332"/>
     </row>
     <row r="96" spans="2:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="310" t="s">
+      <c r="B96" s="381" t="s">
         <v>783</v>
       </c>
-      <c r="C96" s="310" t="s">
-        <v>780</v>
+      <c r="C96" s="381" t="s">
+        <v>1700</v>
       </c>
       <c r="D96" s="58" t="s">
         <v>781</v>
@@ -18447,11 +18474,11 @@
       <c r="J96" s="332"/>
     </row>
     <row r="97" spans="2:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="310" t="s">
+      <c r="B97" s="381" t="s">
         <v>785</v>
       </c>
-      <c r="C97" s="310" t="s">
-        <v>780</v>
+      <c r="C97" s="381" t="s">
+        <v>1701</v>
       </c>
       <c r="D97" s="58" t="s">
         <v>781</v>
@@ -18468,11 +18495,11 @@
       <c r="J97" s="332"/>
     </row>
     <row r="98" spans="2:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="310" t="s">
+      <c r="B98" s="381" t="s">
         <v>787</v>
       </c>
-      <c r="C98" s="310" t="s">
-        <v>780</v>
+      <c r="C98" s="381" t="s">
+        <v>1702</v>
       </c>
       <c r="D98" s="58" t="s">
         <v>781</v>
@@ -18489,11 +18516,11 @@
       <c r="J98" s="178"/>
     </row>
     <row r="99" spans="2:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="310" t="s">
+      <c r="B99" s="381" t="s">
         <v>789</v>
       </c>
-      <c r="C99" s="310" t="s">
-        <v>780</v>
+      <c r="C99" s="381" t="s">
+        <v>1703</v>
       </c>
       <c r="D99" s="58" t="s">
         <v>781</v>
@@ -26743,7 +26770,7 @@
   </sheetPr>
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>

--- a/input/l2/WHO-SRH-21.2-eng.xlsx
+++ b/input/l2/WHO-SRH-21.2-eng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adam/Src/who-int/anc-cds/input/l2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372D6153-77BC-6449-BD77-3432E36CD55F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF61CE34-1BB5-B542-984D-B5E9E10DE8EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="1060" windowWidth="26060" windowHeight="17620" firstSheet="6" activeTab="9" xr2:uid="{8743308B-CEBB-4E83-A8A2-EC270BF9A959}"/>
+    <workbookView xWindow="600" yWindow="1500" windowWidth="26060" windowHeight="17620" firstSheet="11" activeTab="16" xr2:uid="{8743308B-CEBB-4E83-A8A2-EC270BF9A959}"/>
   </bookViews>
   <sheets>
     <sheet name="FP.LO.004-3. PregTestNegative" sheetId="26" state="hidden" r:id="rId1"/>
@@ -10860,7 +10860,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="636">
+  <cellXfs count="637">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -12772,6 +12772,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -14113,7 +14116,7 @@
   </sheetPr>
   <dimension ref="A2:EK75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -19418,8 +19421,8 @@
   </sheetPr>
   <dimension ref="A2:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25339,8 +25342,8 @@
   </sheetPr>
   <dimension ref="A2:HA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29532,8 +29535,8 @@
   </sheetPr>
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30179,7 +30182,7 @@
       <c r="C36" s="300" t="s">
         <v>1010</v>
       </c>
-      <c r="D36" s="600" t="s">
+      <c r="D36" s="636" t="s">
         <v>1011</v>
       </c>
       <c r="E36" s="600"/>
@@ -30342,7 +30345,7 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="D40" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
